--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -199,64 +199,64 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>[0.31, 0.35, 0.34]</t>
-  </si>
-  <si>
-    <t>[0.37, 0.4, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.34, 0.35, 0.31]</t>
-  </si>
-  <si>
-    <t>[0.18, 0.6, 0.22]</t>
+    <t>[0.34, 0.31, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.37, 0.23]</t>
+  </si>
+  <si>
+    <t>[0.34, 0.32, 0.34]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.18, 0.22]</t>
   </si>
   <si>
     <t>[0.63, 0.22, 0.14]</t>
   </si>
   <si>
-    <t>[0.38, 0.41, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.68, 0.17]</t>
+    <t>[0.38, 0.21, 0.41]</t>
+  </si>
+  <si>
+    <t>[0.68, 0.15, 0.17]</t>
   </si>
   <si>
     <t>[0.22, 0.6, 0.18]</t>
   </si>
   <si>
-    <t>[0.55, 0.1, 0.34]</t>
-  </si>
-  <si>
-    <t>[0.43, 0.45, 0.12]</t>
-  </si>
-  <si>
-    <t>['#3d4027', '#b8beb4', '#7e876e']</t>
-  </si>
-  <si>
-    <t>['#35411d', '#758251', '#bfc88a']</t>
-  </si>
-  <si>
-    <t>['#807660', '#c4bb9b', '#3d3a2b']</t>
-  </si>
-  <si>
-    <t>['#314d12', '#bfcede', '#628138']</t>
+    <t>[0.56, 0.1, 0.34]</t>
+  </si>
+  <si>
+    <t>[0.44, 0.45, 0.11]</t>
+  </si>
+  <si>
+    <t>['#7f886e', '#3d4127', '#b8beb4']</t>
+  </si>
+  <si>
+    <t>['#758251', '#35411d', '#bfc889']</t>
+  </si>
+  <si>
+    <t>['#c4bb9c', '#3e3b2d', '#827862']</t>
+  </si>
+  <si>
+    <t>['#bfcede', '#314d12', '#628138']</t>
   </si>
   <si>
     <t>['#bccadc', '#2a4913', '#a2b1bc']</t>
   </si>
   <si>
-    <t>['#ccc8c1', '#66784e', '#273714']</t>
-  </si>
-  <si>
-    <t>['#5d6c45', '#b8c7dc', '#373217']</t>
+    <t>['#ccc8c1', '#283714', '#66784e']</t>
+  </si>
+  <si>
+    <t>['#b8c7dc', '#5c6c44', '#373217']</t>
   </si>
   <si>
     <t>['#192718', '#adbbd2', '#99a7bc']</t>
   </si>
   <si>
-    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
-  </si>
-  <si>
-    <t>['#bab9b6', '#8f8f8a', '#704f43']</t>
+    <t>['#acbad2', '#3f3e2a', '#97a4b9']</t>
+  </si>
+  <si>
+    <t>['#b9b8b5', '#8e8e88', '#704c3f']</t>
   </si>
 </sst>
 </file>
@@ -730,31 +730,31 @@
         <v>-76.4110874383</v>
       </c>
       <c r="J2">
-        <v>61.29928786254877</v>
+        <v>126.5631645844316</v>
       </c>
       <c r="K2">
-        <v>64.49839250526024</v>
+        <v>135.7539758812044</v>
       </c>
       <c r="L2">
-        <v>39.20468766203901</v>
+        <v>110.2767151315988</v>
       </c>
       <c r="M2">
-        <v>183.5505897913028</v>
+        <v>61.49758395955317</v>
       </c>
       <c r="N2">
-        <v>189.5492364240238</v>
+        <v>64.65939848329957</v>
       </c>
       <c r="O2">
-        <v>179.932516186573</v>
+        <v>39.38283493542211</v>
       </c>
       <c r="P2">
-        <v>126.3510205344849</v>
+        <v>183.6292628753858</v>
       </c>
       <c r="Q2">
-        <v>135.4956749145045</v>
+        <v>189.6336279363796</v>
       </c>
       <c r="R2">
-        <v>110.0047661049466</v>
+        <v>180.0335631545592</v>
       </c>
       <c r="S2" t="s">
         <v>61</v>
@@ -801,31 +801,31 @@
         <v>-76.411111596</v>
       </c>
       <c r="J3">
-        <v>53.24552056030928</v>
+        <v>116.8762323920106</v>
       </c>
       <c r="K3">
-        <v>64.83173634683813</v>
+        <v>130.04179096491</v>
       </c>
       <c r="L3">
-        <v>28.93991606869724</v>
+        <v>80.58489960269071</v>
       </c>
       <c r="M3">
-        <v>116.9171906354511</v>
+        <v>53.22184001949568</v>
       </c>
       <c r="N3">
-        <v>130.085846153845</v>
+        <v>64.81027934241865</v>
       </c>
       <c r="O3">
-        <v>80.61851505016641</v>
+        <v>28.92279027103484</v>
       </c>
       <c r="P3">
-        <v>191.2214017842582</v>
+        <v>191.1821714445269</v>
       </c>
       <c r="Q3">
-        <v>200.2590901679424</v>
+        <v>200.2241948994773</v>
       </c>
       <c r="R3">
-        <v>137.5250285341619</v>
+        <v>137.4939966492951</v>
       </c>
       <c r="S3" t="s">
         <v>62</v>
@@ -875,31 +875,31 @@
         <v>-76.4111424915</v>
       </c>
       <c r="J4">
-        <v>127.5648706998446</v>
+        <v>196.1845401388855</v>
       </c>
       <c r="K4">
-        <v>117.5441952818446</v>
+        <v>187.4492326503656</v>
       </c>
       <c r="L4">
-        <v>96.44549852656083</v>
+        <v>155.6496841247063</v>
       </c>
       <c r="M4">
-        <v>195.5144995036975</v>
+        <v>61.90421877825159</v>
       </c>
       <c r="N4">
-        <v>186.6339925173621</v>
+        <v>59.49599815932039</v>
       </c>
       <c r="O4">
-        <v>154.552905245463</v>
+        <v>44.64111624238532</v>
       </c>
       <c r="P4">
-        <v>60.72140441955506</v>
+        <v>130.0051064235949</v>
       </c>
       <c r="Q4">
-        <v>58.34024386079069</v>
+        <v>119.6158251407843</v>
       </c>
       <c r="R4">
-        <v>43.49748966836983</v>
+        <v>97.71941713594822</v>
       </c>
       <c r="S4" t="s">
         <v>63</v>
@@ -946,22 +946,22 @@
         <v>-80.40928359660001</v>
       </c>
       <c r="J5">
+        <v>191.3518264311085</v>
+      </c>
+      <c r="K5">
+        <v>206.0431961207371</v>
+      </c>
+      <c r="L5">
+        <v>221.9472304922189</v>
+      </c>
+      <c r="M5">
         <v>48.64646084337149</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>76.94636237256844</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>17.71605653384222</v>
-      </c>
-      <c r="M5">
-        <v>191.3518264311085</v>
-      </c>
-      <c r="N5">
-        <v>206.0431961207371</v>
-      </c>
-      <c r="O5">
-        <v>221.9472304922189</v>
       </c>
       <c r="P5">
         <v>97.96231550041296</v>
@@ -970,7 +970,7 @@
         <v>128.9413769430669</v>
       </c>
       <c r="R5">
-        <v>56.08100818909595</v>
+        <v>56.08100818909594</v>
       </c>
       <c r="S5" t="s">
         <v>64</v>
@@ -1026,22 +1026,22 @@
         <v>220.0308160196237</v>
       </c>
       <c r="M6">
-        <v>41.70671806954982</v>
+        <v>41.70808148114206</v>
       </c>
       <c r="N6">
-        <v>72.91763641989479</v>
+        <v>72.91859026225309</v>
       </c>
       <c r="O6">
-        <v>19.4729777967988</v>
+        <v>19.47520346483464</v>
       </c>
       <c r="P6">
-        <v>162.1790548204148</v>
+        <v>162.1814435328357</v>
       </c>
       <c r="Q6">
-        <v>176.7631758034032</v>
+        <v>176.7655866006281</v>
       </c>
       <c r="R6">
-        <v>187.6906238185244</v>
+        <v>187.6934477674003</v>
       </c>
       <c r="S6" t="s">
         <v>65</v>
@@ -1088,31 +1088,31 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="J7">
-        <v>204.405057285193</v>
+        <v>204.4227235919868</v>
       </c>
       <c r="K7">
-        <v>200.2555715262557</v>
+        <v>200.2727221958501</v>
       </c>
       <c r="L7">
-        <v>192.8300004186434</v>
+        <v>192.8627732946076</v>
       </c>
       <c r="M7">
-        <v>101.7244597186253</v>
+        <v>39.58090791179841</v>
       </c>
       <c r="N7">
-        <v>119.6308452716525</v>
+        <v>54.97963683527826</v>
       </c>
       <c r="O7">
-        <v>77.74923736340824</v>
+        <v>20.33447470817669</v>
       </c>
       <c r="P7">
-        <v>39.25806028833108</v>
+        <v>101.9141017019259</v>
       </c>
       <c r="Q7">
-        <v>54.62374836172941</v>
+        <v>119.8082225440996</v>
       </c>
       <c r="R7">
-        <v>20.05030144168325</v>
+        <v>77.92479695826066</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -1162,31 +1162,31 @@
         <v>-80.4847910049</v>
       </c>
       <c r="J8">
-        <v>92.81340810603754</v>
+        <v>183.9214150159144</v>
       </c>
       <c r="K8">
-        <v>108.1964968500805</v>
+        <v>199.0223889960659</v>
       </c>
       <c r="L8">
-        <v>69.09562652490003</v>
+        <v>219.7645508869342</v>
       </c>
       <c r="M8">
-        <v>183.9482451528821</v>
+        <v>92.38540466589484</v>
       </c>
       <c r="N8">
-        <v>199.0503895737077</v>
+        <v>107.7785858294953</v>
       </c>
       <c r="O8">
-        <v>219.8042480403625</v>
+        <v>68.48819124424988</v>
       </c>
       <c r="P8">
-        <v>54.77215267549849</v>
+        <v>54.59066633546077</v>
       </c>
       <c r="Q8">
-        <v>50.0282891507143</v>
+        <v>49.60212382786062</v>
       </c>
       <c r="R8">
-        <v>22.77887211585968</v>
+        <v>22.57256411849005</v>
       </c>
       <c r="S8" t="s">
         <v>67</v>
@@ -1236,10 +1236,10 @@
         <v>24.62294724073291</v>
       </c>
       <c r="K9">
-        <v>39.45588841721809</v>
+        <v>39.45588841721808</v>
       </c>
       <c r="L9">
-        <v>24.08240145545858</v>
+        <v>24.08240145545861</v>
       </c>
       <c r="M9">
         <v>172.6558463915306</v>
@@ -1304,31 +1304,31 @@
         <v>-80.4095616039</v>
       </c>
       <c r="J10">
-        <v>171.6524343774405</v>
+        <v>171.5424700663058</v>
       </c>
       <c r="K10">
-        <v>186.0459767897252</v>
+        <v>185.9211849449001</v>
       </c>
       <c r="L10">
-        <v>209.8695459237344</v>
+        <v>209.7348184897223</v>
       </c>
       <c r="M10">
-        <v>62.50738639268459</v>
+        <v>62.50506083223027</v>
       </c>
       <c r="N10">
-        <v>61.79379440779776</v>
+        <v>61.79112565176095</v>
       </c>
       <c r="O10">
-        <v>41.63170270407647</v>
+        <v>41.62810551067622</v>
       </c>
       <c r="P10">
-        <v>151.0872798556223</v>
+        <v>150.8932243397807</v>
       </c>
       <c r="Q10">
-        <v>163.9499035409798</v>
+        <v>163.7523723523916</v>
       </c>
       <c r="R10">
-        <v>185.6025110461135</v>
+        <v>185.3814140646039</v>
       </c>
       <c r="S10" t="s">
         <v>69</v>
@@ -1375,31 +1375,31 @@
         <v>60</v>
       </c>
       <c r="J11">
-        <v>185.5686494715423</v>
+        <v>184.8598147768016</v>
       </c>
       <c r="K11">
-        <v>184.8934601130462</v>
+        <v>184.1953174996002</v>
       </c>
       <c r="L11">
-        <v>182.0654862176983</v>
+        <v>181.3286926912922</v>
       </c>
       <c r="M11">
-        <v>143.085148538344</v>
+        <v>141.6376205941343</v>
       </c>
       <c r="N11">
-        <v>142.9610383447226</v>
+        <v>141.5192234215295</v>
       </c>
       <c r="O11">
-        <v>137.9667449696287</v>
+        <v>136.4505802846509</v>
       </c>
       <c r="P11">
-        <v>112.4255190048968</v>
+        <v>112.4421615939599</v>
       </c>
       <c r="Q11">
-        <v>79.48836302170766</v>
+        <v>76.14897988436529</v>
       </c>
       <c r="R11">
-        <v>66.93546569584019</v>
+        <v>62.99483969612039</v>
       </c>
       <c r="S11" t="s">
         <v>70</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -202,61 +202,61 @@
     <t>[0.34, 0.31, 0.35]</t>
   </si>
   <si>
-    <t>[0.4, 0.37, 0.23]</t>
-  </si>
-  <si>
-    <t>[0.34, 0.32, 0.34]</t>
+    <t>[0.23, 0.37, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.32, 0.34, 0.34]</t>
   </si>
   <si>
     <t>[0.6, 0.18, 0.22]</t>
   </si>
   <si>
-    <t>[0.63, 0.22, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.38, 0.21, 0.41]</t>
-  </si>
-  <si>
-    <t>[0.68, 0.15, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.22, 0.6, 0.18]</t>
-  </si>
-  <si>
-    <t>[0.56, 0.1, 0.34]</t>
-  </si>
-  <si>
-    <t>[0.44, 0.45, 0.11]</t>
-  </si>
-  <si>
-    <t>['#7f886e', '#3d4127', '#b8beb4']</t>
-  </si>
-  <si>
-    <t>['#758251', '#35411d', '#bfc889']</t>
-  </si>
-  <si>
-    <t>['#c4bb9c', '#3e3b2d', '#827862']</t>
-  </si>
-  <si>
-    <t>['#bfcede', '#314d12', '#628138']</t>
-  </si>
-  <si>
-    <t>['#bccadc', '#2a4913', '#a2b1bc']</t>
-  </si>
-  <si>
-    <t>['#ccc8c1', '#283714', '#66784e']</t>
-  </si>
-  <si>
-    <t>['#b8c7dc', '#5c6c44', '#373217']</t>
-  </si>
-  <si>
-    <t>['#192718', '#adbbd2', '#99a7bc']</t>
-  </si>
-  <si>
-    <t>['#acbad2', '#3f3e2a', '#97a4b9']</t>
-  </si>
-  <si>
-    <t>['#b9b8b5', '#8e8e88', '#704c3f']</t>
+    <t>[0.14, 0.22, 0.63]</t>
+  </si>
+  <si>
+    <t>[0.38, 0.41, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.17, 0.68, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.18, 0.22, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.34, 0.1, 0.55]</t>
+  </si>
+  <si>
+    <t>[0.42, 0.13, 0.46]</t>
+  </si>
+  <si>
+    <t>['#7e876d', '#3d4027', '#b7bdb3']</t>
+  </si>
+  <si>
+    <t>['#bfc889', '#35411d', '#758251']</t>
+  </si>
+  <si>
+    <t>['#3d3b2c', '#817761', '#c4bb9b']</t>
+  </si>
+  <si>
+    <t>['#bfcede', '#304d12', '#628138']</t>
+  </si>
+  <si>
+    <t>['#a2b1bc', '#2a4913', '#bccadc']</t>
+  </si>
+  <si>
+    <t>['#ccc8c1', '#66784e', '#273714']</t>
+  </si>
+  <si>
+    <t>['#373217', '#b8c7dc', '#5c6c45']</t>
+  </si>
+  <si>
+    <t>['#99a7bc', '#192718', '#adbbd2']</t>
+  </si>
+  <si>
+    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
+  </si>
+  <si>
+    <t>['#bab9b7', '#705044', '#90908b']</t>
   </si>
 </sst>
 </file>
@@ -730,31 +730,31 @@
         <v>-76.4110874383</v>
       </c>
       <c r="J2">
-        <v>126.5631645844316</v>
+        <v>125.7725692007802</v>
       </c>
       <c r="K2">
-        <v>135.7539758812044</v>
+        <v>134.9376686159848</v>
       </c>
       <c r="L2">
-        <v>110.2767151315988</v>
+        <v>109.3043118908376</v>
       </c>
       <c r="M2">
-        <v>61.49758395955317</v>
+        <v>61.08481653530798</v>
       </c>
       <c r="N2">
-        <v>64.65939848329957</v>
+        <v>64.25744210726606</v>
       </c>
       <c r="O2">
-        <v>39.38283493542211</v>
+        <v>38.98552464463366</v>
       </c>
       <c r="P2">
-        <v>183.6292628753858</v>
+        <v>183.1688822119015</v>
       </c>
       <c r="Q2">
-        <v>189.6336279363796</v>
+        <v>189.17848796624</v>
       </c>
       <c r="R2">
-        <v>180.0335631545592</v>
+        <v>179.4717290357754</v>
       </c>
       <c r="S2" t="s">
         <v>61</v>
@@ -801,31 +801,31 @@
         <v>-76.411111596</v>
       </c>
       <c r="J3">
-        <v>116.8762323920106</v>
+        <v>191.1555829419148</v>
       </c>
       <c r="K3">
-        <v>130.04179096491</v>
+        <v>200.2012509882327</v>
       </c>
       <c r="L3">
-        <v>80.58489960269071</v>
+        <v>137.4735385760152</v>
       </c>
       <c r="M3">
-        <v>53.22184001949568</v>
+        <v>53.20915360681692</v>
       </c>
       <c r="N3">
-        <v>64.81027934241865</v>
+        <v>64.7978865262448</v>
       </c>
       <c r="O3">
-        <v>28.92279027103484</v>
+        <v>28.91124557303775</v>
       </c>
       <c r="P3">
-        <v>191.1821714445269</v>
+        <v>116.849701007344</v>
       </c>
       <c r="Q3">
-        <v>200.2241948994773</v>
+        <v>130.0139529905943</v>
       </c>
       <c r="R3">
-        <v>137.4939966492951</v>
+        <v>80.56524996321036</v>
       </c>
       <c r="S3" t="s">
         <v>62</v>
@@ -875,31 +875,31 @@
         <v>-76.4111424915</v>
       </c>
       <c r="J4">
-        <v>196.1845401388855</v>
+        <v>61.25322147651498</v>
       </c>
       <c r="K4">
-        <v>187.4492326503656</v>
+        <v>58.8684395973184</v>
       </c>
       <c r="L4">
-        <v>155.6496841247063</v>
+        <v>44.03060402685251</v>
       </c>
       <c r="M4">
-        <v>61.90421877825159</v>
+        <v>128.7865468444</v>
       </c>
       <c r="N4">
-        <v>59.49599815932039</v>
+        <v>118.5846389538189</v>
       </c>
       <c r="O4">
-        <v>44.64111624238532</v>
+        <v>96.99791521890155</v>
       </c>
       <c r="P4">
-        <v>130.0051064235949</v>
+        <v>195.8524402328694</v>
       </c>
       <c r="Q4">
-        <v>119.6158251407843</v>
+        <v>187.0455995292869</v>
       </c>
       <c r="R4">
-        <v>97.71941713594822</v>
+        <v>155.1842716462149</v>
       </c>
       <c r="S4" t="s">
         <v>63</v>
@@ -946,31 +946,31 @@
         <v>-80.40928359660001</v>
       </c>
       <c r="J5">
-        <v>191.3518264311085</v>
+        <v>191.3437756229754</v>
       </c>
       <c r="K5">
-        <v>206.0431961207371</v>
+        <v>206.0356939146645</v>
       </c>
       <c r="L5">
-        <v>221.9472304922189</v>
+        <v>221.9348418951203</v>
       </c>
       <c r="M5">
-        <v>48.64646084337149</v>
+        <v>48.43528141055378</v>
       </c>
       <c r="N5">
-        <v>76.94636237256844</v>
+        <v>76.71718822980036</v>
       </c>
       <c r="O5">
-        <v>17.71605653384222</v>
+        <v>17.61624241010307</v>
       </c>
       <c r="P5">
-        <v>97.96231550041296</v>
+        <v>97.79278752436281</v>
       </c>
       <c r="Q5">
-        <v>128.9413769430669</v>
+        <v>128.7747563352808</v>
       </c>
       <c r="R5">
-        <v>56.08100818909594</v>
+        <v>55.871174463949</v>
       </c>
       <c r="S5" t="s">
         <v>64</v>
@@ -1017,31 +1017,31 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="J6">
-        <v>187.5822362617607</v>
+        <v>162.1814435328357</v>
       </c>
       <c r="K6">
-        <v>202.1249023347274</v>
+        <v>176.7655866006281</v>
       </c>
       <c r="L6">
-        <v>220.0308160196237</v>
+        <v>187.6934477674003</v>
       </c>
       <c r="M6">
-        <v>41.70808148114206</v>
+        <v>41.70808148114207</v>
       </c>
       <c r="N6">
-        <v>72.91859026225309</v>
+        <v>72.91859026225308</v>
       </c>
       <c r="O6">
         <v>19.47520346483464</v>
       </c>
       <c r="P6">
-        <v>162.1814435328357</v>
+        <v>187.5822362617607</v>
       </c>
       <c r="Q6">
-        <v>176.7655866006281</v>
+        <v>202.1249023347274</v>
       </c>
       <c r="R6">
-        <v>187.6934477674003</v>
+        <v>220.0308160196237</v>
       </c>
       <c r="S6" t="s">
         <v>65</v>
@@ -1088,31 +1088,31 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="J7">
-        <v>204.4227235919868</v>
+        <v>204.415796526881</v>
       </c>
       <c r="K7">
-        <v>200.2727221958501</v>
+        <v>200.267212016304</v>
       </c>
       <c r="L7">
-        <v>192.8627732946076</v>
+        <v>192.8544865709918</v>
       </c>
       <c r="M7">
-        <v>39.58090791179841</v>
+        <v>101.7768488580263</v>
       </c>
       <c r="N7">
-        <v>54.97963683527826</v>
+        <v>119.6745932576738</v>
       </c>
       <c r="O7">
-        <v>20.33447470817669</v>
+        <v>77.80079609425019</v>
       </c>
       <c r="P7">
-        <v>101.9141017019259</v>
+        <v>39.33220870929331</v>
       </c>
       <c r="Q7">
-        <v>119.8082225440996</v>
+        <v>54.70613312410035</v>
       </c>
       <c r="R7">
-        <v>77.92479695826066</v>
+        <v>20.09724074801137</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -1162,31 +1162,31 @@
         <v>-80.4847910049</v>
       </c>
       <c r="J8">
-        <v>183.9214150159144</v>
+        <v>54.62874938026306</v>
       </c>
       <c r="K8">
-        <v>199.0223889960659</v>
+        <v>49.66596430342341</v>
       </c>
       <c r="L8">
-        <v>219.7645508869342</v>
+        <v>22.61350396628941</v>
       </c>
       <c r="M8">
-        <v>92.38540466589484</v>
+        <v>183.9241784957993</v>
       </c>
       <c r="N8">
-        <v>107.7785858294953</v>
+        <v>199.0251901811648</v>
       </c>
       <c r="O8">
-        <v>68.48819124424988</v>
+        <v>219.7694141635956</v>
       </c>
       <c r="P8">
-        <v>54.59066633546077</v>
+        <v>92.44476513456583</v>
       </c>
       <c r="Q8">
-        <v>49.60212382786062</v>
+        <v>107.8562306082712</v>
       </c>
       <c r="R8">
-        <v>22.57256411849005</v>
+        <v>68.57114510427463</v>
       </c>
       <c r="S8" t="s">
         <v>67</v>
@@ -1233,31 +1233,31 @@
         <v>-80.4092512154</v>
       </c>
       <c r="J9">
-        <v>24.62294724073291</v>
+        <v>153.0578181818192</v>
       </c>
       <c r="K9">
+        <v>167.0655757575737</v>
+      </c>
+      <c r="L9">
+        <v>187.5536969696962</v>
+      </c>
+      <c r="M9">
+        <v>24.62294724073288</v>
+      </c>
+      <c r="N9">
         <v>39.45588841721808</v>
       </c>
-      <c r="L9">
-        <v>24.08240145545861</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
+        <v>24.08240145545858</v>
+      </c>
+      <c r="P9">
         <v>172.6558463915306</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>187.4755683072177</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>210.0098256455701</v>
-      </c>
-      <c r="P9">
-        <v>153.0578181818192</v>
-      </c>
-      <c r="Q9">
-        <v>167.0655757575737</v>
-      </c>
-      <c r="R9">
-        <v>187.5536969696962</v>
       </c>
       <c r="S9" t="s">
         <v>68</v>
@@ -1304,31 +1304,31 @@
         <v>-80.4095616039</v>
       </c>
       <c r="J10">
-        <v>171.5424700663058</v>
+        <v>151.0872798556223</v>
       </c>
       <c r="K10">
-        <v>185.9211849449001</v>
+        <v>163.9499035409798</v>
       </c>
       <c r="L10">
-        <v>209.7348184897223</v>
+        <v>185.6025110461135</v>
       </c>
       <c r="M10">
-        <v>62.50506083223027</v>
+        <v>62.50738639268461</v>
       </c>
       <c r="N10">
-        <v>61.79112565176095</v>
+        <v>61.79379440779776</v>
       </c>
       <c r="O10">
-        <v>41.62810551067622</v>
+        <v>41.63170270407647</v>
       </c>
       <c r="P10">
-        <v>150.8932243397807</v>
+        <v>171.6524343774405</v>
       </c>
       <c r="Q10">
-        <v>163.7523723523916</v>
+        <v>186.0459767897252</v>
       </c>
       <c r="R10">
-        <v>185.3814140646039</v>
+        <v>209.8695459237344</v>
       </c>
       <c r="S10" t="s">
         <v>69</v>
@@ -1375,31 +1375,31 @@
         <v>60</v>
       </c>
       <c r="J11">
-        <v>184.8598147768016</v>
+        <v>186.1158696626328</v>
       </c>
       <c r="K11">
-        <v>184.1953174996002</v>
+        <v>185.4283976697961</v>
       </c>
       <c r="L11">
-        <v>181.3286926912922</v>
+        <v>182.6325203252049</v>
       </c>
       <c r="M11">
-        <v>141.6376205941343</v>
+        <v>112.4607034668455</v>
       </c>
       <c r="N11">
-        <v>141.5192234215295</v>
+        <v>80.49537192863744</v>
       </c>
       <c r="O11">
-        <v>136.4505802846509</v>
+        <v>68.12192864355966</v>
       </c>
       <c r="P11">
-        <v>112.4421615939599</v>
+        <v>143.8342462073871</v>
       </c>
       <c r="Q11">
-        <v>76.14897988436529</v>
+        <v>143.7048244128603</v>
       </c>
       <c r="R11">
-        <v>62.99483969612039</v>
+        <v>138.744251229169</v>
       </c>
       <c r="S11" t="s">
         <v>70</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Image_Label</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Annotations</t>
+  </si>
+  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -67,7 +70,13 @@
     <t>B3</t>
   </si>
   <si>
-    <t>Percentage</t>
+    <t>Per1</t>
+  </si>
+  <si>
+    <t>Per2</t>
+  </si>
+  <si>
+    <t>Per3</t>
   </si>
   <si>
     <t>Hex_Color_Code</t>
@@ -97,58 +106,157 @@
     <t>p4</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873590/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873599/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873608/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873623/medium.jpeg</t>
-  </si>
-  <si>
-    <t>Flowering Plants</t>
-  </si>
-  <si>
-    <t>五爪金龙</t>
-  </si>
-  <si>
-    <t>Plants</t>
-  </si>
-  <si>
-    <t>jiayuelin</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
-  </si>
-  <si>
-    <t>11:37:00</t>
-  </si>
-  <si>
-    <t>[0.42, 0.28, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.56, 0.16, 0.28]</t>
-  </si>
-  <si>
-    <t>[0.38, 0.23, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.27, 0.52, 0.21]</t>
-  </si>
-  <si>
-    <t>['#ccd7c4', '#598d12', '#98b778']</t>
-  </si>
-  <si>
-    <t>['#1f2a0d', '#a58ccc', '#3e4d20']</t>
-  </si>
-  <si>
-    <t>['#99c898', '#213e1e', '#548d4e']</t>
-  </si>
-  <si>
-    <t>['#545224', '#f0ede9', '#aeb070']</t>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/189073932/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/189074057/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/189074318/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200511423/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200511888/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512142/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512579/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512632/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512952/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/202252597/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/202933060/medium.jpg</t>
+  </si>
+  <si>
+    <t>daffodils</t>
+  </si>
+  <si>
+    <t>Carolina sweetshrub</t>
+  </si>
+  <si>
+    <t>llhouse2</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>16:50:18</t>
+  </si>
+  <si>
+    <t>16:51:05</t>
+  </si>
+  <si>
+    <t>16:51:38</t>
+  </si>
+  <si>
+    <t>12:04:49</t>
+  </si>
+  <si>
+    <t>12:07:21</t>
+  </si>
+  <si>
+    <t>12:08:13</t>
+  </si>
+  <si>
+    <t>12:09:03</t>
+  </si>
+  <si>
+    <t>12:10:21</t>
+  </si>
+  <si>
+    <t>12:10:37</t>
+  </si>
+  <si>
+    <t>14:51:00</t>
+  </si>
+  <si>
+    <t>09:48:39</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             40.343137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             74.655070</t>
+  </si>
+  <si>
+    <t>['#3d4127', '#b8beb4', '#7f886e']</t>
+  </si>
+  <si>
+    <t>['#bfc889', '#35411d', '#758250']</t>
+  </si>
+  <si>
+    <t>['#3d3a2b', '#c4bb9b', '#807660']</t>
+  </si>
+  <si>
+    <t>['#bfcede', '#304c11', '#628138']</t>
+  </si>
+  <si>
+    <t>['#2a4913', '#bccadc', '#a2b1bc']</t>
+  </si>
+  <si>
+    <t>['#ccc8c1', '#273714', '#66784e']</t>
+  </si>
+  <si>
+    <t>['#b8c7dc', '#5c6c45', '#373217']</t>
+  </si>
+  <si>
+    <t>['#adbbd2', '#192718', '#99a7bc']</t>
+  </si>
+  <si>
+    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
+  </si>
+  <si>
+    <t>['#b9b8b5', '#8e8e88', '#704c3f']</t>
+  </si>
+  <si>
+    <t>['#737b93', '#96a0be', '#464f42']</t>
   </si>
 </sst>
 </file>
@@ -519,13 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,300 +703,899 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2">
-        <v>31.1735516158</v>
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
       </c>
       <c r="I2">
-        <v>121.4434514835</v>
+        <v>42.4430931809</v>
       </c>
       <c r="J2">
-        <v>204.2129701097236</v>
+        <v>-76.4110874383</v>
       </c>
       <c r="K2">
-        <v>214.9493908437347</v>
+        <v>61.49758395955317</v>
       </c>
       <c r="L2">
-        <v>195.7722285281839</v>
+        <v>64.65939848329955</v>
       </c>
       <c r="M2">
-        <v>88.55605554419547</v>
+        <v>39.38283493542211</v>
       </c>
       <c r="N2">
-        <v>141.4895797822781</v>
+        <v>183.6292628753858</v>
       </c>
       <c r="O2">
-        <v>17.66021226790673</v>
+        <v>189.6336279363797</v>
       </c>
       <c r="P2">
-        <v>151.6914311562993</v>
+        <v>180.0335631545592</v>
       </c>
       <c r="Q2">
-        <v>182.5598828192316</v>
+        <v>126.5631645844316</v>
       </c>
       <c r="R2">
-        <v>119.6260339479573</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
+        <v>135.7539758812044</v>
+      </c>
+      <c r="S2">
+        <v>110.2767151315988</v>
+      </c>
+      <c r="T2">
+        <v>0.31</v>
       </c>
       <c r="U2">
-        <v>323.5</v>
+        <v>0.35</v>
       </c>
       <c r="V2">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="W2">
-        <v>0.647</v>
+        <v>0.34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
       </c>
       <c r="X2">
-        <v>0.9472913616398243</v>
+        <v>1.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.25</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>31.1842826996</v>
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>121.4352117322</v>
+        <v>42.4430572977</v>
       </c>
       <c r="J3">
-        <v>30.80621975904796</v>
+        <v>-76.411111596</v>
       </c>
       <c r="K3">
-        <v>42.31703884913578</v>
+        <v>190.9028011916031</v>
       </c>
       <c r="L3">
-        <v>12.74148923504242</v>
+        <v>199.9635591067578</v>
       </c>
       <c r="M3">
-        <v>165.3926475015138</v>
+        <v>137.2713668798954</v>
       </c>
       <c r="N3">
-        <v>139.6693257074045</v>
+        <v>53.1131277685128</v>
       </c>
       <c r="O3">
-        <v>203.931178506941</v>
+        <v>64.70029626646568</v>
       </c>
       <c r="P3">
-        <v>62.44832881092114</v>
+        <v>28.82990565495555</v>
       </c>
       <c r="Q3">
-        <v>76.86003659998764</v>
+        <v>116.6103127301945</v>
       </c>
       <c r="R3">
-        <v>32.11863444184964</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
+        <v>129.7792004285799</v>
+      </c>
+      <c r="S3">
+        <v>80.38591039978486</v>
+      </c>
+      <c r="T3">
+        <v>0.23</v>
       </c>
       <c r="U3">
-        <v>374</v>
+        <v>0.37</v>
       </c>
       <c r="V3">
-        <v>0.3255813953488372</v>
-      </c>
-      <c r="W3">
-        <v>0.6212624584717608</v>
+        <v>0.4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
       </c>
       <c r="X3">
-        <v>0.9626769626769627</v>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>31.1773801504</v>
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
       </c>
       <c r="I4">
-        <v>121.4369283459</v>
+        <v>42.4432246057</v>
       </c>
       <c r="J4">
-        <v>153.3984478546148</v>
+        <v>-76.4111424915</v>
       </c>
       <c r="K4">
-        <v>200.1789278699565</v>
+        <v>60.70493960053149</v>
       </c>
       <c r="L4">
-        <v>152.4051067499142</v>
+        <v>58.3251832487601</v>
       </c>
       <c r="M4">
-        <v>32.87764886627848</v>
+        <v>43.48150426299657</v>
       </c>
       <c r="N4">
-        <v>62.03663382072946</v>
+        <v>195.5130558270161</v>
       </c>
       <c r="O4">
-        <v>29.58134668362109</v>
+        <v>186.6312454189997</v>
       </c>
       <c r="P4">
-        <v>84.44485444234358</v>
+        <v>154.5528035670526</v>
       </c>
       <c r="Q4">
-        <v>140.8390926275985</v>
+        <v>127.5456879577859</v>
       </c>
       <c r="R4">
-        <v>78.47419281663281</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>43</v>
+        <v>117.528739072222</v>
+      </c>
+      <c r="S4">
+        <v>96.43173978105017</v>
+      </c>
+      <c r="T4">
+        <v>0.31</v>
       </c>
       <c r="U4">
-        <v>2570</v>
+        <v>0.35</v>
       </c>
       <c r="V4">
-        <v>1.108108108108108</v>
-      </c>
-      <c r="W4">
-        <v>0.4235332893869479</v>
+        <v>0.34</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
       </c>
       <c r="X4">
-        <v>0.8208240178856595</v>
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>37.246193484</v>
+      </c>
+      <c r="J5">
+        <v>-80.40928359660001</v>
+      </c>
+      <c r="K5">
+        <v>191.3437756229754</v>
+      </c>
+      <c r="L5">
+        <v>206.0356939146645</v>
+      </c>
+      <c r="M5">
+        <v>221.9348418951203</v>
+      </c>
+      <c r="N5">
+        <v>48.22527084314434</v>
+      </c>
+      <c r="O5">
+        <v>76.47535916156492</v>
+      </c>
+      <c r="P5">
+        <v>17.49084432408372</v>
+      </c>
+      <c r="Q5">
+        <v>97.62144308942742</v>
+      </c>
+      <c r="R5">
+        <v>128.610748161051</v>
+      </c>
+      <c r="S5">
+        <v>55.70765582656972</v>
+      </c>
+      <c r="T5">
+        <v>0.6</v>
+      </c>
+      <c r="U5">
+        <v>0.18</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5">
+        <v>521.5</v>
+      </c>
+      <c r="Y5">
+        <v>0.4</v>
+      </c>
+      <c r="Z5">
+        <v>0.4309917355371901</v>
+      </c>
+      <c r="AA5">
+        <v>0.8838983050847458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>37.2463215678</v>
+      </c>
+      <c r="J6">
+        <v>-80.40952306609999</v>
+      </c>
+      <c r="K6">
+        <v>41.70671806954982</v>
+      </c>
+      <c r="L6">
+        <v>72.91763641989479</v>
+      </c>
+      <c r="M6">
+        <v>19.47297779679877</v>
+      </c>
+      <c r="N6">
+        <v>187.5822362617607</v>
+      </c>
+      <c r="O6">
+        <v>202.1249023347274</v>
+      </c>
+      <c r="P6">
+        <v>220.0308160196237</v>
+      </c>
+      <c r="Q6">
+        <v>162.1790548204148</v>
+      </c>
+      <c r="R6">
+        <v>176.7631758034032</v>
+      </c>
+      <c r="S6">
+        <v>187.6906238185244</v>
+      </c>
+      <c r="T6">
+        <v>0.22</v>
+      </c>
+      <c r="U6">
+        <v>0.63</v>
+      </c>
+      <c r="V6">
+        <v>0.14</v>
+      </c>
+      <c r="W6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X6">
+        <v>1403.5</v>
+      </c>
+      <c r="Y6">
+        <v>6.227272727272728</v>
+      </c>
+      <c r="Z6">
+        <v>0.4656602521566025</v>
+      </c>
+      <c r="AA6">
+        <v>0.9328680624792289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7">
+        <v>37.2463215678</v>
+      </c>
+      <c r="J7">
+        <v>-80.40952306609999</v>
+      </c>
+      <c r="K7">
+        <v>204.402126590752</v>
+      </c>
+      <c r="L7">
+        <v>200.2545908684968</v>
+      </c>
+      <c r="M7">
+        <v>192.8241097343096</v>
+      </c>
+      <c r="N7">
+        <v>39.26807473598257</v>
+      </c>
+      <c r="O7">
+        <v>54.63481040853166</v>
+      </c>
+      <c r="P7">
+        <v>20.05547548544891</v>
+      </c>
+      <c r="Q7">
+        <v>101.7244802059829</v>
+      </c>
+      <c r="R7">
+        <v>119.6303315094941</v>
+      </c>
+      <c r="S7">
+        <v>77.75289346637334</v>
+      </c>
+      <c r="T7">
+        <v>0.38</v>
+      </c>
+      <c r="U7">
+        <v>0.2</v>
+      </c>
+      <c r="V7">
+        <v>0.41</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7">
+        <v>12.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Z7">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="AA7">
+        <v>0.9259259259259259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>37.3504969752</v>
+      </c>
+      <c r="J8">
+        <v>-80.4847910049</v>
+      </c>
+      <c r="K8">
+        <v>183.9241784957993</v>
+      </c>
+      <c r="L8">
+        <v>199.0251901811648</v>
+      </c>
+      <c r="M8">
+        <v>219.7694141635956</v>
+      </c>
+      <c r="N8">
+        <v>92.44476513456581</v>
+      </c>
+      <c r="O8">
+        <v>107.8562306082712</v>
+      </c>
+      <c r="P8">
+        <v>68.57114510427465</v>
+      </c>
+      <c r="Q8">
+        <v>54.62874938026306</v>
+      </c>
+      <c r="R8">
+        <v>49.66596430342342</v>
+      </c>
+      <c r="S8">
+        <v>22.61350396628941</v>
+      </c>
+      <c r="T8">
+        <v>0.68</v>
+      </c>
+      <c r="U8">
+        <v>0.15</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8">
+        <v>218</v>
+      </c>
+      <c r="Y8">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="Z8">
+        <v>0.2595238095238095</v>
+      </c>
+      <c r="AA8">
+        <v>0.5575447570332481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9">
+        <v>37.2461629761</v>
+      </c>
+      <c r="J9">
+        <v>-80.4092512154</v>
+      </c>
+      <c r="K9">
+        <v>172.6557788057544</v>
+      </c>
+      <c r="L9">
+        <v>187.4754670009541</v>
+      </c>
+      <c r="M9">
+        <v>210.0097196228853</v>
+      </c>
+      <c r="N9">
+        <v>24.62294724073288</v>
+      </c>
+      <c r="O9">
+        <v>39.45588841721809</v>
+      </c>
+      <c r="P9">
+        <v>24.08240145545858</v>
+      </c>
+      <c r="Q9">
+        <v>153.0574562865551</v>
+      </c>
+      <c r="R9">
+        <v>167.0653050092407</v>
+      </c>
+      <c r="S9">
+        <v>187.553380405466</v>
+      </c>
+      <c r="T9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>0.22</v>
+      </c>
+      <c r="V9">
+        <v>0.18</v>
+      </c>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>37.2463788487</v>
+      </c>
+      <c r="J10">
+        <v>-80.4095616039</v>
+      </c>
+      <c r="K10">
+        <v>151.0872798556223</v>
+      </c>
+      <c r="L10">
+        <v>163.9499035409798</v>
+      </c>
+      <c r="M10">
+        <v>185.6025110461135</v>
+      </c>
+      <c r="N10">
+        <v>62.50738639268459</v>
+      </c>
+      <c r="O10">
+        <v>61.79379440779776</v>
+      </c>
+      <c r="P10">
+        <v>41.63170270407647</v>
+      </c>
+      <c r="Q10">
+        <v>171.6524343774405</v>
+      </c>
+      <c r="R10">
+        <v>186.0459767897252</v>
+      </c>
+      <c r="S10">
+        <v>209.8695459237344</v>
+      </c>
+      <c r="T10">
+        <v>0.34</v>
+      </c>
+      <c r="U10">
+        <v>0.1</v>
+      </c>
+      <c r="V10">
+        <v>0.55</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10">
+        <v>19528.5</v>
+      </c>
+      <c r="Y10">
+        <v>1.269911504424779</v>
+      </c>
+      <c r="Z10">
+        <v>0.4927208962002321</v>
+      </c>
+      <c r="AA10">
+        <v>0.741386837759344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>184.8598147768016</v>
+      </c>
+      <c r="L11">
+        <v>184.1953174996002</v>
+      </c>
+      <c r="M11">
+        <v>181.3286926912922</v>
+      </c>
+      <c r="N11">
+        <v>141.6376205941343</v>
+      </c>
+      <c r="O11">
+        <v>141.5192234215295</v>
+      </c>
+      <c r="P11">
+        <v>136.450580284651</v>
+      </c>
+      <c r="Q11">
+        <v>112.4421615939598</v>
+      </c>
+      <c r="R11">
+        <v>76.14897988436527</v>
+      </c>
+      <c r="S11">
+        <v>62.99483969612038</v>
+      </c>
+      <c r="T11">
+        <v>0.44</v>
+      </c>
+      <c r="U11">
+        <v>0.45</v>
+      </c>
+      <c r="V11">
+        <v>0.11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11">
+        <v>12</v>
+      </c>
+      <c r="Y11">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="Z11">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="AA11">
+        <v>0.7058823529411765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="H5">
-        <v>31.1720927511</v>
-      </c>
-      <c r="I5">
-        <v>121.4345250867</v>
-      </c>
-      <c r="J5">
-        <v>84.25055940329314</v>
-      </c>
-      <c r="K5">
-        <v>81.61622269577424</v>
-      </c>
-      <c r="L5">
-        <v>36.16928609481549</v>
-      </c>
-      <c r="M5">
-        <v>239.978241782355</v>
-      </c>
-      <c r="N5">
-        <v>236.7186796904886</v>
-      </c>
-      <c r="O5">
-        <v>233.1853975744779</v>
-      </c>
-      <c r="P5">
-        <v>174.2533923107626</v>
-      </c>
-      <c r="Q5">
-        <v>175.8032459757885</v>
-      </c>
-      <c r="R5">
-        <v>111.8208726885759</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5">
-        <v>1.5</v>
-      </c>
-      <c r="V5">
-        <v>1.5</v>
-      </c>
-      <c r="W5">
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>37.2503702102</v>
+      </c>
+      <c r="J12">
+        <v>-80.4100087716</v>
+      </c>
+      <c r="K12">
+        <v>114.9075227998716</v>
+      </c>
+      <c r="L12">
+        <v>123.3179297254739</v>
+      </c>
+      <c r="M12">
+        <v>146.8241285125725</v>
+      </c>
+      <c r="N12">
+        <v>149.7174476891847</v>
+      </c>
+      <c r="O12">
+        <v>160.0071629194638</v>
+      </c>
+      <c r="P12">
+        <v>189.8592009245988</v>
+      </c>
+      <c r="Q12">
+        <v>70.37588512982063</v>
+      </c>
+      <c r="R12">
+        <v>79.22836349331155</v>
+      </c>
+      <c r="S12">
+        <v>66.13985051140958</v>
+      </c>
+      <c r="T12">
+        <v>0.58</v>
+      </c>
+      <c r="U12">
+        <v>0.4</v>
+      </c>
+      <c r="V12">
+        <v>0.03</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
         <v>0.25</v>
       </c>
-      <c r="X5">
+      <c r="AA12">
         <v>1</v>
       </c>
     </row>
@@ -898,6 +1605,13 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Image_Label</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Seconds</t>
+  </si>
+  <si>
     <t>Annotations</t>
   </si>
   <si>
@@ -226,22 +229,22 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#3d4127', '#b8beb4', '#7f886e']</t>
-  </si>
-  <si>
-    <t>['#bfc889', '#35411d', '#758250']</t>
-  </si>
-  <si>
-    <t>['#3d3a2b', '#c4bb9b', '#807660']</t>
-  </si>
-  <si>
-    <t>['#bfcede', '#304c11', '#628138']</t>
-  </si>
-  <si>
-    <t>['#2a4913', '#bccadc', '#a2b1bc']</t>
-  </si>
-  <si>
-    <t>['#ccc8c1', '#273714', '#66784e']</t>
+    <t>['#7f886e', '#3d4127', '#b8beb4']</t>
+  </si>
+  <si>
+    <t>['#748250', '#35411d', '#bfc889']</t>
+  </si>
+  <si>
+    <t>['#7f7560', '#c3bb9b', '#3d3a2b']</t>
+  </si>
+  <si>
+    <t>['#bfcede', '#314d12', '#628138']</t>
+  </si>
+  <si>
+    <t>['#bccadc', '#2a4913', '#a2b1bc']</t>
+  </si>
+  <si>
+    <t>['#283714', '#ccc8c1', '#66784e']</t>
   </si>
   <si>
     <t>['#b8c7dc', '#5c6c45', '#373217']</t>
@@ -250,10 +253,10 @@
     <t>['#adbbd2', '#192718', '#99a7bc']</t>
   </si>
   <si>
-    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
-  </si>
-  <si>
-    <t>['#b9b8b5', '#8e8e88', '#704c3f']</t>
+    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
+  </si>
+  <si>
+    <t>['#8e8e89', '#b9b8b5', '#704d40']</t>
   </si>
   <si>
     <t>['#737b93', '#96a0be', '#464f42']</t>
@@ -627,13 +630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,754 +715,784 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>60618</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2">
         <v>42.4430931809</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-76.4110874383</v>
       </c>
-      <c r="K2">
+      <c r="L2">
+        <v>126.5631645844316</v>
+      </c>
+      <c r="M2">
+        <v>135.7539758812044</v>
+      </c>
+      <c r="N2">
+        <v>110.2767151315988</v>
+      </c>
+      <c r="O2">
         <v>61.49758395955317</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>64.65939848329955</v>
       </c>
-      <c r="M2">
-        <v>39.38283493542211</v>
-      </c>
-      <c r="N2">
+      <c r="Q2">
+        <v>39.3828349354221</v>
+      </c>
+      <c r="R2">
         <v>183.6292628753858</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>189.6336279363797</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>180.0335631545592</v>
       </c>
-      <c r="Q2">
-        <v>126.5631645844316</v>
-      </c>
-      <c r="R2">
-        <v>135.7539758812044</v>
-      </c>
-      <c r="S2">
-        <v>110.2767151315988</v>
-      </c>
-      <c r="T2">
+      <c r="U2">
+        <v>0.34</v>
+      </c>
+      <c r="V2">
         <v>0.31</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.35</v>
       </c>
-      <c r="V2">
-        <v>0.34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2">
-        <v>1.5</v>
+      <c r="X2" t="s">
+        <v>71</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
       </c>
       <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
         <v>0.25</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>60665</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3">
         <v>42.4430572977</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-76.411111596</v>
       </c>
-      <c r="K3">
-        <v>190.9028011916031</v>
-      </c>
       <c r="L3">
-        <v>199.9635591067578</v>
+        <v>116.4868950531169</v>
       </c>
       <c r="M3">
-        <v>137.2713668798954</v>
+        <v>129.6604517652098</v>
       </c>
       <c r="N3">
-        <v>53.1131277685128</v>
+        <v>80.2954984440382</v>
       </c>
       <c r="O3">
-        <v>64.70029626646568</v>
+        <v>53.08234836815237</v>
       </c>
       <c r="P3">
-        <v>28.82990565495555</v>
+        <v>64.66648910899485</v>
       </c>
       <c r="Q3">
-        <v>116.6103127301945</v>
+        <v>28.80184564000472</v>
       </c>
       <c r="R3">
-        <v>129.7792004285799</v>
+        <v>190.7455331478371</v>
       </c>
       <c r="S3">
-        <v>80.38591039978486</v>
+        <v>199.8179225975563</v>
       </c>
       <c r="T3">
+        <v>137.146319589765</v>
+      </c>
+      <c r="U3">
+        <v>0.4</v>
+      </c>
+      <c r="V3">
+        <v>0.37</v>
+      </c>
+      <c r="W3">
         <v>0.23</v>
       </c>
-      <c r="U3">
-        <v>0.37</v>
-      </c>
-      <c r="V3">
-        <v>0.4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3">
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4">
+        <v>58</v>
+      </c>
+      <c r="H4">
+        <v>60698</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4">
         <v>42.4432246057</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-76.4111424915</v>
       </c>
-      <c r="K4">
-        <v>60.70493960053149</v>
-      </c>
       <c r="L4">
-        <v>58.3251832487601</v>
+        <v>127.4986851429027</v>
       </c>
       <c r="M4">
-        <v>43.48150426299657</v>
+        <v>117.4887331706167</v>
       </c>
       <c r="N4">
-        <v>195.5130558270161</v>
+        <v>96.40318085190096</v>
       </c>
       <c r="O4">
-        <v>186.6312454189997</v>
+        <v>195.49876369852</v>
       </c>
       <c r="P4">
-        <v>154.5528035670526</v>
+        <v>186.6164718092654</v>
       </c>
       <c r="Q4">
-        <v>127.5456879577859</v>
+        <v>154.5364937879536</v>
       </c>
       <c r="R4">
-        <v>117.528739072222</v>
+        <v>60.67997674299819</v>
       </c>
       <c r="S4">
-        <v>96.43173978105017</v>
+        <v>58.29910905142502</v>
       </c>
       <c r="T4">
+        <v>43.45570053183987</v>
+      </c>
+      <c r="U4">
+        <v>0.34</v>
+      </c>
+      <c r="V4">
+        <v>0.35</v>
+      </c>
+      <c r="W4">
         <v>0.31</v>
       </c>
-      <c r="U4">
-        <v>0.35</v>
-      </c>
-      <c r="V4">
-        <v>0.34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4">
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1.5</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>43489</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5">
         <v>37.246193484</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-80.40928359660001</v>
       </c>
-      <c r="K5">
-        <v>191.3437756229754</v>
-      </c>
       <c r="L5">
-        <v>206.0356939146645</v>
+        <v>191.3518264311085</v>
       </c>
       <c r="M5">
-        <v>221.9348418951203</v>
+        <v>206.0431961207371</v>
       </c>
       <c r="N5">
-        <v>48.22527084314434</v>
+        <v>221.9472304922189</v>
       </c>
       <c r="O5">
-        <v>76.47535916156492</v>
+        <v>48.67472737265142</v>
       </c>
       <c r="P5">
-        <v>17.49084432408372</v>
+        <v>76.98177663359591</v>
       </c>
       <c r="Q5">
-        <v>97.62144308942742</v>
+        <v>17.73966619422367</v>
       </c>
       <c r="R5">
-        <v>128.610748161051</v>
+        <v>97.99037871535828</v>
       </c>
       <c r="S5">
-        <v>55.70765582656972</v>
+        <v>128.9662027832985</v>
       </c>
       <c r="T5">
+        <v>56.1014652823912</v>
+      </c>
+      <c r="U5">
         <v>0.6</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.18</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.22</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5">
         <v>521.5</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.4</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.4309917355371901</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.8838983050847458</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>43641</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
         <v>37.2463215678</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-80.40952306609999</v>
       </c>
-      <c r="K6">
-        <v>41.70671806954982</v>
-      </c>
       <c r="L6">
-        <v>72.91763641989479</v>
+        <v>187.580666297071</v>
       </c>
       <c r="M6">
-        <v>19.47297779679877</v>
+        <v>202.1233136770682</v>
       </c>
       <c r="N6">
-        <v>187.5822362617607</v>
+        <v>220.0281151823647</v>
       </c>
       <c r="O6">
-        <v>202.1249023347274</v>
+        <v>41.70514040934205</v>
       </c>
       <c r="P6">
-        <v>220.0308160196237</v>
+        <v>72.9162065683103</v>
       </c>
       <c r="Q6">
-        <v>162.1790548204148</v>
+        <v>19.47120418846458</v>
       </c>
       <c r="R6">
-        <v>176.7631758034032</v>
+        <v>162.1677385185735</v>
       </c>
       <c r="S6">
-        <v>187.6906238185244</v>
+        <v>176.7523643792091</v>
       </c>
       <c r="T6">
-        <v>0.22</v>
+        <v>187.67844442763</v>
       </c>
       <c r="U6">
         <v>0.63</v>
       </c>
       <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
         <v>0.14</v>
       </c>
-      <c r="W6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6">
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6">
         <v>1403.5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>6.227272727272728</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.4656602521566025</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.9328680624792289</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>43693</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7">
         <v>37.2463215678</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-80.40952306609999</v>
       </c>
-      <c r="K7">
-        <v>204.402126590752</v>
-      </c>
       <c r="L7">
-        <v>200.2545908684968</v>
+        <v>39.56859641383161</v>
       </c>
       <c r="M7">
-        <v>192.8241097343096</v>
+        <v>54.96725225108277</v>
       </c>
       <c r="N7">
-        <v>39.26807473598257</v>
+        <v>20.32817811454477</v>
       </c>
       <c r="O7">
-        <v>54.63481040853166</v>
+        <v>204.4227235919868</v>
       </c>
       <c r="P7">
-        <v>20.05547548544891</v>
+        <v>200.2727221958501</v>
       </c>
       <c r="Q7">
-        <v>101.7244802059829</v>
+        <v>192.8627732946076</v>
       </c>
       <c r="R7">
-        <v>119.6303315094941</v>
+        <v>101.9097585890288</v>
       </c>
       <c r="S7">
-        <v>77.75289346637334</v>
+        <v>119.8034963859467</v>
       </c>
       <c r="T7">
-        <v>0.38</v>
+        <v>77.91825387590089</v>
       </c>
       <c r="U7">
         <v>0.2</v>
       </c>
       <c r="V7">
+        <v>0.38</v>
+      </c>
+      <c r="W7">
         <v>0.41</v>
       </c>
-      <c r="W7" t="s">
-        <v>75</v>
-      </c>
-      <c r="X7">
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7">
         <v>12.5</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1.142857142857143</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.3571428571428572</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.9259259259259259</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>43743</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
         <v>37.3504969752</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-80.4847910049</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>183.9241784957993</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>199.0251901811648</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>219.7694141635956</v>
       </c>
-      <c r="N8">
-        <v>92.44476513456581</v>
-      </c>
       <c r="O8">
-        <v>107.8562306082712</v>
+        <v>92.43276856524496</v>
       </c>
       <c r="P8">
-        <v>68.57114510427465</v>
+        <v>107.8311824080772</v>
       </c>
       <c r="Q8">
-        <v>54.62874938026306</v>
+        <v>68.5525234318776</v>
       </c>
       <c r="R8">
-        <v>49.66596430342342</v>
+        <v>54.61327131782478</v>
       </c>
       <c r="S8">
-        <v>22.61350396628941</v>
+        <v>49.64781395349084</v>
       </c>
       <c r="T8">
+        <v>22.59817054263854</v>
+      </c>
+      <c r="U8">
         <v>0.68</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.15</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.17</v>
       </c>
-      <c r="W8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X8">
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8">
         <v>218</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>0.4878048780487805</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>0.2595238095238095</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>0.5575447570332481</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <v>43821</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9">
         <v>37.2461629761</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-80.4092512154</v>
       </c>
-      <c r="K9">
-        <v>172.6557788057544</v>
-      </c>
       <c r="L9">
-        <v>187.4754670009541</v>
+        <v>172.6558463915306</v>
       </c>
       <c r="M9">
-        <v>210.0097196228853</v>
+        <v>187.4755683072177</v>
       </c>
       <c r="N9">
-        <v>24.62294724073288</v>
+        <v>210.0098256455701</v>
       </c>
       <c r="O9">
+        <v>24.62294724073291</v>
+      </c>
+      <c r="P9">
         <v>39.45588841721809</v>
       </c>
-      <c r="P9">
-        <v>24.08240145545858</v>
-      </c>
       <c r="Q9">
-        <v>153.0574562865551</v>
+        <v>24.08240145545864</v>
       </c>
       <c r="R9">
-        <v>167.0653050092407</v>
+        <v>153.0578181818192</v>
       </c>
       <c r="S9">
-        <v>187.553380405466</v>
+        <v>167.0655757575737</v>
       </c>
       <c r="T9">
+        <v>187.5536969696962</v>
+      </c>
+      <c r="U9">
         <v>0.6</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.22</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.18</v>
       </c>
-      <c r="W9" t="s">
-        <v>77</v>
-      </c>
-      <c r="X9">
+      <c r="X9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>43837</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10">
         <v>37.2463788487</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-80.4095616039</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>171.6524343774405</v>
+      </c>
+      <c r="M10">
+        <v>186.0459767897252</v>
+      </c>
+      <c r="N10">
+        <v>209.8695459237344</v>
+      </c>
+      <c r="O10">
+        <v>62.50738639268461</v>
+      </c>
+      <c r="P10">
+        <v>61.79379440779776</v>
+      </c>
+      <c r="Q10">
+        <v>41.63170270407647</v>
+      </c>
+      <c r="R10">
         <v>151.0872798556223</v>
       </c>
-      <c r="L10">
+      <c r="S10">
         <v>163.9499035409798</v>
       </c>
-      <c r="M10">
+      <c r="T10">
         <v>185.6025110461135</v>
       </c>
-      <c r="N10">
-        <v>62.50738639268459</v>
-      </c>
-      <c r="O10">
-        <v>61.79379440779776</v>
-      </c>
-      <c r="P10">
-        <v>41.63170270407647</v>
-      </c>
-      <c r="Q10">
-        <v>171.6524343774405</v>
-      </c>
-      <c r="R10">
-        <v>186.0459767897252</v>
-      </c>
-      <c r="S10">
-        <v>209.8695459237344</v>
-      </c>
-      <c r="T10">
+      <c r="U10">
+        <v>0.55</v>
+      </c>
+      <c r="V10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
         <v>0.34</v>
       </c>
-      <c r="U10">
-        <v>0.1</v>
-      </c>
-      <c r="V10">
-        <v>0.55</v>
-      </c>
-      <c r="W10" t="s">
-        <v>78</v>
-      </c>
-      <c r="X10">
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10">
         <v>19528.5</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1.269911504424779</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>0.4927208962002321</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>0.741386837759344</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>53460</v>
       </c>
       <c r="I11" t="s">
         <v>68</v>
@@ -1467,135 +1500,141 @@
       <c r="J11" t="s">
         <v>69</v>
       </c>
-      <c r="K11">
-        <v>184.8598147768016</v>
+      <c r="K11" t="s">
+        <v>70</v>
       </c>
       <c r="L11">
-        <v>184.1953174996002</v>
+        <v>141.9749991002548</v>
       </c>
       <c r="M11">
-        <v>181.3286926912922</v>
+        <v>141.8545413102674</v>
       </c>
       <c r="N11">
-        <v>141.6376205941343</v>
+        <v>136.8055472245892</v>
       </c>
       <c r="O11">
-        <v>141.5192234215295</v>
+        <v>184.9408670569263</v>
       </c>
       <c r="P11">
-        <v>136.450580284651</v>
+        <v>184.2765031693439</v>
       </c>
       <c r="Q11">
-        <v>112.4421615939598</v>
+        <v>181.4120883782391</v>
       </c>
       <c r="R11">
-        <v>76.14897988436527</v>
+        <v>112.4038550429872</v>
       </c>
       <c r="S11">
-        <v>62.99483969612038</v>
+        <v>77.28912822408591</v>
       </c>
       <c r="T11">
+        <v>64.34589072756351</v>
+      </c>
+      <c r="U11">
         <v>0.44</v>
       </c>
-      <c r="U11">
-        <v>0.45</v>
-      </c>
       <c r="V11">
-        <v>0.11</v>
-      </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11">
+        <v>0.44</v>
+      </c>
+      <c r="W11">
+        <v>0.12</v>
+      </c>
+      <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11">
         <v>12</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>0.4285714285714285</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>0.1846153846153846</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>0.7058823529411765</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="I12">
+      <c r="H12">
+        <v>35319</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
         <v>37.2503702102</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-80.4100087716</v>
       </c>
-      <c r="K12">
-        <v>114.9075227998716</v>
-      </c>
       <c r="L12">
-        <v>123.3179297254739</v>
+        <v>114.9084065593212</v>
       </c>
       <c r="M12">
-        <v>146.8241285125725</v>
+        <v>123.3189473976593</v>
       </c>
       <c r="N12">
+        <v>146.8266743210622</v>
+      </c>
+      <c r="O12">
         <v>149.7174476891847</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>160.0071629194638</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>189.8592009245988</v>
       </c>
-      <c r="Q12">
-        <v>70.37588512982063</v>
-      </c>
       <c r="R12">
-        <v>79.22836349331155</v>
+        <v>70.40962671905856</v>
       </c>
       <c r="S12">
-        <v>66.13985051140958</v>
+        <v>79.25874263261217</v>
       </c>
       <c r="T12">
+        <v>66.18094302554152</v>
+      </c>
+      <c r="U12">
         <v>0.58</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.4</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.03</v>
       </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
+      <c r="X12" t="s">
+        <v>81</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>0.25</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1</v>
       </c>
     </row>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
   <si>
     <t>Image_Label</t>
   </si>
@@ -46,6 +46,15 @@
     <t>Long</t>
   </si>
   <si>
+    <t>RGB1</t>
+  </si>
+  <si>
+    <t>RGB2</t>
+  </si>
+  <si>
+    <t>RGB3</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -124,27 +133,57 @@
     <t>p7</t>
   </si>
   <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200511423/medium.jpg</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200511888/medium.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512579/medium.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512632/medium.jpg</t>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921715/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921454/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921258/medium.jpg</t>
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512952/medium.jpg</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/202252597/medium.jpeg</t>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921121/medium.jpg</t>
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/202933060/medium.jpg</t>
   </si>
   <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921893/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922113/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922263/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922412/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922723/medium.jpg</t>
+  </si>
+  <si>
     <t>Carolina sweetshrub</t>
   </si>
   <si>
@@ -181,6 +220,21 @@
     <t>09:48:39</t>
   </si>
   <si>
+    <t>10:48:19</t>
+  </si>
+  <si>
+    <t>10:41:30</t>
+  </si>
+  <si>
+    <t>09:42:34</t>
+  </si>
+  <si>
+    <t>09:42:12</t>
+  </si>
+  <si>
+    <t>09:41:15</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
@@ -193,25 +247,73 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#314d12', '#bfcede', '#628138']</t>
-  </si>
-  <si>
-    <t>['#2a4913', '#bccadc', '#a2b1bc']</t>
-  </si>
-  <si>
-    <t>['#b8c7dc', '#5c6c45', '#373217']</t>
-  </si>
-  <si>
-    <t>['#adbbd2', '#192718', '#99a7bc']</t>
+    <t>lightsteelblue</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>darkgray</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>firebrick</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>olivedrab</t>
+  </si>
+  <si>
+    <t>['#bfcede', '#314d12', '#628138']</t>
+  </si>
+  <si>
+    <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
+  </si>
+  <si>
+    <t>['#393117', '#b7c6db', '#5c6c44']</t>
+  </si>
+  <si>
+    <t>['#adbcd2', '#233827', '#9aa8bd']</t>
   </si>
   <si>
     <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
   </si>
   <si>
-    <t>['#705044', '#bab9b7', '#90908b']</t>
-  </si>
-  <si>
-    <t>['#96a0be', '#737b93', '#464f42']</t>
+    <t>['#cbccc9', '#c63917', '#b3b5ac']</t>
+  </si>
+  <si>
+    <t>['#737b93', '#96a0be', '#464f42']</t>
+  </si>
+  <si>
+    <t>['#7b859c', '#9aa6c5', '#354723']</t>
+  </si>
+  <si>
+    <t>['#828fa9', '#384935', '#8e9cbc']</t>
+  </si>
+  <si>
+    <t>['#3f5623', '#adbbdb', '#93a1ba']</t>
+  </si>
+  <si>
+    <t>['#425a30', '#abbad8', '#8b9aa8']</t>
+  </si>
+  <si>
+    <t>['#a4b9d7', '#0a220e', '#899cb5']</t>
   </si>
 </sst>
 </file>
@@ -582,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,28 +778,37 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>43489</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>37.246193484</v>
@@ -705,85 +816,94 @@
       <c r="J2">
         <v>-80.40928359660001</v>
       </c>
-      <c r="K2">
-        <v>48.53035459754868</v>
-      </c>
-      <c r="L2">
-        <v>76.81804694999687</v>
-      </c>
-      <c r="M2">
-        <v>17.6602670390231</v>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
       </c>
       <c r="N2">
-        <v>191.3455080213934</v>
+        <v>191.3518264311085</v>
       </c>
       <c r="O2">
-        <v>206.0371657754101</v>
+        <v>206.0431961207371</v>
       </c>
       <c r="P2">
-        <v>221.9377272727279</v>
+        <v>221.9472304922189</v>
       </c>
       <c r="Q2">
-        <v>97.86325538205524</v>
+        <v>48.64023754345108</v>
       </c>
       <c r="R2">
-        <v>128.847469638099</v>
+        <v>76.94026651216811</v>
       </c>
       <c r="S2">
-        <v>55.9556239767482</v>
+        <v>17.7122247972336</v>
       </c>
       <c r="T2">
+        <v>97.95791047702707</v>
+      </c>
+      <c r="U2">
+        <v>128.9363386772547</v>
+      </c>
+      <c r="V2">
+        <v>56.07672696966384</v>
+      </c>
+      <c r="W2">
+        <v>0.6</v>
+      </c>
+      <c r="X2">
         <v>0.18</v>
       </c>
-      <c r="U2">
-        <v>0.6</v>
-      </c>
-      <c r="V2">
+      <c r="Y2">
         <v>0.22</v>
       </c>
-      <c r="W2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2">
+      <c r="Z2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2">
         <v>521.5</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>22</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>55</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>0.4</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>0.4309917355371901</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>0.8838983050847458</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>43641</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>37.2463215678</v>
@@ -791,88 +911,97 @@
       <c r="J3">
         <v>-80.40952306609999</v>
       </c>
-      <c r="K3">
-        <v>41.70671806954979</v>
-      </c>
-      <c r="L3">
-        <v>72.91763641989479</v>
-      </c>
-      <c r="M3">
-        <v>19.47297779679877</v>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
       </c>
       <c r="N3">
-        <v>187.5822362617607</v>
+        <v>42.29635757729238</v>
       </c>
       <c r="O3">
-        <v>202.1249023347274</v>
+        <v>75.41082706064927</v>
       </c>
       <c r="P3">
-        <v>220.0308160196237</v>
+        <v>19.3839574934062</v>
       </c>
       <c r="Q3">
-        <v>162.1790548204148</v>
+        <v>188.3411619282971</v>
       </c>
       <c r="R3">
-        <v>176.7631758034032</v>
+        <v>202.8461486360588</v>
       </c>
       <c r="S3">
-        <v>187.6906238185244</v>
+        <v>220.9146163875584</v>
       </c>
       <c r="T3">
-        <v>0.22</v>
+        <v>163.2666030989277</v>
       </c>
       <c r="U3">
-        <v>0.63</v>
+        <v>177.9778784266985</v>
       </c>
       <c r="V3">
-        <v>0.14</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
+        <v>189.2376162097727</v>
+      </c>
+      <c r="W3">
+        <v>0.24</v>
       </c>
       <c r="X3">
-        <v>1403.5</v>
+        <v>0.65</v>
       </c>
       <c r="Y3">
-        <v>137</v>
-      </c>
-      <c r="Z3">
-        <v>22</v>
+        <v>0.12</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>89</v>
       </c>
       <c r="AA3">
-        <v>6.227272727272728</v>
+        <v>42647</v>
       </c>
       <c r="AB3">
-        <v>0.4656602521566025</v>
+        <v>272</v>
       </c>
       <c r="AC3">
-        <v>0.9328680624792289</v>
+        <v>267</v>
+      </c>
+      <c r="AD3">
+        <v>1.0187265917603</v>
+      </c>
+      <c r="AE3">
+        <v>0.7050139690201849</v>
+      </c>
+      <c r="AF3">
+        <v>0.9190767639325891</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>43743</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>37.3504969752</v>
@@ -880,85 +1009,94 @@
       <c r="J4">
         <v>-80.4847910049</v>
       </c>
-      <c r="K4">
-        <v>183.9241784957993</v>
-      </c>
-      <c r="L4">
-        <v>199.0251901811648</v>
-      </c>
-      <c r="M4">
-        <v>219.7694141635956</v>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>92.44264955107255</v>
+        <v>57.40042536141196</v>
       </c>
       <c r="O4">
-        <v>107.8347095517997</v>
+        <v>48.61307523965405</v>
       </c>
       <c r="P4">
-        <v>68.55908123896747</v>
+        <v>22.78796658755505</v>
       </c>
       <c r="Q4">
-        <v>54.61298322844186</v>
+        <v>183.2364997904586</v>
       </c>
       <c r="R4">
-        <v>49.6574076944564</v>
+        <v>198.2781410869785</v>
       </c>
       <c r="S4">
-        <v>22.60250488266396</v>
+        <v>218.8874672824065</v>
       </c>
       <c r="T4">
-        <v>0.68</v>
+        <v>92.18912812334153</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>107.7850544922935</v>
       </c>
       <c r="V4">
+        <v>67.62400318980103</v>
+      </c>
+      <c r="W4">
         <v>0.17</v>
       </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
       <c r="X4">
-        <v>218</v>
+        <v>0.67</v>
       </c>
       <c r="Y4">
-        <v>20</v>
-      </c>
-      <c r="Z4">
-        <v>41</v>
+        <v>0.16</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>90</v>
       </c>
       <c r="AA4">
-        <v>0.4878048780487805</v>
+        <v>60445</v>
       </c>
       <c r="AB4">
-        <v>0.2595238095238095</v>
+        <v>428</v>
       </c>
       <c r="AC4">
-        <v>0.5575447570332481</v>
+        <v>465</v>
+      </c>
+      <c r="AD4">
+        <v>0.9204301075268817</v>
+      </c>
+      <c r="AE4">
+        <v>0.4723446486621655</v>
+      </c>
+      <c r="AF4">
+        <v>0.6568537958314317</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>43821</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>37.2461629761</v>
@@ -966,85 +1104,94 @@
       <c r="J5">
         <v>-80.4092512154</v>
       </c>
-      <c r="K5">
-        <v>172.6558463915306</v>
-      </c>
-      <c r="L5">
-        <v>187.4755683072177</v>
-      </c>
-      <c r="M5">
-        <v>210.0098256455701</v>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>24.62294724073288</v>
+        <v>172.7732299764028</v>
       </c>
       <c r="O5">
-        <v>39.45588841721809</v>
+        <v>187.6358839623083</v>
       </c>
       <c r="P5">
-        <v>24.08240145545858</v>
+        <v>210.2517768995839</v>
       </c>
       <c r="Q5">
-        <v>153.0578181818192</v>
+        <v>35.32824211570215</v>
       </c>
       <c r="R5">
-        <v>167.0655757575737</v>
+        <v>56.05699335311498</v>
       </c>
       <c r="S5">
-        <v>187.5536969696962</v>
+        <v>39.02866166969977</v>
       </c>
       <c r="T5">
-        <v>0.6</v>
+        <v>153.8308242811499</v>
       </c>
       <c r="U5">
-        <v>0.22</v>
+        <v>167.9830031948883</v>
       </c>
       <c r="V5">
-        <v>0.18</v>
-      </c>
-      <c r="W5" t="s">
-        <v>62</v>
+        <v>188.8616996805116</v>
+      </c>
+      <c r="W5">
+        <v>0.7</v>
       </c>
       <c r="X5">
-        <v>185381</v>
+        <v>0.11</v>
       </c>
       <c r="Y5">
-        <v>373</v>
-      </c>
-      <c r="Z5">
-        <v>497</v>
+        <v>0.2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
       </c>
       <c r="AA5">
-        <v>0.7505030181086519</v>
+        <v>21082</v>
       </c>
       <c r="AB5">
-        <v>185381</v>
+        <v>299</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="AD5">
+        <v>2.120567375886525</v>
+      </c>
+      <c r="AE5">
+        <v>0.6181679568379076</v>
+      </c>
+      <c r="AF5">
+        <v>0.8983105013102669</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>43837</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>37.2463788487</v>
@@ -1052,171 +1199,189 @@
       <c r="J6">
         <v>-80.4095616039</v>
       </c>
-      <c r="K6">
-        <v>151.0872798556223</v>
-      </c>
-      <c r="L6">
-        <v>163.9499035409798</v>
-      </c>
-      <c r="M6">
-        <v>185.6025110461135</v>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
       </c>
       <c r="N6">
-        <v>62.50738639268459</v>
+        <v>151.0859343395049</v>
       </c>
       <c r="O6">
+        <v>163.9488719464761</v>
+      </c>
+      <c r="P6">
+        <v>185.601680410767</v>
+      </c>
+      <c r="Q6">
+        <v>62.50738639268461</v>
+      </c>
+      <c r="R6">
         <v>61.79379440779776</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>41.63170270407647</v>
       </c>
-      <c r="Q6">
-        <v>171.6524343774405</v>
-      </c>
-      <c r="R6">
-        <v>186.0459767897252</v>
-      </c>
-      <c r="S6">
-        <v>209.8695459237344</v>
-      </c>
       <c r="T6">
+        <v>171.652078289136</v>
+      </c>
+      <c r="U6">
+        <v>186.0453374747963</v>
+      </c>
+      <c r="V6">
+        <v>209.8686563708821</v>
+      </c>
+      <c r="W6">
         <v>0.34</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <v>0.1</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>0.55</v>
       </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6">
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6">
         <v>19528.5</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>287</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>226</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>1.269911504424779</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>0.4927208962002321</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>0.741386837759344</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>53460</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <v>203.4048001410076</v>
+      </c>
+      <c r="O7">
+        <v>203.9724838918139</v>
+      </c>
+      <c r="P7">
+        <v>201.2113060848762</v>
+      </c>
+      <c r="Q7">
+        <v>198.0264420264415</v>
+      </c>
+      <c r="R7">
+        <v>56.91751491751327</v>
+      </c>
+      <c r="S7">
+        <v>22.69381069380572</v>
+      </c>
+      <c r="T7">
+        <v>179.1420662677553</v>
+      </c>
+      <c r="U7">
+        <v>180.5333079179852</v>
+      </c>
+      <c r="V7">
+        <v>171.9084550231229</v>
+      </c>
+      <c r="W7">
+        <v>0.6</v>
+      </c>
+      <c r="X7">
+        <v>0.05</v>
+      </c>
+      <c r="Y7">
+        <v>0.35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7">
+        <v>105298</v>
+      </c>
+      <c r="AB7">
+        <v>323</v>
+      </c>
+      <c r="AC7">
+        <v>326</v>
+      </c>
+      <c r="AD7">
+        <v>0.99079754601227</v>
+      </c>
+      <c r="AE7">
+        <v>105298</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7">
-        <v>112.4607034668455</v>
-      </c>
-      <c r="L7">
-        <v>80.49537192863743</v>
-      </c>
-      <c r="M7">
-        <v>68.12192864355966</v>
-      </c>
-      <c r="N7">
-        <v>186.1158696626328</v>
-      </c>
-      <c r="O7">
-        <v>185.4283976697961</v>
-      </c>
-      <c r="P7">
-        <v>182.6325203252048</v>
-      </c>
-      <c r="Q7">
-        <v>143.8342462073871</v>
-      </c>
-      <c r="R7">
-        <v>143.7048244128603</v>
-      </c>
-      <c r="S7">
-        <v>138.744251229169</v>
-      </c>
-      <c r="T7">
-        <v>0.13</v>
-      </c>
-      <c r="U7">
-        <v>0.42</v>
-      </c>
-      <c r="V7">
-        <v>0.46</v>
-      </c>
-      <c r="W7" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7">
-        <v>186626</v>
-      </c>
-      <c r="Y7">
-        <v>499</v>
-      </c>
-      <c r="Z7">
-        <v>374</v>
-      </c>
-      <c r="AA7">
-        <v>1.334224598930481</v>
-      </c>
-      <c r="AB7">
-        <v>186626</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G8">
         <v>35319</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <v>37.2503702102</v>
@@ -1224,62 +1389,546 @@
       <c r="J8">
         <v>-80.4100087716</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8">
+        <v>114.9073847749211</v>
+      </c>
+      <c r="O8">
+        <v>123.3178341943948</v>
+      </c>
+      <c r="P8">
+        <v>146.8236579449327</v>
+      </c>
+      <c r="Q8">
         <v>149.7174476891847</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>160.0071629194638</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>189.8592009245988</v>
       </c>
-      <c r="N8">
-        <v>114.9075227998716</v>
-      </c>
-      <c r="O8">
-        <v>123.3179297254739</v>
-      </c>
-      <c r="P8">
-        <v>146.8241285125725</v>
-      </c>
-      <c r="Q8">
-        <v>70.37588512982063</v>
-      </c>
-      <c r="R8">
-        <v>79.22836349331155</v>
-      </c>
-      <c r="S8">
-        <v>66.13985051140958</v>
-      </c>
       <c r="T8">
+        <v>70.37005705292309</v>
+      </c>
+      <c r="U8">
+        <v>79.22171945701278</v>
+      </c>
+      <c r="V8">
+        <v>66.13397599842737</v>
+      </c>
+      <c r="W8">
+        <v>0.58</v>
+      </c>
+      <c r="X8">
         <v>0.4</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8">
+        <v>174151</v>
+      </c>
+      <c r="AB8">
+        <v>499</v>
+      </c>
+      <c r="AC8">
+        <v>349</v>
+      </c>
+      <c r="AD8">
+        <v>1.429799426934097</v>
+      </c>
+      <c r="AE8">
+        <v>174151</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>38899</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9">
+        <v>122.6745064687805</v>
+      </c>
+      <c r="O9">
+        <v>133.2987529069956</v>
+      </c>
+      <c r="P9">
+        <v>155.9339800856488</v>
+      </c>
+      <c r="Q9">
+        <v>153.8474315087378</v>
+      </c>
+      <c r="R9">
+        <v>166.3450154648808</v>
+      </c>
+      <c r="S9">
+        <v>197.2461172689396</v>
+      </c>
+      <c r="T9">
+        <v>52.66094069530308</v>
+      </c>
+      <c r="U9">
+        <v>70.53609406952461</v>
+      </c>
+      <c r="V9">
+        <v>35.3840490797611</v>
+      </c>
+      <c r="W9">
+        <v>0.57</v>
+      </c>
+      <c r="X9">
+        <v>0.39</v>
+      </c>
+      <c r="Y9">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA9">
+        <v>227544</v>
+      </c>
+      <c r="AB9">
+        <v>499</v>
+      </c>
+      <c r="AC9">
+        <v>456</v>
+      </c>
+      <c r="AD9">
+        <v>1.094298245614035</v>
+      </c>
+      <c r="AE9">
+        <v>227544</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <v>38490</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10">
+        <v>130.359348730201</v>
+      </c>
+      <c r="O10">
+        <v>142.7403150163701</v>
+      </c>
+      <c r="P10">
+        <v>169.489408016989</v>
+      </c>
+      <c r="Q10">
+        <v>55.74673484475608</v>
+      </c>
+      <c r="R10">
+        <v>73.42015771315909</v>
+      </c>
+      <c r="S10">
+        <v>52.71155741744565</v>
+      </c>
+      <c r="T10">
+        <v>141.9583776878883</v>
+      </c>
+      <c r="U10">
+        <v>155.6154080111924</v>
+      </c>
+      <c r="V10">
+        <v>188.4271115301547</v>
+      </c>
+      <c r="W10">
         <v>0.58</v>
       </c>
-      <c r="V8">
-        <v>0.03</v>
-      </c>
-      <c r="W8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8">
-        <v>174151</v>
-      </c>
-      <c r="Y8">
-        <v>499</v>
-      </c>
-      <c r="Z8">
-        <v>349</v>
-      </c>
-      <c r="AA8">
-        <v>1.429799426934097</v>
-      </c>
-      <c r="AB8">
-        <v>174151</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
+      <c r="X10">
+        <v>0.08</v>
+      </c>
+      <c r="Y10">
+        <v>0.34</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA10">
+        <v>15944.5</v>
+      </c>
+      <c r="AB10">
+        <v>216</v>
+      </c>
+      <c r="AC10">
+        <v>228</v>
+      </c>
+      <c r="AD10">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="AE10">
+        <v>0.6242463393626184</v>
+      </c>
+      <c r="AF10">
+        <v>0.961902750965251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>34954</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>37.2092918564</v>
+      </c>
+      <c r="J11">
+        <v>-81.17685317989999</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <v>62.96105132450363</v>
+      </c>
+      <c r="O11">
+        <v>85.54507450330706</v>
+      </c>
+      <c r="P11">
+        <v>34.66713576159825</v>
+      </c>
+      <c r="Q11">
+        <v>172.7647210377877</v>
+      </c>
+      <c r="R11">
+        <v>186.9225140737154</v>
+      </c>
+      <c r="S11">
+        <v>219.0091205379637</v>
+      </c>
+      <c r="T11">
+        <v>146.8668580028706</v>
+      </c>
+      <c r="U11">
+        <v>160.5985089776341</v>
+      </c>
+      <c r="V11">
+        <v>186.2520504474244</v>
+      </c>
+      <c r="W11">
+        <v>0.13</v>
+      </c>
+      <c r="X11">
+        <v>0.41</v>
+      </c>
+      <c r="Y11">
+        <v>0.46</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11">
+        <v>25622.5</v>
+      </c>
+      <c r="AB11">
+        <v>345</v>
+      </c>
+      <c r="AC11">
+        <v>245</v>
+      </c>
+      <c r="AD11">
+        <v>1.408163265306122</v>
+      </c>
+      <c r="AE11">
+        <v>0.3471271998157506</v>
+      </c>
+      <c r="AF11">
+        <v>0.4871105112070113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>34932</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>37.24632035</v>
+      </c>
+      <c r="J12">
+        <v>-80.4095386</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12">
+        <v>65.72520620164252</v>
+      </c>
+      <c r="O12">
+        <v>90.1675972903377</v>
+      </c>
+      <c r="P12">
+        <v>48.04977183186659</v>
+      </c>
+      <c r="Q12">
+        <v>170.7104765709188</v>
+      </c>
+      <c r="R12">
+        <v>185.5306693107252</v>
+      </c>
+      <c r="S12">
+        <v>215.8936935137709</v>
+      </c>
+      <c r="T12">
+        <v>138.5457739791073</v>
+      </c>
+      <c r="U12">
+        <v>154.4589743589742</v>
+      </c>
+      <c r="V12">
+        <v>167.6572649572647</v>
+      </c>
+      <c r="W12">
+        <v>0.19</v>
+      </c>
+      <c r="X12">
+        <v>0.75</v>
+      </c>
+      <c r="Y12">
+        <v>0.06</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12">
+        <v>3121.5</v>
+      </c>
+      <c r="AB12">
+        <v>107</v>
+      </c>
+      <c r="AC12">
+        <v>71</v>
+      </c>
+      <c r="AD12">
+        <v>1.507042253521127</v>
+      </c>
+      <c r="AE12">
+        <v>0.6283212560386473</v>
+      </c>
+      <c r="AF12">
+        <v>0.9592808850645359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>34875</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>37.230324</v>
+      </c>
+      <c r="J13">
+        <v>-80.429407</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>164.4010318949359</v>
+      </c>
+      <c r="O13">
+        <v>184.9567580765301</v>
+      </c>
+      <c r="P13">
+        <v>215.170269089417</v>
+      </c>
+      <c r="Q13">
+        <v>10.43757781549104</v>
+      </c>
+      <c r="R13">
+        <v>34.13010752687154</v>
+      </c>
+      <c r="S13">
+        <v>13.71069609507327</v>
+      </c>
+      <c r="T13">
+        <v>136.5775679864739</v>
+      </c>
+      <c r="U13">
+        <v>156.1154713259129</v>
+      </c>
+      <c r="V13">
+        <v>181.1545723545164</v>
+      </c>
+      <c r="W13">
+        <v>0.83</v>
+      </c>
+      <c r="X13">
+        <v>0.09</v>
+      </c>
+      <c r="Y13">
+        <v>0.08</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13">
+        <v>17541.5</v>
+      </c>
+      <c r="AB13">
+        <v>112</v>
+      </c>
+      <c r="AC13">
+        <v>265</v>
+      </c>
+      <c r="AD13">
+        <v>0.4226415094339623</v>
+      </c>
+      <c r="AE13">
+        <v>0.5910208894878706</v>
+      </c>
+      <c r="AF13">
+        <v>0.9254286467950409</v>
       </c>
     </row>
   </sheetData>
@@ -1291,6 +1940,11 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -250,49 +250,49 @@
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>darkgray</t>
+  </si>
+  <si>
     <t>darkgreen</t>
   </si>
   <si>
-    <t>darkslategray</t>
-  </si>
-  <si>
-    <t>darkgray</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>slategray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
-    <t>darkolivegreen</t>
-  </si>
-  <si>
     <t>firebrick</t>
   </si>
   <si>
+    <t>olivedrab</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
-    <t>olivedrab</t>
-  </si>
-  <si>
     <t>['#bfcede', '#314d12', '#628138']</t>
   </si>
   <si>
-    <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
-  </si>
-  <si>
-    <t>['#393117', '#b7c6db', '#5c6c44']</t>
+    <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
+  </si>
+  <si>
+    <t>['#5c6c44', '#b7c6db', '#3a3117']</t>
   </si>
   <si>
     <t>['#adbcd2', '#233827', '#9aa8bd']</t>
   </si>
   <si>
-    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
+    <t>['#3f3e2a', '#97a4ba', '#acbad2']</t>
   </si>
   <si>
     <t>['#cbccc9', '#c63917', '#b3b5ac']</t>
@@ -307,13 +307,13 @@
     <t>['#828fa9', '#384935', '#8e9cbc']</t>
   </si>
   <si>
-    <t>['#3f5623', '#adbbdb', '#93a1ba']</t>
-  </si>
-  <si>
-    <t>['#425a30', '#abbad8', '#8b9aa8']</t>
-  </si>
-  <si>
-    <t>['#a4b9d7', '#0a220e', '#899cb5']</t>
+    <t>['#93a1ba', '#3f5623', '#adbbdb']</t>
+  </si>
+  <si>
+    <t>['#425a30', '#abb9d8', '#8a9aa7']</t>
+  </si>
+  <si>
+    <t>['#899cb5', '#a4b9d7', '#0a220e']</t>
   </si>
 </sst>
 </file>
@@ -820,10 +820,10 @@
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2">
         <v>191.3518264311085</v>
@@ -835,22 +835,22 @@
         <v>221.9472304922189</v>
       </c>
       <c r="Q2">
-        <v>48.64023754345108</v>
+        <v>48.69598265895756</v>
       </c>
       <c r="R2">
-        <v>76.94026651216811</v>
+        <v>77.00552023121516</v>
       </c>
       <c r="S2">
-        <v>17.7122247972336</v>
+        <v>17.75291907515918</v>
       </c>
       <c r="T2">
-        <v>97.95791047702707</v>
+        <v>98.00744215748492</v>
       </c>
       <c r="U2">
-        <v>128.9363386772547</v>
+        <v>128.9830525126475</v>
       </c>
       <c r="V2">
-        <v>56.07672696966384</v>
+        <v>56.11752714055278</v>
       </c>
       <c r="W2">
         <v>0.6</v>
@@ -912,46 +912,46 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N3">
-        <v>42.29635757729238</v>
+        <v>188.3411619282971</v>
       </c>
       <c r="O3">
-        <v>75.41082706064927</v>
+        <v>202.8461486360588</v>
       </c>
       <c r="P3">
-        <v>19.3839574934062</v>
+        <v>220.9146163875584</v>
       </c>
       <c r="Q3">
-        <v>188.3411619282971</v>
+        <v>42.29772557790812</v>
       </c>
       <c r="R3">
-        <v>202.8461486360588</v>
+        <v>75.4116797166182</v>
       </c>
       <c r="S3">
-        <v>220.9146163875584</v>
+        <v>19.38616237881138</v>
       </c>
       <c r="T3">
-        <v>163.2666030989277</v>
+        <v>163.2695718508634</v>
       </c>
       <c r="U3">
-        <v>177.9778784266985</v>
+        <v>177.9810241251073</v>
       </c>
       <c r="V3">
-        <v>189.2376162097727</v>
+        <v>189.2412033946783</v>
       </c>
       <c r="W3">
+        <v>0.65</v>
+      </c>
+      <c r="X3">
         <v>0.24</v>
-      </c>
-      <c r="X3">
-        <v>0.65</v>
       </c>
       <c r="Y3">
         <v>0.12</v>
@@ -1010,49 +1010,49 @@
         <v>-80.4847910049</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
         <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>57.40042536141196</v>
+        <v>92.39734611131874</v>
       </c>
       <c r="O4">
-        <v>48.61307523965405</v>
+        <v>108.0031498173797</v>
       </c>
       <c r="P4">
-        <v>22.78796658755505</v>
+        <v>67.89977549174843</v>
       </c>
       <c r="Q4">
-        <v>183.2364997904586</v>
+        <v>183.2405061289141</v>
       </c>
       <c r="R4">
-        <v>198.2781410869785</v>
+        <v>198.2820798734708</v>
       </c>
       <c r="S4">
-        <v>218.8874672824065</v>
+        <v>218.8940134440523</v>
       </c>
       <c r="T4">
-        <v>92.18912812334153</v>
+        <v>57.50637478216566</v>
       </c>
       <c r="U4">
-        <v>107.7850544922935</v>
+        <v>48.90690066346951</v>
       </c>
       <c r="V4">
-        <v>67.62400318980103</v>
+        <v>22.92380835906809</v>
       </c>
       <c r="W4">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="X4">
         <v>0.67</v>
       </c>
       <c r="Y4">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" t="s">
         <v>90</v>
@@ -1111,7 +1111,7 @@
         <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N5">
         <v>172.7732299764028</v>
@@ -1200,46 +1200,46 @@
         <v>-80.4095616039</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s">
         <v>77</v>
       </c>
       <c r="N6">
-        <v>151.0859343395049</v>
+        <v>62.50738639268459</v>
       </c>
       <c r="O6">
-        <v>163.9488719464761</v>
+        <v>61.79379440779776</v>
       </c>
       <c r="P6">
-        <v>185.601680410767</v>
+        <v>41.63170270407647</v>
       </c>
       <c r="Q6">
-        <v>62.50738639268461</v>
+        <v>151.0872798556223</v>
       </c>
       <c r="R6">
-        <v>61.79379440779776</v>
+        <v>163.9499035409798</v>
       </c>
       <c r="S6">
-        <v>41.63170270407647</v>
+        <v>185.6025110461135</v>
       </c>
       <c r="T6">
-        <v>171.652078289136</v>
+        <v>171.6524343774405</v>
       </c>
       <c r="U6">
-        <v>186.0453374747963</v>
+        <v>186.0459767897252</v>
       </c>
       <c r="V6">
-        <v>209.8686563708821</v>
+        <v>209.8695459237344</v>
       </c>
       <c r="W6">
+        <v>0.1</v>
+      </c>
+      <c r="X6">
         <v>0.34</v>
-      </c>
-      <c r="X6">
-        <v>0.1</v>
       </c>
       <c r="Y6">
         <v>0.55</v>
@@ -1295,13 +1295,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
         <v>85</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N7">
         <v>203.4048001410076</v>
@@ -1316,7 +1316,7 @@
         <v>198.0264420264415</v>
       </c>
       <c r="R7">
-        <v>56.91751491751327</v>
+        <v>56.9175149175133</v>
       </c>
       <c r="S7">
         <v>22.69381069380572</v>
@@ -1390,22 +1390,22 @@
         <v>-80.4100087716</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
       </c>
       <c r="N8">
-        <v>114.9073847749211</v>
+        <v>114.9058843134363</v>
       </c>
       <c r="O8">
-        <v>123.3178341943948</v>
+        <v>123.3160735446583</v>
       </c>
       <c r="P8">
-        <v>146.8236579449327</v>
+        <v>146.8194526736817</v>
       </c>
       <c r="Q8">
         <v>149.7174476891847</v>
@@ -1417,13 +1417,13 @@
         <v>189.8592009245988</v>
       </c>
       <c r="T8">
-        <v>70.37005705292309</v>
+        <v>70.31421249753757</v>
       </c>
       <c r="U8">
-        <v>79.22171945701278</v>
+        <v>79.17228464419397</v>
       </c>
       <c r="V8">
-        <v>66.13397599842737</v>
+        <v>66.06445890006037</v>
       </c>
       <c r="W8">
         <v>0.58</v>
@@ -1485,10 +1485,10 @@
         <v>76</v>
       </c>
       <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
         <v>83</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -1512,7 +1512,7 @@
         <v>197.2461172689396</v>
       </c>
       <c r="T9">
-        <v>52.66094069530308</v>
+        <v>52.6609406953031</v>
       </c>
       <c r="U9">
         <v>70.53609406952461</v>
@@ -1580,13 +1580,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>130.359348730201</v>
@@ -1604,7 +1604,7 @@
         <v>73.42015771315909</v>
       </c>
       <c r="S10">
-        <v>52.71155741744565</v>
+        <v>52.71155741744563</v>
       </c>
       <c r="T10">
         <v>141.9583776878883</v>
@@ -1675,49 +1675,49 @@
         <v>-81.17685317989999</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
         <v>77</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
       <c r="N11">
-        <v>62.96105132450363</v>
+        <v>146.8647075293409</v>
       </c>
       <c r="O11">
-        <v>85.54507450330706</v>
+        <v>160.5965608156975</v>
       </c>
       <c r="P11">
-        <v>34.66713576159825</v>
+        <v>186.2473459483432</v>
       </c>
       <c r="Q11">
+        <v>62.95131442765506</v>
+      </c>
+      <c r="R11">
+        <v>85.53645208031045</v>
+      </c>
+      <c r="S11">
+        <v>34.65245290830941</v>
+      </c>
+      <c r="T11">
         <v>172.7647210377877</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>186.9225140737154</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>219.0091205379637</v>
       </c>
-      <c r="T11">
-        <v>146.8668580028706</v>
-      </c>
-      <c r="U11">
-        <v>160.5985089776341</v>
-      </c>
-      <c r="V11">
-        <v>186.2520504474244</v>
-      </c>
       <c r="W11">
+        <v>0.46</v>
+      </c>
+      <c r="X11">
         <v>0.13</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.41</v>
-      </c>
-      <c r="Y11">
-        <v>0.46</v>
       </c>
       <c r="Z11" t="s">
         <v>97</v>
@@ -1770,46 +1770,46 @@
         <v>-80.4095386</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
         <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12">
-        <v>65.72520620164252</v>
+        <v>65.70057859209682</v>
       </c>
       <c r="O12">
-        <v>90.1675972903377</v>
+        <v>90.14649157639128</v>
       </c>
       <c r="P12">
-        <v>48.04977183186659</v>
+        <v>48.01185546542874</v>
       </c>
       <c r="Q12">
-        <v>170.7104765709188</v>
+        <v>170.6741807362735</v>
       </c>
       <c r="R12">
-        <v>185.5306693107252</v>
+        <v>185.4946046750082</v>
       </c>
       <c r="S12">
-        <v>215.8936935137709</v>
+        <v>215.8428949691231</v>
       </c>
       <c r="T12">
-        <v>138.5457739791073</v>
+        <v>138.0137560975609</v>
       </c>
       <c r="U12">
-        <v>154.4589743589742</v>
+        <v>153.9631219512193</v>
       </c>
       <c r="V12">
-        <v>167.6572649572647</v>
+        <v>166.789658536585</v>
       </c>
       <c r="W12">
         <v>0.19</v>
       </c>
       <c r="X12">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="Y12">
         <v>0.06</v>
@@ -1865,49 +1865,49 @@
         <v>-80.429407</v>
       </c>
       <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
         <v>77</v>
       </c>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N13">
+        <v>136.5775679864739</v>
+      </c>
+      <c r="O13">
+        <v>156.1154713259129</v>
+      </c>
+      <c r="P13">
+        <v>181.1545723545164</v>
+      </c>
+      <c r="Q13">
         <v>164.4010318949359</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>184.9567580765301</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>215.170269089417</v>
       </c>
-      <c r="Q13">
-        <v>10.43757781549104</v>
-      </c>
-      <c r="R13">
+      <c r="T13">
+        <v>10.43757781549101</v>
+      </c>
+      <c r="U13">
         <v>34.13010752687154</v>
       </c>
-      <c r="S13">
-        <v>13.71069609507327</v>
-      </c>
-      <c r="T13">
-        <v>136.5775679864739</v>
-      </c>
-      <c r="U13">
-        <v>156.1154713259129</v>
-      </c>
       <c r="V13">
-        <v>181.1545723545164</v>
+        <v>13.71069609507325</v>
       </c>
       <c r="W13">
+        <v>0.08</v>
+      </c>
+      <c r="X13">
         <v>0.83</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>0.09</v>
-      </c>
-      <c r="Y13">
-        <v>0.08</v>
       </c>
       <c r="Z13" t="s">
         <v>99</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>Image_Label</t>
   </si>
@@ -46,49 +46,49 @@
     <t>Long</t>
   </si>
   <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>RGB1</t>
   </si>
   <si>
+    <t>Prop1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
     <t>RGB2</t>
   </si>
   <si>
+    <t>Prop2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>RGB3</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>Per1</t>
-  </si>
-  <si>
-    <t>Per2</t>
-  </si>
-  <si>
-    <t>Per3</t>
+    <t>Prop3</t>
   </si>
   <si>
     <t>Hex_Color_Code</t>
@@ -148,7 +148,7 @@
     <t>p12</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200511423/medium.jpg</t>
+    <t>p13</t>
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921715/medium.jpg</t>
@@ -163,43 +163,58 @@
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512952/medium.jpg</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921121/medium.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/202933060/medium.jpg</t>
-  </si>
-  <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921893/medium.jpg</t>
   </si>
   <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922113/medium.jpg</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922263/medium.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922412/medium.jpg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922723/medium.jpg</t>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636303/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636318/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636336/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636355/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636374/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636390/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204639334/medium.jpeg</t>
   </si>
   <si>
     <t>Carolina sweetshrub</t>
   </si>
   <si>
+    <t>Moosewood</t>
+  </si>
+  <si>
+    <t>American Chestnut</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Sassafras</t>
+  </si>
+  <si>
     <t>llhouse2</t>
   </si>
   <si>
     <t>2022-05-25</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
     <t>2022-06-03</t>
   </si>
   <si>
-    <t>12:04:49</t>
+    <t>2022-06-09</t>
   </si>
   <si>
     <t>12:07:21</t>
@@ -214,25 +229,22 @@
     <t>12:10:37</t>
   </si>
   <si>
-    <t>14:51:00</t>
-  </si>
-  <si>
-    <t>09:48:39</t>
-  </si>
-  <si>
     <t>10:48:19</t>
   </si>
   <si>
     <t>10:41:30</t>
   </si>
   <si>
-    <t>09:42:34</t>
-  </si>
-  <si>
-    <t>09:42:12</t>
-  </si>
-  <si>
-    <t>09:41:15</t>
+    <t>10:10:02</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>10:23:00</t>
   </si>
   <si>
     <t>[]</t>
@@ -247,73 +259,73 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
+    <t>darkgray</t>
+  </si>
+  <si>
     <t>lightsteelblue</t>
   </si>
   <si>
     <t>darkolivegreen</t>
   </si>
   <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
     <t>darkslategray</t>
   </si>
   <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>slategray</t>
-  </si>
-  <si>
     <t>lightslategray</t>
   </si>
   <si>
-    <t>darkgray</t>
-  </si>
-  <si>
-    <t>darkgreen</t>
-  </si>
-  <si>
-    <t>firebrick</t>
-  </si>
-  <si>
-    <t>olivedrab</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>['#bfcede', '#314d12', '#628138']</t>
-  </si>
-  <si>
-    <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
-  </si>
-  <si>
-    <t>['#5c6c44', '#b7c6db', '#3a3117']</t>
+    <t>gainsboro</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>['#a3b2bd', '#2a4b13', '#bccbdd']</t>
+  </si>
+  <si>
+    <t>['#b7c6db', '#5c6c44', '#393117']</t>
   </si>
   <si>
     <t>['#adbcd2', '#233827', '#9aa8bd']</t>
   </si>
   <si>
-    <t>['#3f3e2a', '#97a4ba', '#acbad2']</t>
-  </si>
-  <si>
-    <t>['#cbccc9', '#c63917', '#b3b5ac']</t>
-  </si>
-  <si>
-    <t>['#737b93', '#96a0be', '#464f42']</t>
-  </si>
-  <si>
-    <t>['#7b859c', '#9aa6c5', '#354723']</t>
-  </si>
-  <si>
-    <t>['#828fa9', '#384935', '#8e9cbc']</t>
-  </si>
-  <si>
-    <t>['#93a1ba', '#3f5623', '#adbbdb']</t>
-  </si>
-  <si>
-    <t>['#425a30', '#abb9d8', '#8a9aa7']</t>
-  </si>
-  <si>
-    <t>['#899cb5', '#a4b9d7', '#0a220e']</t>
+    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
+  </si>
+  <si>
+    <t>['#9aa6c5', '#7b859c', '#354723']</t>
+  </si>
+  <si>
+    <t>['#8e9bbc', '#384935', '#828fa9']</t>
+  </si>
+  <si>
+    <t>['#365b10', '#dedad6', '#547528']</t>
+  </si>
+  <si>
+    <t>['#244a0f', '#dbdad9', '#859578']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
+  </si>
+  <si>
+    <t>['#d7d2cd', '#546439', '#3b4c1b']</t>
+  </si>
+  <si>
+    <t>['#b7b6b5', '#c9c8c5', '#3d4924']</t>
+  </si>
+  <si>
+    <t>['#d1d0d0', '#294414', '#a0a49d']</t>
+  </si>
+  <si>
+    <t>['#d1cdc8', '#22410c', '#7f8c78']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,94 +805,94 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>43489</v>
+        <v>43641</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I2">
-        <v>37.246193484</v>
+        <v>37.2463215678</v>
       </c>
       <c r="J2">
-        <v>-80.40928359660001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2">
-        <v>191.3518264311085</v>
+        <v>-80.40952306609999</v>
+      </c>
+      <c r="K2">
+        <v>188.3437748759284</v>
+      </c>
+      <c r="L2">
+        <v>202.8482461934476</v>
+      </c>
+      <c r="M2">
+        <v>220.9193130430371</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
       </c>
       <c r="O2">
-        <v>206.0431961207371</v>
+        <v>0.6489010989010989</v>
       </c>
       <c r="P2">
-        <v>221.9472304922189</v>
+        <v>42.30053129512963</v>
       </c>
       <c r="Q2">
-        <v>48.69598265895756</v>
+        <v>75.41380435288065</v>
       </c>
       <c r="R2">
-        <v>77.00552023121516</v>
-      </c>
-      <c r="S2">
-        <v>17.75291907515918</v>
+        <v>19.39029221232124</v>
+      </c>
+      <c r="S2" t="s">
+        <v>84</v>
       </c>
       <c r="T2">
-        <v>98.00744215748492</v>
+        <v>0.2357857142857143</v>
       </c>
       <c r="U2">
-        <v>128.9830525126475</v>
+        <v>163.2940952380957</v>
       </c>
       <c r="V2">
-        <v>56.11752714055278</v>
+        <v>178.0078095238095</v>
       </c>
       <c r="W2">
-        <v>0.6</v>
-      </c>
-      <c r="X2">
-        <v>0.18</v>
+        <v>189.2647619047611</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
       </c>
       <c r="Y2">
-        <v>0.22</v>
+        <v>0.1153131868131868</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA2">
-        <v>521.5</v>
+        <v>42647</v>
       </c>
       <c r="AB2">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="AC2">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="AD2">
-        <v>0.4</v>
+        <v>1.0187265917603</v>
       </c>
       <c r="AE2">
-        <v>0.4309917355371901</v>
+        <v>0.7050139690201849</v>
       </c>
       <c r="AF2">
-        <v>0.8838983050847458</v>
+        <v>0.9190767639325891</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -888,94 +900,97 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>43641</v>
+        <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>37.2463215678</v>
+        <v>37.3504969752</v>
       </c>
       <c r="J3">
-        <v>-80.40952306609999</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
+        <v>-80.4847910049</v>
+      </c>
+      <c r="K3">
+        <v>183.2364997904586</v>
+      </c>
+      <c r="L3">
+        <v>198.2781410869785</v>
+      </c>
+      <c r="M3">
+        <v>218.8874672824065</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3">
+        <v>0.6690899470899471</v>
+      </c>
+      <c r="P3">
+        <v>57.41178645144289</v>
+      </c>
+      <c r="Q3">
+        <v>48.628538862022</v>
+      </c>
+      <c r="R3">
+        <v>22.80003696743927</v>
+      </c>
+      <c r="S3" t="s">
         <v>83</v>
       </c>
-      <c r="N3">
-        <v>188.3411619282971</v>
-      </c>
-      <c r="O3">
-        <v>202.8461486360588</v>
-      </c>
-      <c r="P3">
-        <v>220.9146163875584</v>
-      </c>
-      <c r="Q3">
-        <v>42.29772557790812</v>
-      </c>
-      <c r="R3">
-        <v>75.4116797166182</v>
-      </c>
-      <c r="S3">
-        <v>19.38616237881138</v>
-      </c>
       <c r="T3">
-        <v>163.2695718508634</v>
+        <v>0.1723597883597884</v>
       </c>
       <c r="U3">
-        <v>177.9810241251073</v>
+        <v>92.19768601636036</v>
       </c>
       <c r="V3">
-        <v>189.2412033946783</v>
+        <v>107.803776846867</v>
       </c>
       <c r="W3">
-        <v>0.65</v>
-      </c>
-      <c r="X3">
-        <v>0.24</v>
+        <v>67.63780836492623</v>
+      </c>
+      <c r="X3" t="s">
+        <v>87</v>
       </c>
       <c r="Y3">
-        <v>0.12</v>
+        <v>0.1585502645502646</v>
       </c>
       <c r="Z3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AA3">
-        <v>42647</v>
+        <v>60445</v>
       </c>
       <c r="AB3">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="AC3">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="AD3">
-        <v>1.0187265917603</v>
+        <v>0.9204301075268817</v>
       </c>
       <c r="AE3">
-        <v>0.7050139690201849</v>
+        <v>0.4723446486621655</v>
       </c>
       <c r="AF3">
-        <v>0.9190767639325891</v>
+        <v>0.6568537958314317</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -983,97 +998,94 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>43743</v>
+        <v>43821</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I4">
-        <v>37.3504969752</v>
+        <v>37.2461629761</v>
       </c>
       <c r="J4">
-        <v>-80.4847910049</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4">
-        <v>92.39734611131874</v>
+        <v>-80.4092512154</v>
+      </c>
+      <c r="K4">
+        <v>172.7767881710603</v>
+      </c>
+      <c r="L4">
+        <v>187.6401065878875</v>
+      </c>
+      <c r="M4">
+        <v>210.2568825940269</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
       </c>
       <c r="O4">
-        <v>108.0031498173797</v>
+        <v>0.6960251889168766</v>
       </c>
       <c r="P4">
-        <v>67.89977549174843</v>
+        <v>153.85164105967</v>
       </c>
       <c r="Q4">
-        <v>183.2405061289141</v>
+        <v>168.0023224950234</v>
       </c>
       <c r="R4">
-        <v>198.2820798734708</v>
-      </c>
-      <c r="S4">
-        <v>218.8940134440523</v>
+        <v>188.8824715430559</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
       </c>
       <c r="T4">
-        <v>57.50637478216566</v>
+        <v>0.1970982367758186</v>
       </c>
       <c r="U4">
-        <v>48.90690066346951</v>
+        <v>35.33696266970165</v>
       </c>
       <c r="V4">
-        <v>22.92380835906809</v>
+        <v>56.06523378580447</v>
       </c>
       <c r="W4">
-        <v>0.16</v>
-      </c>
-      <c r="X4">
-        <v>0.67</v>
+        <v>39.03874434386037</v>
+      </c>
+      <c r="X4" t="s">
+        <v>81</v>
       </c>
       <c r="Y4">
-        <v>0.17</v>
+        <v>0.1068765743073048</v>
       </c>
       <c r="Z4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA4">
-        <v>60445</v>
+        <v>21082</v>
       </c>
       <c r="AB4">
-        <v>428</v>
+        <v>299</v>
       </c>
       <c r="AC4">
-        <v>465</v>
+        <v>141</v>
       </c>
       <c r="AD4">
-        <v>0.9204301075268817</v>
+        <v>2.120567375886525</v>
       </c>
       <c r="AE4">
-        <v>0.4723446486621655</v>
+        <v>0.6181679568379076</v>
       </c>
       <c r="AF4">
-        <v>0.6568537958314317</v>
+        <v>0.8983105013102669</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1081,94 +1093,94 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>43821</v>
+        <v>43837</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I5">
-        <v>37.2461629761</v>
+        <v>37.2463788487</v>
       </c>
       <c r="J5">
-        <v>-80.4092512154</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5">
-        <v>172.7732299764028</v>
+        <v>-80.4095616039</v>
+      </c>
+      <c r="K5">
+        <v>171.6524343774405</v>
+      </c>
+      <c r="L5">
+        <v>186.0459767897252</v>
+      </c>
+      <c r="M5">
+        <v>209.8695459237344</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
       </c>
       <c r="O5">
-        <v>187.6358839623083</v>
+        <v>0.5529653333333333</v>
       </c>
       <c r="P5">
-        <v>210.2517768995839</v>
+        <v>151.0872798556223</v>
       </c>
       <c r="Q5">
-        <v>35.32824211570215</v>
+        <v>163.9499035409798</v>
       </c>
       <c r="R5">
-        <v>56.05699335311498</v>
-      </c>
-      <c r="S5">
-        <v>39.02866166969977</v>
+        <v>185.6025110461135</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
       </c>
       <c r="T5">
-        <v>153.8308242811499</v>
+        <v>0.3426986666666667</v>
       </c>
       <c r="U5">
-        <v>167.9830031948883</v>
+        <v>62.50738639268459</v>
       </c>
       <c r="V5">
-        <v>188.8616996805116</v>
+        <v>61.79379440779776</v>
       </c>
       <c r="W5">
-        <v>0.7</v>
-      </c>
-      <c r="X5">
-        <v>0.11</v>
+        <v>41.63170270407647</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
       </c>
       <c r="Y5">
-        <v>0.2</v>
+        <v>0.104336</v>
       </c>
       <c r="Z5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AA5">
-        <v>21082</v>
+        <v>19528.5</v>
       </c>
       <c r="AB5">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AC5">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="AD5">
-        <v>2.120567375886525</v>
+        <v>1.269911504424779</v>
       </c>
       <c r="AE5">
-        <v>0.6181679568379076</v>
+        <v>0.4927208962002321</v>
       </c>
       <c r="AF5">
-        <v>0.8983105013102669</v>
+        <v>0.741386837759344</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1176,94 +1188,94 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>43837</v>
+        <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6">
-        <v>37.2463788487</v>
-      </c>
-      <c r="J6">
-        <v>-80.4095616039</v>
-      </c>
-      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6">
-        <v>62.50738639268459</v>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>122.6745064687805</v>
+      </c>
+      <c r="L6">
+        <v>133.2987529069956</v>
+      </c>
+      <c r="M6">
+        <v>155.9339800856488</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
       </c>
       <c r="O6">
-        <v>61.79379440779776</v>
+        <v>0.5690364025695932</v>
       </c>
       <c r="P6">
-        <v>41.63170270407647</v>
+        <v>153.8474315087378</v>
       </c>
       <c r="Q6">
-        <v>151.0872798556223</v>
+        <v>166.3450154648808</v>
       </c>
       <c r="R6">
-        <v>163.9499035409798</v>
-      </c>
-      <c r="S6">
-        <v>185.6025110461135</v>
+        <v>197.2461172689396</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
       </c>
       <c r="T6">
-        <v>171.6524343774405</v>
+        <v>0.3890835117773019</v>
       </c>
       <c r="U6">
-        <v>186.0459767897252</v>
+        <v>52.66094069530308</v>
       </c>
       <c r="V6">
-        <v>209.8695459237344</v>
+        <v>70.53609406952461</v>
       </c>
       <c r="W6">
-        <v>0.1</v>
-      </c>
-      <c r="X6">
-        <v>0.34</v>
+        <v>35.3840490797611</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
       </c>
       <c r="Y6">
-        <v>0.55</v>
+        <v>0.04188008565310492</v>
       </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA6">
-        <v>19528.5</v>
+        <v>227544</v>
       </c>
       <c r="AB6">
-        <v>287</v>
+        <v>499</v>
       </c>
       <c r="AC6">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="AD6">
-        <v>1.269911504424779</v>
+        <v>1.094298245614035</v>
       </c>
       <c r="AE6">
-        <v>0.4927208962002321</v>
+        <v>227544</v>
       </c>
       <c r="AF6">
-        <v>0.741386837759344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1271,94 +1283,94 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>53460</v>
+        <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7">
-        <v>203.4048001410076</v>
+      <c r="K7">
+        <v>130.2153140167135</v>
+      </c>
+      <c r="L7">
+        <v>142.5762781447286</v>
+      </c>
+      <c r="M7">
+        <v>169.1631390723637</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
       </c>
       <c r="O7">
-        <v>203.9724838918139</v>
+        <v>0.5621128205128205</v>
       </c>
       <c r="P7">
-        <v>201.2113060848762</v>
+        <v>141.6161632228142</v>
       </c>
       <c r="Q7">
-        <v>198.0264420264415</v>
+        <v>155.2422459042467</v>
       </c>
       <c r="R7">
-        <v>56.9175149175133</v>
-      </c>
-      <c r="S7">
-        <v>22.69381069380572</v>
+        <v>188.0124643926126</v>
+      </c>
+      <c r="S7" t="s">
+        <v>87</v>
       </c>
       <c r="T7">
-        <v>179.1420662677553</v>
+        <v>0.354651282051282</v>
       </c>
       <c r="U7">
-        <v>180.5333079179852</v>
+        <v>55.74394676853434</v>
       </c>
       <c r="V7">
-        <v>171.9084550231229</v>
+        <v>73.41741112685592</v>
       </c>
       <c r="W7">
-        <v>0.6</v>
-      </c>
-      <c r="X7">
-        <v>0.05</v>
+        <v>52.70864395292821</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
       </c>
       <c r="Y7">
-        <v>0.35</v>
+        <v>0.08323589743589743</v>
       </c>
       <c r="Z7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA7">
-        <v>105298</v>
+        <v>15944.5</v>
       </c>
       <c r="AB7">
-        <v>323</v>
+        <v>216</v>
       </c>
       <c r="AC7">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="AD7">
-        <v>0.99079754601227</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AE7">
-        <v>105298</v>
+        <v>0.6242463393626184</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.961902750965251</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1366,94 +1378,97 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G8">
-        <v>35319</v>
+        <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8">
-        <v>37.2503702102</v>
+        <v>37.2504015</v>
       </c>
       <c r="J8">
-        <v>-80.4100087716</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K8">
+        <v>221.8846870062522</v>
+      </c>
+      <c r="L8">
+        <v>218.1225171168326</v>
+      </c>
+      <c r="M8">
+        <v>213.5128846587863</v>
+      </c>
+      <c r="N8" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8">
-        <v>114.9058843134363</v>
-      </c>
       <c r="O8">
-        <v>123.3160735446583</v>
+        <v>0.5656010638297873</v>
       </c>
       <c r="P8">
-        <v>146.8194526736817</v>
+        <v>53.75527160573193</v>
       </c>
       <c r="Q8">
-        <v>149.7174476891847</v>
+        <v>90.61624284004093</v>
       </c>
       <c r="R8">
-        <v>160.0071629194638</v>
-      </c>
-      <c r="S8">
-        <v>189.8592009245988</v>
+        <v>15.63931201610202</v>
+      </c>
+      <c r="S8" t="s">
+        <v>89</v>
       </c>
       <c r="T8">
-        <v>70.31421249753757</v>
+        <v>0.3361010638297872</v>
       </c>
       <c r="U8">
-        <v>79.17228464419397</v>
+        <v>84.48962701390603</v>
       </c>
       <c r="V8">
-        <v>66.06445890006037</v>
+        <v>117.3242661664122</v>
       </c>
       <c r="W8">
-        <v>0.58</v>
-      </c>
-      <c r="X8">
-        <v>0.4</v>
+        <v>39.85019863164931</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
       </c>
       <c r="Y8">
-        <v>0.03</v>
+        <v>0.09829787234042553</v>
       </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA8">
-        <v>174151</v>
+        <v>80554.5</v>
       </c>
       <c r="AB8">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="AC8">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="AD8">
-        <v>1.429799426934097</v>
+        <v>1.001926782273603</v>
       </c>
       <c r="AE8">
-        <v>174151</v>
+        <v>0.5129716305282261</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.7763765336314659</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1461,94 +1476,97 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G9">
-        <v>38899</v>
+        <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9">
-        <v>122.6745064687805</v>
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>37.2496022353</v>
+      </c>
+      <c r="J9">
+        <v>-80.66670543399999</v>
+      </c>
+      <c r="K9">
+        <v>219.1904850983604</v>
+      </c>
+      <c r="L9">
+        <v>217.7451419079183</v>
+      </c>
+      <c r="M9">
+        <v>217.2594449391349</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
       </c>
       <c r="O9">
-        <v>133.2987529069956</v>
+        <v>0.7033315789473684</v>
       </c>
       <c r="P9">
-        <v>155.9339800856488</v>
+        <v>36.43909321616746</v>
       </c>
       <c r="Q9">
-        <v>153.8474315087378</v>
+        <v>73.84828226202707</v>
       </c>
       <c r="R9">
-        <v>166.3450154648808</v>
-      </c>
-      <c r="S9">
-        <v>197.2461172689396</v>
+        <v>14.8097799325613</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
       </c>
       <c r="T9">
-        <v>52.6609406953031</v>
+        <v>0.2779894736842105</v>
       </c>
       <c r="U9">
-        <v>70.53609406952461</v>
+        <v>132.5333333333334</v>
       </c>
       <c r="V9">
-        <v>35.3840490797611</v>
+        <v>149.3052039381153</v>
       </c>
       <c r="W9">
-        <v>0.57</v>
-      </c>
-      <c r="X9">
-        <v>0.39</v>
+        <v>120.4810126582273</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
       </c>
       <c r="Y9">
-        <v>0.04</v>
+        <v>0.01867894736842105</v>
       </c>
       <c r="Z9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA9">
-        <v>227544</v>
+        <v>54472</v>
       </c>
       <c r="AB9">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="AC9">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AD9">
-        <v>1.094298245614035</v>
+        <v>0.9977973568281938</v>
       </c>
       <c r="AE9">
-        <v>227544</v>
+        <v>0.3836461598056133</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.6177539621785603</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1556,94 +1574,97 @@
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G10">
-        <v>38490</v>
+        <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10">
+        <v>37.2485728184</v>
+      </c>
+      <c r="J10">
+        <v>-80.66748366829999</v>
+      </c>
+      <c r="K10">
+        <v>211.2274908387691</v>
+      </c>
+      <c r="L10">
+        <v>208.9123625816136</v>
+      </c>
+      <c r="M10">
+        <v>206.2215942323034</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10">
+        <v>0.9008279569892473</v>
+      </c>
+      <c r="P10">
+        <v>26.55634178904509</v>
+      </c>
+      <c r="Q10">
+        <v>64.45220293724373</v>
+      </c>
+      <c r="R10">
+        <v>8.518558077451559</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10">
+        <v>0.0806505376344086</v>
+      </c>
+      <c r="U10">
+        <v>76.94748990190439</v>
+      </c>
+      <c r="V10">
+        <v>105.7270628967121</v>
+      </c>
+      <c r="W10">
+        <v>40.03923831505807</v>
+      </c>
+      <c r="X10" t="s">
         <v>83</v>
       </c>
-      <c r="N10">
-        <v>130.359348730201</v>
-      </c>
-      <c r="O10">
-        <v>142.7403150163701</v>
-      </c>
-      <c r="P10">
-        <v>169.489408016989</v>
-      </c>
-      <c r="Q10">
-        <v>55.74673484475608</v>
-      </c>
-      <c r="R10">
-        <v>73.42015771315909</v>
-      </c>
-      <c r="S10">
-        <v>52.71155741744563</v>
-      </c>
-      <c r="T10">
-        <v>141.9583776878883</v>
-      </c>
-      <c r="U10">
-        <v>155.6154080111924</v>
-      </c>
-      <c r="V10">
-        <v>188.4271115301547</v>
-      </c>
-      <c r="W10">
-        <v>0.58</v>
-      </c>
-      <c r="X10">
-        <v>0.08</v>
-      </c>
       <c r="Y10">
-        <v>0.34</v>
+        <v>0.01852150537634408</v>
       </c>
       <c r="Z10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA10">
-        <v>15944.5</v>
+        <v>45085</v>
       </c>
       <c r="AB10">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="AC10">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="AD10">
-        <v>0.9473684210526315</v>
+        <v>0.3577464788732395</v>
       </c>
       <c r="AE10">
-        <v>0.6242463393626184</v>
+        <v>45085</v>
       </c>
       <c r="AF10">
-        <v>0.961902750965251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1651,94 +1672,97 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G11">
-        <v>34954</v>
+        <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11">
-        <v>37.2092918564</v>
+        <v>37.2504015</v>
       </c>
       <c r="J11">
-        <v>-81.17685317989999</v>
-      </c>
-      <c r="K11" t="s">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K11">
+        <v>214.5962834987609</v>
+      </c>
+      <c r="L11">
+        <v>210.341278400136</v>
+      </c>
+      <c r="M11">
+        <v>204.9647423905637</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11">
+        <v>0.7428283378746594</v>
+      </c>
+      <c r="P11">
+        <v>59.30306466135823</v>
+      </c>
+      <c r="Q11">
+        <v>76.36402441058524</v>
+      </c>
+      <c r="R11">
+        <v>27.15283289426759</v>
+      </c>
+      <c r="S11" t="s">
         <v>83</v>
       </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11">
-        <v>146.8647075293409</v>
-      </c>
-      <c r="O11">
-        <v>160.5965608156975</v>
-      </c>
-      <c r="P11">
-        <v>186.2473459483432</v>
-      </c>
-      <c r="Q11">
-        <v>62.95131442765506</v>
-      </c>
-      <c r="R11">
-        <v>85.53645208031045</v>
-      </c>
-      <c r="S11">
-        <v>34.65245290830941</v>
-      </c>
       <c r="T11">
-        <v>172.7647210377877</v>
+        <v>0.1651444141689373</v>
       </c>
       <c r="U11">
-        <v>186.9225140737154</v>
+        <v>84.39739565167143</v>
       </c>
       <c r="V11">
-        <v>219.0091205379637</v>
+        <v>100.3088594349491</v>
       </c>
       <c r="W11">
-        <v>0.46</v>
-      </c>
-      <c r="X11">
-        <v>0.13</v>
+        <v>57.47093361237843</v>
+      </c>
+      <c r="X11" t="s">
+        <v>83</v>
       </c>
       <c r="Y11">
-        <v>0.41</v>
+        <v>0.09202724795640327</v>
       </c>
       <c r="Z11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA11">
-        <v>25622.5</v>
+        <v>46800</v>
       </c>
       <c r="AB11">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="AC11">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="AD11">
-        <v>1.408163265306122</v>
+        <v>0.9923857868020305</v>
       </c>
       <c r="AE11">
-        <v>0.3471271998157506</v>
+        <v>0.5007114810574855</v>
       </c>
       <c r="AF11">
-        <v>0.4871105112070113</v>
+        <v>0.7538720511602058</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1746,94 +1770,97 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>34932</v>
+        <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I12">
-        <v>37.24632035</v>
+        <v>37.2504015</v>
       </c>
       <c r="J12">
-        <v>-80.4095386</v>
-      </c>
-      <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12">
-        <v>65.70057859209682</v>
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K12">
+        <v>201.4368865399079</v>
+      </c>
+      <c r="L12">
+        <v>199.816989106027</v>
+      </c>
+      <c r="M12">
+        <v>197.0657658629451</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
       </c>
       <c r="O12">
-        <v>90.14649157639128</v>
+        <v>0.5228820512820512</v>
       </c>
       <c r="P12">
-        <v>48.01185546542874</v>
+        <v>183.383432378895</v>
       </c>
       <c r="Q12">
-        <v>170.6741807362735</v>
+        <v>182.4128819256855</v>
       </c>
       <c r="R12">
-        <v>185.4946046750082</v>
-      </c>
-      <c r="S12">
-        <v>215.8428949691231</v>
+        <v>180.6446605438499</v>
+      </c>
+      <c r="S12" t="s">
+        <v>86</v>
       </c>
       <c r="T12">
-        <v>138.0137560975609</v>
+        <v>0.4272615384615385</v>
       </c>
       <c r="U12">
-        <v>153.9631219512193</v>
+        <v>60.54896111909838</v>
       </c>
       <c r="V12">
-        <v>166.789658536585</v>
+        <v>73.46019337585025</v>
       </c>
       <c r="W12">
-        <v>0.19</v>
-      </c>
-      <c r="X12">
-        <v>0.76</v>
+        <v>35.59031063568744</v>
+      </c>
+      <c r="X12" t="s">
+        <v>83</v>
       </c>
       <c r="Y12">
-        <v>0.06</v>
+        <v>0.04985641025641026</v>
       </c>
       <c r="Z12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AA12">
-        <v>3121.5</v>
+        <v>9634</v>
       </c>
       <c r="AB12">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="AC12">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="AD12">
-        <v>1.507042253521127</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.6283212560386473</v>
+        <v>0.6326503808773313</v>
       </c>
       <c r="AF12">
-        <v>0.9592808850645359</v>
+        <v>0.9440007838910391</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1841,94 +1868,195 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
       <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>36660</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>37.2504015</v>
+      </c>
+      <c r="J13">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K13">
+        <v>209.4411456859088</v>
+      </c>
+      <c r="L13">
+        <v>208.0204859488259</v>
+      </c>
+      <c r="M13">
+        <v>208.4494137937803</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13">
+        <v>0.8300765027322404</v>
+      </c>
+      <c r="P13">
+        <v>41.01335407260117</v>
+      </c>
+      <c r="Q13">
+        <v>67.53761523578665</v>
+      </c>
+      <c r="R13">
+        <v>19.91608179370849</v>
+      </c>
+      <c r="S13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13">
+        <v>0.1440382513661202</v>
+      </c>
+      <c r="U13">
+        <v>159.8989856297552</v>
+      </c>
+      <c r="V13">
+        <v>164.1223584108203</v>
+      </c>
+      <c r="W13">
+        <v>157.4387151310225</v>
+      </c>
+      <c r="X13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y13">
+        <v>0.02588524590163934</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13">
+        <v>47422</v>
+      </c>
+      <c r="AB13">
+        <v>181</v>
+      </c>
+      <c r="AC13">
+        <v>262</v>
+      </c>
+      <c r="AD13">
+        <v>0.6908396946564885</v>
+      </c>
+      <c r="AE13">
+        <v>47422</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13">
-        <v>34875</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13">
-        <v>37.230324</v>
-      </c>
-      <c r="J13">
-        <v>-80.429407</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13">
-        <v>136.5775679864739</v>
-      </c>
-      <c r="O13">
-        <v>156.1154713259129</v>
-      </c>
-      <c r="P13">
-        <v>181.1545723545164</v>
-      </c>
-      <c r="Q13">
-        <v>164.4010318949359</v>
-      </c>
-      <c r="R13">
-        <v>184.9567580765301</v>
-      </c>
-      <c r="S13">
-        <v>215.170269089417</v>
-      </c>
-      <c r="T13">
-        <v>10.43757781549101</v>
-      </c>
-      <c r="U13">
-        <v>34.13010752687154</v>
-      </c>
-      <c r="V13">
-        <v>13.71069609507325</v>
-      </c>
-      <c r="W13">
-        <v>0.08</v>
-      </c>
-      <c r="X13">
-        <v>0.83</v>
-      </c>
-      <c r="Y13">
-        <v>0.09</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA13">
-        <v>17541.5</v>
-      </c>
-      <c r="AB13">
-        <v>112</v>
-      </c>
-      <c r="AC13">
-        <v>265</v>
-      </c>
-      <c r="AD13">
-        <v>0.4226415094339623</v>
-      </c>
-      <c r="AE13">
-        <v>0.5910208894878706</v>
-      </c>
-      <c r="AF13">
-        <v>0.9254286467950409</v>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>37380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>209.0773185863931</v>
+      </c>
+      <c r="L14">
+        <v>205.439694473329</v>
+      </c>
+      <c r="M14">
+        <v>200.4629688874748</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14">
+        <v>0.9164659685863874</v>
+      </c>
+      <c r="P14">
+        <v>33.56708707901527</v>
+      </c>
+      <c r="Q14">
+        <v>65.45679592111628</v>
+      </c>
+      <c r="R14">
+        <v>12.02287669394016</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14">
+        <v>0.07803141361256545</v>
+      </c>
+      <c r="U14">
+        <v>127.1730038022816</v>
+      </c>
+      <c r="V14">
+        <v>139.7186311787071</v>
+      </c>
+      <c r="W14">
+        <v>119.6492395437262</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14">
+        <v>0.005502617801047121</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA14">
+        <v>15060.5</v>
+      </c>
+      <c r="AB14">
+        <v>226</v>
+      </c>
+      <c r="AC14">
+        <v>230</v>
+      </c>
+      <c r="AD14">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AE14">
+        <v>0.4398510514018691</v>
+      </c>
+      <c r="AF14">
+        <v>0.7597871052366058</v>
       </c>
     </row>
   </sheetData>
@@ -1945,6 +2073,7 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
   <si>
     <t>Image_Label</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Seconds</t>
   </si>
   <si>
-    <t>Annotations</t>
+    <t>Place</t>
   </si>
   <si>
     <t>Lat</t>
@@ -46,6 +46,9 @@
     <t>Long</t>
   </si>
   <si>
+    <t>Hex_Color_Code</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
@@ -91,18 +94,15 @@
     <t>Prop3</t>
   </si>
   <si>
-    <t>Hex_Color_Code</t>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
   <si>
     <t>Contour_Area</t>
   </si>
   <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>Aspect_Ratio</t>
   </si>
   <si>
@@ -247,85 +247,94 @@
     <t>10:23:00</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>Highview Dr, Blacksburg, VA, US</t>
+  </si>
+  <si>
+    <t>Virginia, US</t>
   </si>
   <si>
     <t>Princeton University</t>
   </si>
   <si>
+    <t>Jefferson National Forest, Virginia 24134, USA</t>
+  </si>
+  <si>
+    <t>Giles County, VA, USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">             40.343137</t>
   </si>
   <si>
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
+    <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
+  </si>
+  <si>
+    <t>['#b7c6db', '#393117', '#5c6c44']</t>
+  </si>
+  <si>
+    <t>['#9aa8bd', '#233827', '#adbcd2']</t>
+  </si>
+  <si>
+    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
+  </si>
+  <si>
+    <t>['#7b859c', '#354723', '#9aa6c5']</t>
+  </si>
+  <si>
+    <t>['#828fa9', '#384935', '#8e9bbc']</t>
+  </si>
+  <si>
+    <t>['#dedad6', '#365b10', '#547528']</t>
+  </si>
+  <si>
+    <t>['#dbdad9', '#244a0f', '#859578']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
+  </si>
+  <si>
+    <t>['#d7d2cd', '#54643a', '#3b4c1b']</t>
+  </si>
+  <si>
+    <t>['#b7b6b5', '#3d4924', '#c9c8c5']</t>
+  </si>
+  <si>
+    <t>['#294414', '#d1d0d0', '#a0a49d']</t>
+  </si>
+  <si>
+    <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
+  </si>
+  <si>
+    <t>lightsteelblue</t>
+  </si>
+  <si>
     <t>darkgray</t>
   </si>
   <si>
-    <t>lightsteelblue</t>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>gainsboro</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
   </si>
   <si>
     <t>darkolivegreen</t>
   </si>
   <si>
-    <t>darkgreen</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
-    <t>gainsboro</t>
-  </si>
-  <si>
     <t>gray</t>
-  </si>
-  <si>
-    <t>['#a3b2bd', '#2a4b13', '#bccbdd']</t>
-  </si>
-  <si>
-    <t>['#b7c6db', '#5c6c44', '#393117']</t>
-  </si>
-  <si>
-    <t>['#adbcd2', '#233827', '#9aa8bd']</t>
-  </si>
-  <si>
-    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
-  </si>
-  <si>
-    <t>['#9aa6c5', '#7b859c', '#354723']</t>
-  </si>
-  <si>
-    <t>['#8e9bbc', '#384935', '#828fa9']</t>
-  </si>
-  <si>
-    <t>['#365b10', '#dedad6', '#547528']</t>
-  </si>
-  <si>
-    <t>['#244a0f', '#dbdad9', '#859578']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
-  </si>
-  <si>
-    <t>['#d7d2cd', '#546439', '#3b4c1b']</t>
-  </si>
-  <si>
-    <t>['#b7b6b5', '#c9c8c5', '#3d4924']</t>
-  </si>
-  <si>
-    <t>['#d1d0d0', '#294414', '#a0a49d']</t>
-  </si>
-  <si>
-    <t>['#d1cdc8', '#22410c', '#7f8c78']</t>
   </si>
 </sst>
 </file>
@@ -828,62 +837,62 @@
       <c r="J2">
         <v>-80.40952306609999</v>
       </c>
-      <c r="K2">
-        <v>188.3437748759284</v>
+      <c r="K2" t="s">
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>202.8482461934476</v>
+        <v>188.3417578974903</v>
       </c>
       <c r="M2">
-        <v>220.9193130430371</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2">
+        <v>202.8464697265992</v>
+      </c>
+      <c r="N2">
+        <v>220.9160168321952</v>
+      </c>
+      <c r="O2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2">
         <v>0.6489010989010989</v>
       </c>
-      <c r="P2">
-        <v>42.30053129512963</v>
-      </c>
       <c r="Q2">
-        <v>75.41380435288065</v>
+        <v>42.29902360588152</v>
       </c>
       <c r="R2">
-        <v>19.39029221232124</v>
-      </c>
-      <c r="S2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2">
+        <v>75.41250902988652</v>
+      </c>
+      <c r="S2">
+        <v>19.38843707034124</v>
+      </c>
+      <c r="T2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2">
         <v>0.2357857142857143</v>
       </c>
-      <c r="U2">
-        <v>163.2940952380957</v>
-      </c>
       <c r="V2">
-        <v>178.0078095238095</v>
+        <v>163.2776930409918</v>
       </c>
       <c r="W2">
-        <v>189.2647619047611</v>
-      </c>
-      <c r="X2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2">
+        <v>177.9907054337464</v>
+      </c>
+      <c r="X2">
+        <v>189.2473307912289</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2">
         <v>0.1153131868131868</v>
       </c>
-      <c r="Z2" t="s">
-        <v>91</v>
-      </c>
       <c r="AA2">
+        <v>272</v>
+      </c>
+      <c r="AB2">
+        <v>267</v>
+      </c>
+      <c r="AC2">
         <v>42647</v>
-      </c>
-      <c r="AB2">
-        <v>272</v>
-      </c>
-      <c r="AC2">
-        <v>267</v>
       </c>
       <c r="AD2">
         <v>1.0187265917603</v>
@@ -918,7 +927,7 @@
         <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>37.3504969752</v>
@@ -926,62 +935,62 @@
       <c r="J3">
         <v>-80.4847910049</v>
       </c>
-      <c r="K3">
-        <v>183.2364997904586</v>
+      <c r="K3" t="s">
+        <v>85</v>
       </c>
       <c r="L3">
-        <v>198.2781410869785</v>
+        <v>183.2323597318077</v>
       </c>
       <c r="M3">
-        <v>218.8874672824065</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3">
-        <v>0.6690899470899471</v>
+        <v>198.2738788032164</v>
+      </c>
+      <c r="N3">
+        <v>218.8811673730186</v>
+      </c>
+      <c r="O3" t="s">
+        <v>97</v>
       </c>
       <c r="P3">
-        <v>57.41178645144289</v>
+        <v>0.6690952380952381</v>
       </c>
       <c r="Q3">
-        <v>48.628538862022</v>
+        <v>57.37200037061943</v>
       </c>
       <c r="R3">
-        <v>22.80003696743927</v>
-      </c>
-      <c r="S3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3">
-        <v>0.1723597883597884</v>
+        <v>48.5369529633434</v>
+      </c>
+      <c r="S3">
+        <v>22.76376663887243</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
       </c>
       <c r="U3">
-        <v>92.19768601636036</v>
+        <v>0.171994708994709</v>
       </c>
       <c r="V3">
-        <v>107.803776846867</v>
+        <v>92.12995455902642</v>
       </c>
       <c r="W3">
-        <v>67.63780836492623</v>
-      </c>
-      <c r="X3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3">
-        <v>0.1585502645502646</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>92</v>
+        <v>107.7260605658584</v>
+      </c>
+      <c r="X3">
+        <v>67.52605393214542</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3">
+        <v>0.1589100529100529</v>
       </c>
       <c r="AA3">
+        <v>428</v>
+      </c>
+      <c r="AB3">
+        <v>465</v>
+      </c>
+      <c r="AC3">
         <v>60445</v>
-      </c>
-      <c r="AB3">
-        <v>428</v>
-      </c>
-      <c r="AC3">
-        <v>465</v>
       </c>
       <c r="AD3">
         <v>0.9204301075268817</v>
@@ -1021,62 +1030,62 @@
       <c r="J4">
         <v>-80.4092512154</v>
       </c>
-      <c r="K4">
-        <v>172.7767881710603</v>
+      <c r="K4" t="s">
+        <v>86</v>
       </c>
       <c r="L4">
-        <v>187.6401065878875</v>
+        <v>172.773271762652</v>
       </c>
       <c r="M4">
-        <v>210.2568825940269</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
+        <v>187.6359537061866</v>
+      </c>
+      <c r="N4">
+        <v>210.2518800529839</v>
+      </c>
+      <c r="O4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4">
         <v>0.6960251889168766</v>
       </c>
-      <c r="P4">
-        <v>153.85164105967</v>
-      </c>
       <c r="Q4">
-        <v>168.0023224950234</v>
+        <v>153.8340149268989</v>
       </c>
       <c r="R4">
-        <v>188.8824715430559</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4">
+        <v>167.9859676924651</v>
+      </c>
+      <c r="S4">
+        <v>188.8659646252943</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4">
         <v>0.1970982367758186</v>
       </c>
-      <c r="U4">
-        <v>35.33696266970165</v>
-      </c>
       <c r="V4">
-        <v>56.06523378580447</v>
+        <v>35.33415036532595</v>
       </c>
       <c r="W4">
-        <v>39.03874434386037</v>
-      </c>
-      <c r="X4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4">
+        <v>56.06255008247128</v>
+      </c>
+      <c r="X4">
+        <v>39.03525807208774</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4">
         <v>0.1068765743073048</v>
       </c>
-      <c r="Z4" t="s">
-        <v>93</v>
-      </c>
       <c r="AA4">
+        <v>299</v>
+      </c>
+      <c r="AB4">
+        <v>141</v>
+      </c>
+      <c r="AC4">
         <v>21082</v>
-      </c>
-      <c r="AB4">
-        <v>299</v>
-      </c>
-      <c r="AC4">
-        <v>141</v>
       </c>
       <c r="AD4">
         <v>2.120567375886525</v>
@@ -1116,62 +1125,62 @@
       <c r="J5">
         <v>-80.4095616039</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5">
         <v>171.6524343774405</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>186.0459767897252</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>209.8695459237344</v>
       </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5">
         <v>0.5529653333333333</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>151.0872798556223</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>163.9499035409798</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>185.6025110461135</v>
       </c>
-      <c r="S5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5">
+      <c r="T5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5">
         <v>0.3426986666666667</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>62.50738639268459</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>61.79379440779776</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>41.63170270407647</v>
       </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5">
         <v>0.104336</v>
       </c>
-      <c r="Z5" t="s">
-        <v>94</v>
-      </c>
       <c r="AA5">
+        <v>287</v>
+      </c>
+      <c r="AB5">
+        <v>226</v>
+      </c>
+      <c r="AC5">
         <v>19528.5</v>
-      </c>
-      <c r="AB5">
-        <v>287</v>
-      </c>
-      <c r="AC5">
-        <v>226</v>
       </c>
       <c r="AD5">
         <v>1.269911504424779</v>
@@ -1203,70 +1212,70 @@
         <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6">
-        <v>122.6745064687805</v>
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
       </c>
       <c r="L6">
-        <v>133.2987529069956</v>
+        <v>122.6752668101727</v>
       </c>
       <c r="M6">
-        <v>155.9339800856488</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6">
+        <v>133.2995499224752</v>
+      </c>
+      <c r="N6">
+        <v>155.9353107642291</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6">
         <v>0.5690364025695932</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>153.8474315087378</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>166.3450154648808</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>197.2461172689396</v>
       </c>
-      <c r="S6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6">
+      <c r="T6" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6">
         <v>0.3890835117773019</v>
       </c>
-      <c r="U6">
-        <v>52.66094069530308</v>
-      </c>
       <c r="V6">
-        <v>70.53609406952461</v>
+        <v>52.67208422774856</v>
       </c>
       <c r="W6">
-        <v>35.3840490797611</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y6">
+        <v>70.54451599713286</v>
+      </c>
+      <c r="X6">
+        <v>35.40294388225121</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z6">
         <v>0.04188008565310492</v>
       </c>
-      <c r="Z6" t="s">
-        <v>95</v>
-      </c>
       <c r="AA6">
+        <v>499</v>
+      </c>
+      <c r="AB6">
+        <v>456</v>
+      </c>
+      <c r="AC6">
         <v>227544</v>
-      </c>
-      <c r="AB6">
-        <v>499</v>
-      </c>
-      <c r="AC6">
-        <v>456</v>
       </c>
       <c r="AD6">
         <v>1.094298245614035</v>
@@ -1298,70 +1307,70 @@
         <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7">
         <v>130.2153140167135</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>142.5762781447286</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>169.1631390723637</v>
       </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7">
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7">
         <v>0.5621128205128205</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>141.6161632228142</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>155.2422459042467</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>188.0124643926126</v>
       </c>
-      <c r="S7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7">
+      <c r="T7" t="s">
+        <v>104</v>
+      </c>
+      <c r="U7">
         <v>0.354651282051282</v>
       </c>
-      <c r="U7">
-        <v>55.74394676853434</v>
-      </c>
       <c r="V7">
+        <v>55.74394676853433</v>
+      </c>
+      <c r="W7">
         <v>73.41741112685592</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>52.70864395292821</v>
       </c>
-      <c r="X7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y7">
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z7">
         <v>0.08323589743589743</v>
       </c>
-      <c r="Z7" t="s">
-        <v>96</v>
-      </c>
       <c r="AA7">
+        <v>216</v>
+      </c>
+      <c r="AB7">
+        <v>228</v>
+      </c>
+      <c r="AC7">
         <v>15944.5</v>
-      </c>
-      <c r="AB7">
-        <v>216</v>
-      </c>
-      <c r="AC7">
-        <v>228</v>
       </c>
       <c r="AD7">
         <v>0.9473684210526315</v>
@@ -1396,7 +1405,7 @@
         <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>37.2504015</v>
@@ -1404,62 +1413,62 @@
       <c r="J8">
         <v>-80.66645370000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8">
         <v>221.8846870062522</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>218.1225171168326</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>213.5128846587863</v>
       </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8">
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8">
         <v>0.5656010638297873</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>53.75527160573193</v>
       </c>
-      <c r="Q8">
-        <v>90.61624284004093</v>
-      </c>
       <c r="R8">
-        <v>15.63931201610202</v>
-      </c>
-      <c r="S8" t="s">
-        <v>89</v>
-      </c>
-      <c r="T8">
+        <v>90.61624284004091</v>
+      </c>
+      <c r="S8">
+        <v>15.63931201610205</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8">
         <v>0.3361010638297872</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>84.48962701390603</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>117.3242661664122</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>39.85019863164931</v>
       </c>
-      <c r="X8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z8">
         <v>0.09829787234042553</v>
       </c>
-      <c r="Z8" t="s">
-        <v>97</v>
-      </c>
       <c r="AA8">
+        <v>520</v>
+      </c>
+      <c r="AB8">
+        <v>519</v>
+      </c>
+      <c r="AC8">
         <v>80554.5</v>
-      </c>
-      <c r="AB8">
-        <v>520</v>
-      </c>
-      <c r="AC8">
-        <v>519</v>
       </c>
       <c r="AD8">
         <v>1.001926782273603</v>
@@ -1494,7 +1503,7 @@
         <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>37.2496022353</v>
@@ -1502,62 +1511,62 @@
       <c r="J9">
         <v>-80.66670543399999</v>
       </c>
-      <c r="K9">
-        <v>219.1904850983604</v>
+      <c r="K9" t="s">
+        <v>91</v>
       </c>
       <c r="L9">
+        <v>219.1904850983605</v>
+      </c>
+      <c r="M9">
         <v>217.7451419079183</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>217.2594449391349</v>
       </c>
-      <c r="N9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9">
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9">
         <v>0.7033315789473684</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>36.43909321616746</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>73.84828226202707</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>14.8097799325613</v>
       </c>
-      <c r="S9" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9">
+      <c r="T9" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9">
         <v>0.2779894736842105</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>132.5333333333334</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>149.3052039381153</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>120.4810126582273</v>
       </c>
-      <c r="X9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9">
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9">
         <v>0.01867894736842105</v>
       </c>
-      <c r="Z9" t="s">
-        <v>98</v>
-      </c>
       <c r="AA9">
+        <v>453</v>
+      </c>
+      <c r="AB9">
+        <v>454</v>
+      </c>
+      <c r="AC9">
         <v>54472</v>
-      </c>
-      <c r="AB9">
-        <v>453</v>
-      </c>
-      <c r="AC9">
-        <v>454</v>
       </c>
       <c r="AD9">
         <v>0.9977973568281938</v>
@@ -1592,7 +1601,7 @@
         <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>37.2485728184</v>
@@ -1600,62 +1609,62 @@
       <c r="J10">
         <v>-80.66748366829999</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10">
         <v>211.2274908387691</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>208.9123625816136</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>206.2215942323034</v>
       </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10">
         <v>0.9008279569892473</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>26.55634178904509</v>
       </c>
-      <c r="Q10">
-        <v>64.45220293724373</v>
-      </c>
       <c r="R10">
+        <v>64.45220293724375</v>
+      </c>
+      <c r="S10">
         <v>8.518558077451559</v>
       </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10">
+      <c r="T10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10">
         <v>0.0806505376344086</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>76.94748990190439</v>
       </c>
-      <c r="V10">
-        <v>105.7270628967121</v>
-      </c>
       <c r="W10">
+        <v>105.727062896712</v>
+      </c>
+      <c r="X10">
         <v>40.03923831505807</v>
       </c>
-      <c r="X10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10">
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10">
         <v>0.01852150537634408</v>
       </c>
-      <c r="Z10" t="s">
-        <v>99</v>
-      </c>
       <c r="AA10">
+        <v>127</v>
+      </c>
+      <c r="AB10">
+        <v>355</v>
+      </c>
+      <c r="AC10">
         <v>45085</v>
-      </c>
-      <c r="AB10">
-        <v>127</v>
-      </c>
-      <c r="AC10">
-        <v>355</v>
       </c>
       <c r="AD10">
         <v>0.3577464788732395</v>
@@ -1690,7 +1699,7 @@
         <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I11">
         <v>37.2504015</v>
@@ -1698,62 +1707,62 @@
       <c r="J11">
         <v>-80.66645370000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11">
         <v>214.5962834987609</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>210.341278400136</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>204.9647423905637</v>
       </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11">
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11">
         <v>0.7428283378746594</v>
       </c>
-      <c r="P11">
-        <v>59.30306466135823</v>
-      </c>
       <c r="Q11">
-        <v>76.36402441058524</v>
+        <v>59.33412069998508</v>
       </c>
       <c r="R11">
-        <v>27.15283289426759</v>
-      </c>
-      <c r="S11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11">
-        <v>0.1651444141689373</v>
+        <v>76.39573491250984</v>
+      </c>
+      <c r="S11">
+        <v>27.18354514606449</v>
+      </c>
+      <c r="T11" t="s">
+        <v>105</v>
       </c>
       <c r="U11">
-        <v>84.39739565167143</v>
+        <v>0.1653079019073569</v>
       </c>
       <c r="V11">
-        <v>100.3088594349491</v>
+        <v>84.44690911213887</v>
       </c>
       <c r="W11">
-        <v>57.47093361237843</v>
-      </c>
-      <c r="X11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11">
-        <v>0.09202724795640327</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>100</v>
+        <v>100.3524604518122</v>
+      </c>
+      <c r="X11">
+        <v>57.54270036776209</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z11">
+        <v>0.09186376021798365</v>
       </c>
       <c r="AA11">
+        <v>391</v>
+      </c>
+      <c r="AB11">
+        <v>394</v>
+      </c>
+      <c r="AC11">
         <v>46800</v>
-      </c>
-      <c r="AB11">
-        <v>391</v>
-      </c>
-      <c r="AC11">
-        <v>394</v>
       </c>
       <c r="AD11">
         <v>0.9923857868020305</v>
@@ -1788,7 +1797,7 @@
         <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I12">
         <v>37.2504015</v>
@@ -1796,62 +1805,62 @@
       <c r="J12">
         <v>-80.66645370000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12">
         <v>201.4368865399079</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>199.816989106027</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>197.0657658629451</v>
       </c>
-      <c r="N12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O12">
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12">
         <v>0.5228820512820512</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>183.383432378895</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>182.4128819256855</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>180.6446605438499</v>
       </c>
-      <c r="S12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12">
+      <c r="T12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12">
         <v>0.4272615384615385</v>
       </c>
-      <c r="U12">
-        <v>60.54896111909838</v>
-      </c>
       <c r="V12">
+        <v>60.54896111909841</v>
+      </c>
+      <c r="W12">
         <v>73.46019337585025</v>
       </c>
-      <c r="W12">
-        <v>35.59031063568744</v>
-      </c>
-      <c r="X12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y12">
+      <c r="X12">
+        <v>35.59031063568742</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z12">
         <v>0.04985641025641026</v>
       </c>
-      <c r="Z12" t="s">
-        <v>101</v>
-      </c>
       <c r="AA12">
-        <v>9634</v>
+        <v>171</v>
       </c>
       <c r="AB12">
         <v>171</v>
       </c>
       <c r="AC12">
-        <v>171</v>
+        <v>9634</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1886,7 +1895,7 @@
         <v>36660</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13">
         <v>37.2504015</v>
@@ -1894,62 +1903,62 @@
       <c r="J13">
         <v>-80.66645370000001</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13">
         <v>209.4411456859088</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>208.0204859488259</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>208.4494137937803</v>
       </c>
-      <c r="N13" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13">
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13">
         <v>0.8300765027322404</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>41.01335407260117</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>67.53761523578665</v>
       </c>
-      <c r="R13">
-        <v>19.91608179370849</v>
-      </c>
-      <c r="S13" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13">
+      <c r="S13">
+        <v>19.91608179370846</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13">
         <v>0.1440382513661202</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>159.8989856297552</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>164.1223584108203</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>157.4387151310225</v>
       </c>
-      <c r="X13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y13">
+      <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z13">
         <v>0.02588524590163934</v>
       </c>
-      <c r="Z13" t="s">
-        <v>102</v>
-      </c>
       <c r="AA13">
+        <v>181</v>
+      </c>
+      <c r="AB13">
+        <v>262</v>
+      </c>
+      <c r="AC13">
         <v>47422</v>
-      </c>
-      <c r="AB13">
-        <v>181</v>
-      </c>
-      <c r="AC13">
-        <v>262</v>
       </c>
       <c r="AD13">
         <v>0.6908396946564885</v>
@@ -1984,70 +1993,70 @@
         <v>37380</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14">
-        <v>209.0773185863931</v>
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>96</v>
       </c>
       <c r="L14">
-        <v>205.439694473329</v>
+        <v>209.0764199124769</v>
       </c>
       <c r="M14">
-        <v>200.4629688874748</v>
-      </c>
-      <c r="N14" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14">
-        <v>0.9164659685863874</v>
+        <v>205.4390274556428</v>
+      </c>
+      <c r="N14">
+        <v>200.4619414325455</v>
+      </c>
+      <c r="O14" t="s">
+        <v>101</v>
       </c>
       <c r="P14">
-        <v>33.56708707901527</v>
+        <v>0.9164712041884817</v>
       </c>
       <c r="Q14">
-        <v>65.45679592111628</v>
+        <v>33.55626383948211</v>
       </c>
       <c r="R14">
-        <v>12.02287669394016</v>
-      </c>
-      <c r="S14" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14">
-        <v>0.07803141361256545</v>
+        <v>65.45091592297919</v>
+      </c>
+      <c r="S14">
+        <v>12.01214520565472</v>
+      </c>
+      <c r="T14" t="s">
+        <v>103</v>
       </c>
       <c r="U14">
-        <v>127.1730038022816</v>
+        <v>0.07802617801047121</v>
       </c>
       <c r="V14">
-        <v>139.7186311787071</v>
+        <v>126.8972407231211</v>
       </c>
       <c r="W14">
-        <v>119.6492395437262</v>
-      </c>
-      <c r="X14" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y14">
+        <v>139.4509990485251</v>
+      </c>
+      <c r="X14">
+        <v>119.3577545195052</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z14">
         <v>0.005502617801047121</v>
       </c>
-      <c r="Z14" t="s">
-        <v>103</v>
-      </c>
       <c r="AA14">
+        <v>226</v>
+      </c>
+      <c r="AB14">
+        <v>230</v>
+      </c>
+      <c r="AC14">
         <v>15060.5</v>
-      </c>
-      <c r="AB14">
-        <v>226</v>
-      </c>
-      <c r="AC14">
-        <v>230</v>
       </c>
       <c r="AD14">
         <v>0.9826086956521739</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>Image_Label</t>
   </si>
@@ -199,6 +199,12 @@
     <t>American Chestnut</t>
   </si>
   <si>
+    <t>American chestnut</t>
+  </si>
+  <si>
+    <t>black oak</t>
+  </si>
+  <si>
     <t>Oak</t>
   </si>
   <si>
@@ -271,13 +277,13 @@
     <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
   </si>
   <si>
-    <t>['#b7c6db', '#393117', '#5c6c44']</t>
+    <t>['#393117', '#b7c6db', '#5c6c44']</t>
   </si>
   <si>
     <t>['#9aa8bd', '#233827', '#adbcd2']</t>
   </si>
   <si>
-    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
+    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
   </si>
   <si>
     <t>['#7b859c', '#354723', '#9aa6c5']</t>
@@ -295,13 +301,13 @@
     <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
   </si>
   <si>
-    <t>['#d7d2cd', '#54643a', '#3b4c1b']</t>
-  </si>
-  <si>
-    <t>['#b7b6b5', '#3d4924', '#c9c8c5']</t>
-  </si>
-  <si>
-    <t>['#294414', '#d1d0d0', '#a0a49d']</t>
+    <t>['#54643a', '#d7d2cd', '#3b4c1b']</t>
+  </si>
+  <si>
+    <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
+  </si>
+  <si>
+    <t>['#a0a49d', '#d1d0d0', '#294414']</t>
   </si>
   <si>
     <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
@@ -310,6 +316,9 @@
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
     <t>darkgray</t>
   </si>
   <si>
@@ -322,16 +331,13 @@
     <t>lightgray</t>
   </si>
   <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
     <t>silver</t>
   </si>
   <si>
     <t>darkgreen</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
-  </si>
-  <si>
-    <t>darkolivegreen</t>
   </si>
   <si>
     <t>gray</t>
@@ -817,19 +823,19 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>43641</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>37.2463215678</v>
@@ -838,49 +844,49 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>188.3417578974903</v>
+        <v>188.3449388529327</v>
       </c>
       <c r="M2">
-        <v>202.8464697265992</v>
+        <v>202.8493173887958</v>
       </c>
       <c r="N2">
-        <v>220.9160168321952</v>
+        <v>220.9205257630685</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P2">
         <v>0.6489010989010989</v>
       </c>
       <c r="Q2">
-        <v>42.29902360588152</v>
+        <v>42.30201561223798</v>
       </c>
       <c r="R2">
-        <v>75.41250902988652</v>
+        <v>75.41505301175626</v>
       </c>
       <c r="S2">
-        <v>19.38843707034124</v>
+        <v>19.39219387159625</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U2">
         <v>0.2357857142857143</v>
       </c>
       <c r="V2">
-        <v>163.2776930409918</v>
+        <v>163.302203817412</v>
       </c>
       <c r="W2">
-        <v>177.9907054337464</v>
+        <v>178.0159455471465</v>
       </c>
       <c r="X2">
-        <v>189.2473307912289</v>
+        <v>189.2772145271066</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Z2">
         <v>0.1153131868131868</v>
@@ -915,19 +921,19 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>37.3504969752</v>
@@ -936,52 +942,52 @@
         <v>-80.4847910049</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3">
-        <v>183.2323597318077</v>
+        <v>183.2364997904586</v>
       </c>
       <c r="M3">
-        <v>198.2738788032164</v>
+        <v>198.2781410869785</v>
       </c>
       <c r="N3">
-        <v>218.8811673730186</v>
+        <v>218.8874672824065</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>0.6690952380952381</v>
+        <v>0.6690899470899471</v>
       </c>
       <c r="Q3">
-        <v>57.37200037061943</v>
+        <v>57.40042536141196</v>
       </c>
       <c r="R3">
-        <v>48.5369529633434</v>
+        <v>48.61307523965405</v>
       </c>
       <c r="S3">
-        <v>22.76376663887243</v>
+        <v>22.78796658755505</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="U3">
-        <v>0.171994708994709</v>
+        <v>0.1722698412698413</v>
       </c>
       <c r="V3">
-        <v>92.12995455902642</v>
+        <v>92.18912812334153</v>
       </c>
       <c r="W3">
-        <v>107.7260605658584</v>
+        <v>107.7850544922935</v>
       </c>
       <c r="X3">
-        <v>67.52605393214542</v>
+        <v>67.624003189801</v>
       </c>
       <c r="Y3" t="s">
         <v>105</v>
       </c>
       <c r="Z3">
-        <v>0.1589100529100529</v>
+        <v>0.1586402116402116</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1010,19 +1016,19 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>43821</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>37.2461629761</v>
@@ -1031,49 +1037,49 @@
         <v>-80.4092512154</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L4">
-        <v>172.773271762652</v>
+        <v>172.7732299764028</v>
       </c>
       <c r="M4">
-        <v>187.6359537061866</v>
+        <v>187.6358839623083</v>
       </c>
       <c r="N4">
-        <v>210.2518800529839</v>
+        <v>210.2517768995839</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P4">
         <v>0.6960251889168766</v>
       </c>
       <c r="Q4">
-        <v>153.8340149268989</v>
+        <v>153.8308242811499</v>
       </c>
       <c r="R4">
-        <v>167.9859676924651</v>
+        <v>167.9830031948883</v>
       </c>
       <c r="S4">
-        <v>188.8659646252943</v>
+        <v>188.8616996805116</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U4">
         <v>0.1970982367758186</v>
       </c>
       <c r="V4">
-        <v>35.33415036532595</v>
+        <v>35.32824211570215</v>
       </c>
       <c r="W4">
-        <v>56.06255008247128</v>
+        <v>56.05699335311498</v>
       </c>
       <c r="X4">
-        <v>39.03525807208774</v>
+        <v>39.02866166969977</v>
       </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z4">
         <v>0.1068765743073048</v>
@@ -1105,19 +1111,19 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>43837</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>37.2463788487</v>
@@ -1126,7 +1132,7 @@
         <v>-80.4095616039</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5">
         <v>171.6524343774405</v>
@@ -1138,7 +1144,7 @@
         <v>209.8695459237344</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P5">
         <v>0.5529653333333333</v>
@@ -1153,7 +1159,7 @@
         <v>185.6025110461135</v>
       </c>
       <c r="T5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U5">
         <v>0.3426986666666667</v>
@@ -1168,7 +1174,7 @@
         <v>41.63170270407647</v>
       </c>
       <c r="Y5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z5">
         <v>0.104336</v>
@@ -1200,40 +1206,40 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6">
-        <v>122.6752668101727</v>
+        <v>122.6754901591871</v>
       </c>
       <c r="M6">
-        <v>133.2995499224752</v>
+        <v>133.2997478643705</v>
       </c>
       <c r="N6">
-        <v>155.9353107642291</v>
+        <v>155.9358070221659</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P6">
         <v>0.5690364025695932</v>
@@ -1248,22 +1254,22 @@
         <v>197.2461172689396</v>
       </c>
       <c r="T6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U6">
         <v>0.3890835117773019</v>
       </c>
       <c r="V6">
-        <v>52.67208422774856</v>
+        <v>52.67620605070157</v>
       </c>
       <c r="W6">
-        <v>70.54451599713286</v>
+        <v>70.54824202779545</v>
       </c>
       <c r="X6">
-        <v>35.40294388225121</v>
+        <v>35.40852412102041</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Z6">
         <v>0.04188008565310492</v>
@@ -1295,28 +1301,28 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7">
         <v>130.2153140167135</v>
@@ -1328,7 +1334,7 @@
         <v>169.1631390723637</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P7">
         <v>0.5621128205128205</v>
@@ -1343,13 +1349,13 @@
         <v>188.0124643926126</v>
       </c>
       <c r="T7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U7">
         <v>0.354651282051282</v>
       </c>
       <c r="V7">
-        <v>55.74394676853433</v>
+        <v>55.74394676853434</v>
       </c>
       <c r="W7">
         <v>73.41741112685592</v>
@@ -1358,7 +1364,7 @@
         <v>52.70864395292821</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Z7">
         <v>0.08323589743589743</v>
@@ -1393,19 +1399,19 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>37.2504015</v>
@@ -1414,52 +1420,52 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L8">
-        <v>221.8846870062522</v>
+        <v>221.883494780408</v>
       </c>
       <c r="M8">
-        <v>218.1225171168326</v>
+        <v>218.1215649393264</v>
       </c>
       <c r="N8">
-        <v>213.5128846587863</v>
+        <v>213.5111821687147</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P8">
         <v>0.5656010638297873</v>
       </c>
       <c r="Q8">
-        <v>53.75527160573193</v>
+        <v>53.74892947104929</v>
       </c>
       <c r="R8">
-        <v>90.61624284004091</v>
+        <v>90.61045340048679</v>
       </c>
       <c r="S8">
-        <v>15.63931201610205</v>
+        <v>15.63301322416959</v>
       </c>
       <c r="T8" t="s">
         <v>105</v>
       </c>
       <c r="U8">
-        <v>0.3361010638297872</v>
+        <v>0.3358510638297872</v>
       </c>
       <c r="V8">
-        <v>84.48962701390603</v>
+        <v>84.45625344352797</v>
       </c>
       <c r="W8">
-        <v>117.3242661664122</v>
+        <v>117.2977961432537</v>
       </c>
       <c r="X8">
-        <v>39.85019863164931</v>
+        <v>39.82573002754887</v>
       </c>
       <c r="Y8" t="s">
         <v>105</v>
       </c>
       <c r="Z8">
-        <v>0.09829787234042553</v>
+        <v>0.09854787234042553</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1491,19 +1497,19 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>37.2496022353</v>
@@ -1512,10 +1518,10 @@
         <v>-80.66670543399999</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>219.1904850983605</v>
+        <v>219.1904850983604</v>
       </c>
       <c r="M9">
         <v>217.7451419079183</v>
@@ -1524,7 +1530,7 @@
         <v>217.2594449391349</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>0.7033315789473684</v>
@@ -1539,7 +1545,7 @@
         <v>14.8097799325613</v>
       </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U9">
         <v>0.2779894736842105</v>
@@ -1554,7 +1560,7 @@
         <v>120.4810126582273</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z9">
         <v>0.01867894736842105</v>
@@ -1586,22 +1592,22 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>37.2485728184</v>
@@ -1610,7 +1616,7 @@
         <v>-80.66748366829999</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10">
         <v>211.2274908387691</v>
@@ -1622,7 +1628,7 @@
         <v>206.2215942323034</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P10">
         <v>0.9008279569892473</v>
@@ -1637,16 +1643,16 @@
         <v>8.518558077451559</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U10">
         <v>0.0806505376344086</v>
       </c>
       <c r="V10">
-        <v>76.94748990190439</v>
+        <v>76.9474899019044</v>
       </c>
       <c r="W10">
-        <v>105.727062896712</v>
+        <v>105.7270628967121</v>
       </c>
       <c r="X10">
         <v>40.03923831505807</v>
@@ -1684,22 +1690,22 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <v>37.2504015</v>
@@ -1708,7 +1714,7 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L11">
         <v>214.5962834987609</v>
@@ -1720,40 +1726,40 @@
         <v>204.9647423905637</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>0.7428283378746594</v>
       </c>
       <c r="Q11">
-        <v>59.33412069998508</v>
+        <v>59.31858908170905</v>
       </c>
       <c r="R11">
-        <v>76.39573491250984</v>
+        <v>76.38074143157648</v>
       </c>
       <c r="S11">
-        <v>27.18354514606449</v>
+        <v>27.16807114546862</v>
       </c>
       <c r="T11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U11">
-        <v>0.1653079019073569</v>
+        <v>0.1651880108991826</v>
       </c>
       <c r="V11">
-        <v>84.44690911213887</v>
+        <v>84.42287079110166</v>
       </c>
       <c r="W11">
-        <v>100.3524604518122</v>
+        <v>100.3298380519629</v>
       </c>
       <c r="X11">
-        <v>57.54270036776209</v>
+        <v>57.50786438309058</v>
       </c>
       <c r="Y11" t="s">
         <v>105</v>
       </c>
       <c r="Z11">
-        <v>0.09186376021798365</v>
+        <v>0.09198365122615804</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1782,22 +1788,22 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12">
         <v>37.2504015</v>
@@ -1806,7 +1812,7 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L12">
         <v>201.4368865399079</v>
@@ -1818,7 +1824,7 @@
         <v>197.0657658629451</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>0.5228820512820512</v>
@@ -1845,10 +1851,10 @@
         <v>73.46019337585025</v>
       </c>
       <c r="X12">
-        <v>35.59031063568742</v>
+        <v>35.59031063568744</v>
       </c>
       <c r="Y12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Z12">
         <v>0.04985641025641026</v>
@@ -1880,22 +1886,22 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>36660</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <v>37.2504015</v>
@@ -1904,7 +1910,7 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13">
         <v>209.4411456859088</v>
@@ -1916,7 +1922,7 @@
         <v>208.4494137937803</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P13">
         <v>0.8300765027322404</v>
@@ -1931,7 +1937,7 @@
         <v>19.91608179370846</v>
       </c>
       <c r="T13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U13">
         <v>0.1440382513661202</v>
@@ -1946,7 +1952,7 @@
         <v>157.4387151310225</v>
       </c>
       <c r="Y13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Z13">
         <v>0.02588524590163934</v>
@@ -1978,31 +1984,31 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>37380</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L14">
         <v>209.0764199124769</v>
@@ -2014,37 +2020,37 @@
         <v>200.4619414325455</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P14">
         <v>0.9164712041884817</v>
       </c>
       <c r="Q14">
-        <v>33.55626383948211</v>
+        <v>33.55234196750783</v>
       </c>
       <c r="R14">
-        <v>65.45091592297919</v>
+        <v>65.4481277680955</v>
       </c>
       <c r="S14">
-        <v>12.01214520565472</v>
+        <v>12.00946181719718</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U14">
         <v>0.07802617801047121</v>
       </c>
       <c r="V14">
-        <v>126.8972407231211</v>
+        <v>126.8640684410649</v>
       </c>
       <c r="W14">
-        <v>139.4509990485251</v>
+        <v>139.4201520912546</v>
       </c>
       <c r="X14">
-        <v>119.3577545195052</v>
+        <v>119.2937262357414</v>
       </c>
       <c r="Y14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z14">
         <v>0.005502617801047121</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>Image_Label</t>
   </si>
@@ -151,6 +151,9 @@
     <t>p13</t>
   </si>
   <si>
+    <t>p14</t>
+  </si>
+  <si>
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921715/medium.jpg</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204639334/medium.jpeg</t>
   </si>
   <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/205799198/medium.jpeg</t>
+  </si>
+  <si>
     <t>Carolina sweetshrub</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
     <t>Sassafras</t>
   </si>
   <si>
+    <t>Striped Maple</t>
+  </si>
+  <si>
     <t>llhouse2</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>10:23:00</t>
   </si>
   <si>
+    <t>10:32:00</t>
+  </si>
+  <si>
     <t>Highview Dr, Blacksburg, VA, US</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>Giles County, VA, USA</t>
   </si>
   <si>
+    <t>Blacksburg, VA, USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">             40.343137</t>
   </si>
   <si>
@@ -277,67 +292,70 @@
     <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
   </si>
   <si>
-    <t>['#393117', '#b7c6db', '#5c6c44']</t>
+    <t>['#5c6c44', '#b7c6db', '#393117']</t>
   </si>
   <si>
     <t>['#9aa8bd', '#233827', '#adbcd2']</t>
   </si>
   <si>
-    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
-  </si>
-  <si>
-    <t>['#7b859c', '#354723', '#9aa6c5']</t>
-  </si>
-  <si>
-    <t>['#828fa9', '#384935', '#8e9bbc']</t>
-  </si>
-  <si>
-    <t>['#dedad6', '#365b10', '#547528']</t>
-  </si>
-  <si>
-    <t>['#dbdad9', '#244a0f', '#859578']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
-  </si>
-  <si>
-    <t>['#54643a', '#d7d2cd', '#3b4c1b']</t>
+    <t>['#97a4ba', '#acbad2', '#3f3e2a']</t>
+  </si>
+  <si>
+    <t>['#7b859c', '#9aa6c5', '#354723']</t>
+  </si>
+  <si>
+    <t>['#8e9bbc', '#384935', '#828fa9']</t>
+  </si>
+  <si>
+    <t>['#355a0f', '#dedad5', '#537426']</t>
+  </si>
+  <si>
+    <t>['#dbdad9', '#254a0f', '#87987d']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#4d6a28', '#1b4009']</t>
+  </si>
+  <si>
+    <t>['#546439', '#d7d2cd', '#3b4c1b']</t>
   </si>
   <si>
     <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
   </si>
   <si>
-    <t>['#a0a49d', '#d1d0d0', '#294414']</t>
+    <t>['#d1d0d0', '#294414', '#a0a49d']</t>
   </si>
   <si>
     <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
   </si>
   <si>
+    <t>['#d6d2d0', '#27470d', '#4e6b25']</t>
+  </si>
+  <si>
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>darkgray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>gainsboro</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
     <t>darkslategray</t>
-  </si>
-  <si>
-    <t>darkgray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
-    <t>gainsboro</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>darkolivegreen</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>darkgreen</t>
   </si>
   <si>
     <t>gray</t>
@@ -711,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,22 +838,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>43641</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>37.2463215678</v>
@@ -844,49 +862,49 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L2">
-        <v>188.3449388529327</v>
+        <v>188.3411619282971</v>
       </c>
       <c r="M2">
-        <v>202.8493173887958</v>
+        <v>202.8461486360588</v>
       </c>
       <c r="N2">
-        <v>220.9205257630685</v>
+        <v>220.9146163875584</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P2">
         <v>0.6489010989010989</v>
       </c>
       <c r="Q2">
-        <v>42.30201561223798</v>
+        <v>42.29772557790812</v>
       </c>
       <c r="R2">
-        <v>75.41505301175626</v>
+        <v>75.4116797166182</v>
       </c>
       <c r="S2">
-        <v>19.39219387159625</v>
+        <v>19.38616237881138</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="U2">
         <v>0.2357857142857143</v>
       </c>
       <c r="V2">
-        <v>163.302203817412</v>
+        <v>163.2695718508634</v>
       </c>
       <c r="W2">
-        <v>178.0159455471465</v>
+        <v>177.9810241251073</v>
       </c>
       <c r="X2">
-        <v>189.2772145271066</v>
+        <v>189.2412033946783</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Z2">
         <v>0.1153131868131868</v>
@@ -915,25 +933,25 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>37.3504969752</v>
@@ -942,52 +960,52 @@
         <v>-80.4847910049</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L3">
-        <v>183.2364997904586</v>
+        <v>183.2323597318077</v>
       </c>
       <c r="M3">
-        <v>198.2781410869785</v>
+        <v>198.2738788032164</v>
       </c>
       <c r="N3">
-        <v>218.8874672824065</v>
+        <v>218.8811673730186</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>0.6690899470899471</v>
+        <v>0.6690952380952381</v>
       </c>
       <c r="Q3">
-        <v>57.40042536141196</v>
+        <v>57.38457028237269</v>
       </c>
       <c r="R3">
-        <v>48.61307523965405</v>
+        <v>48.57086869310589</v>
       </c>
       <c r="S3">
-        <v>22.78796658755505</v>
+        <v>22.76883197037648</v>
       </c>
       <c r="T3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="U3">
-        <v>0.1722698412698413</v>
+        <v>0.1721058201058201</v>
       </c>
       <c r="V3">
-        <v>92.18912812334153</v>
+        <v>92.14643295820761</v>
       </c>
       <c r="W3">
-        <v>107.7850544922935</v>
+        <v>107.7406632805519</v>
       </c>
       <c r="X3">
-        <v>67.624003189801</v>
+        <v>67.55924044750695</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z3">
-        <v>0.1586402116402116</v>
+        <v>0.1587989417989418</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1013,22 +1031,22 @@
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>43821</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>37.2461629761</v>
@@ -1037,49 +1055,49 @@
         <v>-80.4092512154</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L4">
-        <v>172.7732299764028</v>
+        <v>172.7767881710603</v>
       </c>
       <c r="M4">
-        <v>187.6358839623083</v>
+        <v>187.6401065878875</v>
       </c>
       <c r="N4">
-        <v>210.2517768995839</v>
+        <v>210.2568825940269</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4">
         <v>0.6960251889168766</v>
       </c>
       <c r="Q4">
-        <v>153.8308242811499</v>
+        <v>153.85164105967</v>
       </c>
       <c r="R4">
-        <v>167.9830031948883</v>
+        <v>168.0023224950234</v>
       </c>
       <c r="S4">
-        <v>188.8616996805116</v>
+        <v>188.8824715430559</v>
       </c>
       <c r="T4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="U4">
         <v>0.1970982367758186</v>
       </c>
       <c r="V4">
-        <v>35.32824211570215</v>
+        <v>35.33696266970165</v>
       </c>
       <c r="W4">
-        <v>56.05699335311498</v>
+        <v>56.06523378580447</v>
       </c>
       <c r="X4">
-        <v>39.02866166969977</v>
+        <v>39.03874434386037</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Z4">
         <v>0.1068765743073048</v>
@@ -1108,22 +1126,22 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>43837</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>37.2463788487</v>
@@ -1132,49 +1150,49 @@
         <v>-80.4095616039</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L5">
-        <v>171.6524343774405</v>
+        <v>171.6508420301304</v>
       </c>
       <c r="M5">
-        <v>186.0459767897252</v>
+        <v>186.0440594918855</v>
       </c>
       <c r="N5">
-        <v>209.8695459237344</v>
+        <v>209.8676093288859</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P5">
         <v>0.5529653333333333</v>
       </c>
       <c r="Q5">
-        <v>151.0872798556223</v>
+        <v>151.08373793962</v>
       </c>
       <c r="R5">
-        <v>163.9499035409798</v>
+        <v>163.9463741051979</v>
       </c>
       <c r="S5">
-        <v>185.6025110461135</v>
+        <v>185.5980703392467</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="U5">
         <v>0.3426986666666667</v>
       </c>
       <c r="V5">
-        <v>62.50738639268459</v>
+        <v>62.50506083223027</v>
       </c>
       <c r="W5">
-        <v>61.79379440779776</v>
+        <v>61.79112565176095</v>
       </c>
       <c r="X5">
-        <v>41.63170270407647</v>
+        <v>41.62810551067622</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="Z5">
         <v>0.104336</v>
@@ -1203,43 +1221,43 @@
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L6">
-        <v>122.6754901591871</v>
+        <v>122.6745064687805</v>
       </c>
       <c r="M6">
-        <v>133.2997478643705</v>
+        <v>133.2987529069956</v>
       </c>
       <c r="N6">
-        <v>155.9358070221659</v>
+        <v>155.9339800856488</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P6">
         <v>0.5690364025695932</v>
@@ -1254,22 +1272,22 @@
         <v>197.2461172689396</v>
       </c>
       <c r="T6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="U6">
         <v>0.3890835117773019</v>
       </c>
       <c r="V6">
-        <v>52.67620605070157</v>
+        <v>52.6609406953031</v>
       </c>
       <c r="W6">
-        <v>70.54824202779545</v>
+        <v>70.53609406952461</v>
       </c>
       <c r="X6">
-        <v>35.40852412102041</v>
+        <v>35.3840490797611</v>
       </c>
       <c r="Y6" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="Z6">
         <v>0.04188008565310492</v>
@@ -1298,31 +1316,31 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7">
         <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L7">
         <v>130.2153140167135</v>
@@ -1334,7 +1352,7 @@
         <v>169.1631390723637</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P7">
         <v>0.5621128205128205</v>
@@ -1349,7 +1367,7 @@
         <v>188.0124643926126</v>
       </c>
       <c r="T7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="U7">
         <v>0.354651282051282</v>
@@ -1361,10 +1379,10 @@
         <v>73.41741112685592</v>
       </c>
       <c r="X7">
-        <v>52.70864395292821</v>
+        <v>52.70864395292823</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Z7">
         <v>0.08323589743589743</v>
@@ -1393,25 +1411,25 @@
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>37.2504015</v>
@@ -1420,52 +1438,52 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L8">
-        <v>221.883494780408</v>
+        <v>221.8705500705292</v>
       </c>
       <c r="M8">
-        <v>218.1215649393264</v>
+        <v>218.1109073812748</v>
       </c>
       <c r="N8">
-        <v>213.5111821687147</v>
+        <v>213.4954207804366</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P8">
-        <v>0.5656010638297873</v>
+        <v>0.5656914893617021</v>
       </c>
       <c r="Q8">
-        <v>53.74892947104929</v>
+        <v>53.21868375568248</v>
       </c>
       <c r="R8">
-        <v>90.61045340048679</v>
+        <v>90.09120112185622</v>
       </c>
       <c r="S8">
-        <v>15.63301322416959</v>
+        <v>15.28041939795983</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U8">
-        <v>0.3358510638297872</v>
+        <v>0.32725</v>
       </c>
       <c r="V8">
-        <v>84.45625344352797</v>
+        <v>82.6738338909678</v>
       </c>
       <c r="W8">
-        <v>117.2977961432537</v>
+        <v>115.9402184609364</v>
       </c>
       <c r="X8">
-        <v>39.82573002754887</v>
+        <v>38.18957882306889</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z8">
-        <v>0.09854787234042553</v>
+        <v>0.1070585106382979</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1491,25 +1509,25 @@
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G9">
         <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>37.2496022353</v>
@@ -1518,52 +1536,52 @@
         <v>-80.66670543399999</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L9">
-        <v>219.1904850983604</v>
+        <v>219.231094734163</v>
       </c>
       <c r="M9">
-        <v>217.7451419079183</v>
+        <v>217.7756083312731</v>
       </c>
       <c r="N9">
-        <v>217.2594449391349</v>
+        <v>217.3014731765101</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P9">
-        <v>0.7033315789473684</v>
+        <v>0.7028</v>
       </c>
       <c r="Q9">
-        <v>36.43909321616746</v>
+        <v>36.57267007991675</v>
       </c>
       <c r="R9">
-        <v>73.84828226202707</v>
+        <v>73.96176153859845</v>
       </c>
       <c r="S9">
-        <v>14.8097799325613</v>
+        <v>14.91364228900076</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="U9">
-        <v>0.2779894736842105</v>
+        <v>0.2784947368421052</v>
       </c>
       <c r="V9">
-        <v>132.5333333333334</v>
+        <v>135.4859075535513</v>
       </c>
       <c r="W9">
-        <v>149.3052039381153</v>
+        <v>151.5625704622322</v>
       </c>
       <c r="X9">
-        <v>120.4810126582273</v>
+        <v>124.5197294250277</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z9">
-        <v>0.01867894736842105</v>
+        <v>0.01870526315789474</v>
       </c>
       <c r="AA9">
         <v>453</v>
@@ -1589,25 +1607,25 @@
         <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>37.2485728184</v>
@@ -1616,7 +1634,7 @@
         <v>-80.66748366829999</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L10">
         <v>211.2274908387691</v>
@@ -1628,7 +1646,7 @@
         <v>206.2215942323034</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P10">
         <v>0.9008279569892473</v>
@@ -1643,22 +1661,22 @@
         <v>8.518558077451559</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U10">
         <v>0.0806505376344086</v>
       </c>
       <c r="V10">
-        <v>76.9474899019044</v>
+        <v>76.94748990190439</v>
       </c>
       <c r="W10">
-        <v>105.7270628967121</v>
+        <v>105.727062896712</v>
       </c>
       <c r="X10">
         <v>40.03923831505807</v>
       </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Z10">
         <v>0.01852150537634408</v>
@@ -1687,25 +1705,25 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11">
         <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>37.2504015</v>
@@ -1714,52 +1732,52 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>214.5962834987609</v>
+        <v>214.5946931349648</v>
       </c>
       <c r="M11">
-        <v>210.341278400136</v>
+        <v>210.3399724166332</v>
       </c>
       <c r="N11">
-        <v>204.9647423905637</v>
+        <v>204.9633199818077</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P11">
         <v>0.7428283378746594</v>
       </c>
       <c r="Q11">
-        <v>59.31858908170905</v>
+        <v>59.26934518835945</v>
       </c>
       <c r="R11">
-        <v>76.38074143157648</v>
+        <v>76.3355282949567</v>
       </c>
       <c r="S11">
-        <v>27.16807114546862</v>
+        <v>27.12290670857382</v>
       </c>
       <c r="T11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="U11">
-        <v>0.1651880108991826</v>
+        <v>0.1650681198910082</v>
       </c>
       <c r="V11">
-        <v>84.42287079110166</v>
+        <v>84.34402686895898</v>
       </c>
       <c r="W11">
-        <v>100.3298380519629</v>
+        <v>100.2523597197287</v>
       </c>
       <c r="X11">
-        <v>57.50786438309058</v>
+        <v>57.38548844751489</v>
       </c>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z11">
-        <v>0.09198365122615804</v>
+        <v>0.09210354223433243</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1785,25 +1803,25 @@
         <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12">
         <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>37.2504015</v>
@@ -1812,40 +1830,40 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L12">
-        <v>201.4368865399079</v>
+        <v>201.4001542546904</v>
       </c>
       <c r="M12">
-        <v>199.816989106027</v>
+        <v>199.7830964189475</v>
       </c>
       <c r="N12">
-        <v>197.0657658629451</v>
+        <v>197.0220447533949</v>
       </c>
       <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12">
+        <v>0.5229897435897436</v>
+      </c>
+      <c r="Q12">
+        <v>183.3318768859392</v>
+      </c>
+      <c r="R12">
+        <v>182.3613035606515</v>
+      </c>
+      <c r="S12">
+        <v>180.6105129752562</v>
+      </c>
+      <c r="T12" t="s">
         <v>106</v>
       </c>
-      <c r="P12">
-        <v>0.5228820512820512</v>
-      </c>
-      <c r="Q12">
-        <v>183.383432378895</v>
-      </c>
-      <c r="R12">
-        <v>182.4128819256855</v>
-      </c>
-      <c r="S12">
-        <v>180.6446605438499</v>
-      </c>
-      <c r="T12" t="s">
-        <v>105</v>
-      </c>
       <c r="U12">
-        <v>0.4272615384615385</v>
+        <v>0.4271538461538462</v>
       </c>
       <c r="V12">
-        <v>60.54896111909841</v>
+        <v>60.54896111909838</v>
       </c>
       <c r="W12">
         <v>73.46019337585025</v>
@@ -1854,7 +1872,7 @@
         <v>35.59031063568744</v>
       </c>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Z12">
         <v>0.04985641025641026</v>
@@ -1883,25 +1901,25 @@
         <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13">
         <v>36660</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>37.2504015</v>
@@ -1910,22 +1928,22 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L13">
-        <v>209.4411456859088</v>
+        <v>209.4418514324884</v>
       </c>
       <c r="M13">
-        <v>208.0204859488259</v>
+        <v>208.0211778491691</v>
       </c>
       <c r="N13">
-        <v>208.4494137937803</v>
+        <v>208.4503897198189</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P13">
-        <v>0.8300765027322404</v>
+        <v>0.8296557377049181</v>
       </c>
       <c r="Q13">
         <v>41.01335407260117</v>
@@ -1934,28 +1952,28 @@
         <v>67.53761523578665</v>
       </c>
       <c r="S13">
-        <v>19.91608179370846</v>
+        <v>19.91608179370849</v>
       </c>
       <c r="T13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="U13">
         <v>0.1440382513661202</v>
       </c>
       <c r="V13">
-        <v>159.8989856297552</v>
+        <v>159.928646822884</v>
       </c>
       <c r="W13">
-        <v>164.1223584108203</v>
+        <v>164.1465062275705</v>
       </c>
       <c r="X13">
-        <v>157.4387151310225</v>
+        <v>157.461262402364</v>
       </c>
       <c r="Y13" t="s">
         <v>107</v>
       </c>
       <c r="Z13">
-        <v>0.02588524590163934</v>
+        <v>0.02630601092896175</v>
       </c>
       <c r="AA13">
         <v>181</v>
@@ -1981,34 +1999,34 @@
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14">
         <v>37380</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L14">
         <v>209.0764199124769</v>
@@ -2020,37 +2038,37 @@
         <v>200.4619414325455</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>0.9164712041884817</v>
       </c>
       <c r="Q14">
-        <v>33.55234196750783</v>
+        <v>33.55626383948209</v>
       </c>
       <c r="R14">
-        <v>65.4481277680955</v>
+        <v>65.45091592297919</v>
       </c>
       <c r="S14">
-        <v>12.00946181719718</v>
+        <v>12.01214520565472</v>
       </c>
       <c r="T14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="U14">
         <v>0.07802617801047121</v>
       </c>
       <c r="V14">
-        <v>126.8640684410649</v>
+        <v>126.8972407231211</v>
       </c>
       <c r="W14">
-        <v>139.4201520912546</v>
+        <v>139.4509990485251</v>
       </c>
       <c r="X14">
-        <v>119.2937262357414</v>
+        <v>119.3577545195052</v>
       </c>
       <c r="Y14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Z14">
         <v>0.005502617801047121</v>
@@ -2072,6 +2090,104 @@
       </c>
       <c r="AF14">
         <v>0.7597871052366058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>37920</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>37.2295733</v>
+      </c>
+      <c r="J15">
+        <v>-80.4139393</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15">
+        <v>214.1140382334292</v>
+      </c>
+      <c r="M15">
+        <v>210.4988207221882</v>
+      </c>
+      <c r="N15">
+        <v>208.0128203359766</v>
+      </c>
+      <c r="O15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15">
+        <v>0.7513160621761658</v>
+      </c>
+      <c r="Q15">
+        <v>39.31901555607033</v>
+      </c>
+      <c r="R15">
+        <v>70.88771186439894</v>
+      </c>
+      <c r="S15">
+        <v>12.71705943810136</v>
+      </c>
+      <c r="T15" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15">
+        <v>0.1782227979274612</v>
+      </c>
+      <c r="V15">
+        <v>78.42584933530279</v>
+      </c>
+      <c r="W15">
+        <v>107.3371491875899</v>
+      </c>
+      <c r="X15">
+        <v>37.0153618906978</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15">
+        <v>0.07046113989637305</v>
+      </c>
+      <c r="AA15">
+        <v>290</v>
+      </c>
+      <c r="AB15">
+        <v>455</v>
+      </c>
+      <c r="AC15">
+        <v>47232.5</v>
+      </c>
+      <c r="AD15">
+        <v>0.6373626373626373</v>
+      </c>
+      <c r="AE15">
+        <v>0.4894458145945162</v>
+      </c>
+      <c r="AF15">
+        <v>0.7729284796714041</v>
       </c>
     </row>
   </sheetData>
@@ -2089,6 +2205,7 @@
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
     <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -289,34 +289,34 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#bccbdd', '#2a4b13', '#a3b2bd']</t>
-  </si>
-  <si>
-    <t>['#5c6c44', '#b7c6db', '#393117']</t>
-  </si>
-  <si>
-    <t>['#9aa8bd', '#233827', '#adbcd2']</t>
-  </si>
-  <si>
-    <t>['#97a4ba', '#acbad2', '#3f3e2a']</t>
+    <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
+  </si>
+  <si>
+    <t>['#b7c6db', '#5c6c44', '#393117']</t>
+  </si>
+  <si>
+    <t>['#adbcd2', '#233827', '#9aa8bd']</t>
+  </si>
+  <si>
+    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
   </si>
   <si>
     <t>['#7b859c', '#9aa6c5', '#354723']</t>
   </si>
   <si>
-    <t>['#8e9bbc', '#384935', '#828fa9']</t>
-  </si>
-  <si>
-    <t>['#355a0f', '#dedad5', '#537426']</t>
-  </si>
-  <si>
-    <t>['#dbdad9', '#254a0f', '#87987d']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#4d6a28', '#1b4009']</t>
-  </si>
-  <si>
-    <t>['#546439', '#d7d2cd', '#3b4c1b']</t>
+    <t>['#828fa9', '#384935', '#8e9bbc']</t>
+  </si>
+  <si>
+    <t>['#547528', '#dedad6', '#365b10']</t>
+  </si>
+  <si>
+    <t>['#244a0f', '#dbdad9', '#849578']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
+  </si>
+  <si>
+    <t>['#d7d2cd', '#54643a', '#3b4c1b']</t>
   </si>
   <si>
     <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
@@ -325,37 +325,37 @@
     <t>['#d1d0d0', '#294414', '#a0a49d']</t>
   </si>
   <si>
-    <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
-  </si>
-  <si>
-    <t>['#d6d2d0', '#27470d', '#4e6b25']</t>
+    <t>['#d1cdc8', '#22410c', '#7f8c78']</t>
+  </si>
+  <si>
+    <t>['#27470d', '#d6d2d0', '#4e6b25']</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
   </si>
   <si>
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
     <t>darkolivegreen</t>
   </si>
   <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
     <t>darkgray</t>
   </si>
   <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
     <t>gainsboro</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>darkgreen</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
   </si>
   <si>
     <t>gray</t>
@@ -865,13 +865,13 @@
         <v>91</v>
       </c>
       <c r="L2">
-        <v>188.3411619282971</v>
+        <v>188.3416957360965</v>
       </c>
       <c r="M2">
-        <v>202.8461486360588</v>
+        <v>202.8464710265135</v>
       </c>
       <c r="N2">
-        <v>220.9146163875584</v>
+        <v>220.915763538457</v>
       </c>
       <c r="O2" t="s">
         <v>105</v>
@@ -880,31 +880,31 @@
         <v>0.6489010989010989</v>
       </c>
       <c r="Q2">
-        <v>42.29772557790812</v>
+        <v>42.29902360588153</v>
       </c>
       <c r="R2">
-        <v>75.4116797166182</v>
+        <v>75.41250902988652</v>
       </c>
       <c r="S2">
-        <v>19.38616237881138</v>
+        <v>19.38843707034121</v>
       </c>
       <c r="T2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="U2">
         <v>0.2357857142857143</v>
       </c>
       <c r="V2">
-        <v>163.2695718508634</v>
+        <v>163.2768482768487</v>
       </c>
       <c r="W2">
-        <v>177.9810241251073</v>
+        <v>177.9895133228466</v>
       </c>
       <c r="X2">
-        <v>189.2412033946783</v>
+        <v>189.2472472472464</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Z2">
         <v>0.1153131868131868</v>
@@ -975,37 +975,37 @@
         <v>106</v>
       </c>
       <c r="P3">
-        <v>0.6690952380952381</v>
+        <v>0.6691058201058201</v>
       </c>
       <c r="Q3">
-        <v>57.38457028237269</v>
+        <v>57.35710091176901</v>
       </c>
       <c r="R3">
-        <v>48.57086869310589</v>
+        <v>48.51392365940644</v>
       </c>
       <c r="S3">
-        <v>22.76883197037648</v>
+        <v>22.7506722299506</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="U3">
-        <v>0.1721058201058201</v>
+        <v>0.171973544973545</v>
       </c>
       <c r="V3">
-        <v>92.14643295820761</v>
+        <v>92.11828455904576</v>
       </c>
       <c r="W3">
-        <v>107.7406632805519</v>
+        <v>107.7036754714501</v>
       </c>
       <c r="X3">
-        <v>67.55924044750695</v>
+        <v>67.50449076990198</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z3">
-        <v>0.1587989417989418</v>
+        <v>0.1589206349206349</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1058,46 +1058,46 @@
         <v>93</v>
       </c>
       <c r="L4">
-        <v>172.7767881710603</v>
+        <v>172.7732299764028</v>
       </c>
       <c r="M4">
-        <v>187.6401065878875</v>
+        <v>187.6358839623083</v>
       </c>
       <c r="N4">
-        <v>210.2568825940269</v>
+        <v>210.2517768995839</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4">
         <v>0.6960251889168766</v>
       </c>
       <c r="Q4">
-        <v>153.85164105967</v>
+        <v>153.8308242811499</v>
       </c>
       <c r="R4">
-        <v>168.0023224950234</v>
+        <v>167.9830031948883</v>
       </c>
       <c r="S4">
-        <v>188.8824715430559</v>
+        <v>188.8616996805116</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U4">
         <v>0.1970982367758186</v>
       </c>
       <c r="V4">
-        <v>35.33696266970165</v>
+        <v>35.32824211570215</v>
       </c>
       <c r="W4">
-        <v>56.06523378580447</v>
+        <v>56.05699335311498</v>
       </c>
       <c r="X4">
-        <v>39.03874434386037</v>
+        <v>39.02866166969977</v>
       </c>
       <c r="Y4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Z4">
         <v>0.1068765743073048</v>
@@ -1153,46 +1153,46 @@
         <v>94</v>
       </c>
       <c r="L5">
-        <v>171.6508420301304</v>
+        <v>171.6506978134842</v>
       </c>
       <c r="M5">
-        <v>186.0440594918855</v>
+        <v>186.0438363827481</v>
       </c>
       <c r="N5">
-        <v>209.8676093288859</v>
+        <v>209.8670441064442</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P5">
         <v>0.5529653333333333</v>
       </c>
       <c r="Q5">
-        <v>151.08373793962</v>
+        <v>151.0836809013941</v>
       </c>
       <c r="R5">
-        <v>163.9463741051979</v>
+        <v>163.9464797061756</v>
       </c>
       <c r="S5">
-        <v>185.5980703392467</v>
+        <v>185.5989946464142</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="U5">
         <v>0.3426986666666667</v>
       </c>
       <c r="V5">
-        <v>62.50506083223027</v>
+        <v>62.50738639268461</v>
       </c>
       <c r="W5">
-        <v>61.79112565176095</v>
+        <v>61.79379440779776</v>
       </c>
       <c r="X5">
-        <v>41.62810551067622</v>
+        <v>41.63170270407647</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z5">
         <v>0.104336</v>
@@ -1257,7 +1257,7 @@
         <v>155.9339800856488</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <v>0.5690364025695932</v>
@@ -1269,16 +1269,16 @@
         <v>166.3450154648808</v>
       </c>
       <c r="S6">
-        <v>197.2461172689396</v>
+        <v>197.2461172689395</v>
       </c>
       <c r="T6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="U6">
         <v>0.3890835117773019</v>
       </c>
       <c r="V6">
-        <v>52.6609406953031</v>
+        <v>52.66094069530308</v>
       </c>
       <c r="W6">
         <v>70.53609406952461</v>
@@ -1287,7 +1287,7 @@
         <v>35.3840490797611</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z6">
         <v>0.04188008565310492</v>
@@ -1367,7 +1367,7 @@
         <v>188.0124643926126</v>
       </c>
       <c r="T7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U7">
         <v>0.354651282051282</v>
@@ -1379,10 +1379,10 @@
         <v>73.41741112685592</v>
       </c>
       <c r="X7">
-        <v>52.70864395292823</v>
+        <v>52.70864395292821</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Z7">
         <v>0.08323589743589743</v>
@@ -1441,49 +1441,49 @@
         <v>97</v>
       </c>
       <c r="L8">
-        <v>221.8705500705292</v>
+        <v>221.8846870062522</v>
       </c>
       <c r="M8">
-        <v>218.1109073812748</v>
+        <v>218.1225171168326</v>
       </c>
       <c r="N8">
-        <v>213.4954207804366</v>
+        <v>213.5128846587863</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P8">
-        <v>0.5656914893617021</v>
+        <v>0.5656010638297873</v>
       </c>
       <c r="Q8">
-        <v>53.21868375568248</v>
+        <v>53.75551149508335</v>
       </c>
       <c r="R8">
-        <v>90.09120112185622</v>
+        <v>90.61639050180048</v>
       </c>
       <c r="S8">
-        <v>15.28041939795983</v>
+        <v>15.63958520195835</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="U8">
-        <v>0.32725</v>
+        <v>0.3361010638297872</v>
       </c>
       <c r="V8">
-        <v>82.6738338909678</v>
+        <v>84.49048170832825</v>
       </c>
       <c r="W8">
-        <v>115.9402184609364</v>
+        <v>117.3252220934754</v>
       </c>
       <c r="X8">
-        <v>38.18957882306889</v>
+        <v>39.85057661535133</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z8">
-        <v>0.1070585106382979</v>
+        <v>0.09829787234042553</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1539,49 +1539,49 @@
         <v>98</v>
       </c>
       <c r="L9">
-        <v>219.231094734163</v>
+        <v>219.1860148440787</v>
       </c>
       <c r="M9">
-        <v>217.7756083312731</v>
+        <v>217.7420916382349</v>
       </c>
       <c r="N9">
-        <v>217.3014731765101</v>
+        <v>217.2547061112169</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P9">
-        <v>0.7028</v>
+        <v>0.7033578947368421</v>
       </c>
       <c r="Q9">
-        <v>36.57267007991675</v>
+        <v>36.43105277114961</v>
       </c>
       <c r="R9">
-        <v>73.96176153859845</v>
+        <v>73.84079630260167</v>
       </c>
       <c r="S9">
-        <v>14.91364228900076</v>
+        <v>14.80382240404404</v>
       </c>
       <c r="T9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U9">
-        <v>0.2784947368421052</v>
+        <v>0.2779105263157895</v>
       </c>
       <c r="V9">
-        <v>135.4859075535513</v>
+        <v>132.2873239436621</v>
       </c>
       <c r="W9">
-        <v>151.5625704622322</v>
+        <v>149.1107042253521</v>
       </c>
       <c r="X9">
-        <v>124.5197294250277</v>
+        <v>120.155492957746</v>
       </c>
       <c r="Y9" t="s">
         <v>114</v>
       </c>
       <c r="Z9">
-        <v>0.01870526315789474</v>
+        <v>0.01873157894736842</v>
       </c>
       <c r="AA9">
         <v>453</v>
@@ -1646,7 +1646,7 @@
         <v>206.2215942323034</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10">
         <v>0.9008279569892473</v>
@@ -1655,13 +1655,13 @@
         <v>26.55634178904509</v>
       </c>
       <c r="R10">
-        <v>64.45220293724375</v>
+        <v>64.45220293724373</v>
       </c>
       <c r="S10">
         <v>8.518558077451559</v>
       </c>
       <c r="T10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U10">
         <v>0.0806505376344086</v>
@@ -1676,7 +1676,7 @@
         <v>40.03923831505807</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Z10">
         <v>0.01852150537634408</v>
@@ -1735,49 +1735,49 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>214.5946931349648</v>
+        <v>214.5962834987609</v>
       </c>
       <c r="M11">
-        <v>210.3399724166332</v>
+        <v>210.341278400136</v>
       </c>
       <c r="N11">
-        <v>204.9633199818077</v>
+        <v>204.9647423905637</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P11">
         <v>0.7428283378746594</v>
       </c>
       <c r="Q11">
-        <v>59.26934518835945</v>
+        <v>59.33412069998509</v>
       </c>
       <c r="R11">
-        <v>76.3355282949567</v>
+        <v>76.39573491250985</v>
       </c>
       <c r="S11">
-        <v>27.12290670857382</v>
+        <v>27.18354514606446</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U11">
-        <v>0.1650681198910082</v>
+        <v>0.1653079019073569</v>
       </c>
       <c r="V11">
-        <v>84.34402686895898</v>
+        <v>84.44690911213885</v>
       </c>
       <c r="W11">
-        <v>100.2523597197287</v>
+        <v>100.3524604518122</v>
       </c>
       <c r="X11">
-        <v>57.38548844751489</v>
+        <v>57.54270036776209</v>
       </c>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z11">
-        <v>0.09210354223433243</v>
+        <v>0.09186376021798365</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1833,31 +1833,31 @@
         <v>101</v>
       </c>
       <c r="L12">
-        <v>201.4001542546904</v>
+        <v>201.3772533818934</v>
       </c>
       <c r="M12">
-        <v>199.7830964189475</v>
+        <v>199.7616357775198</v>
       </c>
       <c r="N12">
-        <v>197.0220447533949</v>
+        <v>197.0023373815555</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>0.5229897435897436</v>
       </c>
       <c r="Q12">
-        <v>183.3318768859392</v>
+        <v>183.305439533167</v>
       </c>
       <c r="R12">
-        <v>182.3613035606515</v>
+        <v>182.3350403757912</v>
       </c>
       <c r="S12">
-        <v>180.6105129752562</v>
+        <v>180.585140255935</v>
       </c>
       <c r="T12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U12">
         <v>0.4271538461538462</v>
@@ -1872,7 +1872,7 @@
         <v>35.59031063568744</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z12">
         <v>0.04985641025641026</v>
@@ -1931,19 +1931,19 @@
         <v>102</v>
       </c>
       <c r="L13">
-        <v>209.4418514324884</v>
+        <v>209.4411456859088</v>
       </c>
       <c r="M13">
-        <v>208.0211778491691</v>
+        <v>208.0204859488259</v>
       </c>
       <c r="N13">
-        <v>208.4503897198189</v>
+        <v>208.4494137937803</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13">
-        <v>0.8296557377049181</v>
+        <v>0.8300765027322404</v>
       </c>
       <c r="Q13">
         <v>41.01335407260117</v>
@@ -1952,28 +1952,28 @@
         <v>67.53761523578665</v>
       </c>
       <c r="S13">
-        <v>19.91608179370849</v>
+        <v>19.91608179370846</v>
       </c>
       <c r="T13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="U13">
         <v>0.1440382513661202</v>
       </c>
       <c r="V13">
-        <v>159.928646822884</v>
+        <v>159.8989856297552</v>
       </c>
       <c r="W13">
-        <v>164.1465062275705</v>
+        <v>164.1223584108203</v>
       </c>
       <c r="X13">
-        <v>157.461262402364</v>
+        <v>157.4387151310225</v>
       </c>
       <c r="Y13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Z13">
-        <v>0.02630601092896175</v>
+        <v>0.02588524590163934</v>
       </c>
       <c r="AA13">
         <v>181</v>
@@ -2029,43 +2029,43 @@
         <v>103</v>
       </c>
       <c r="L14">
-        <v>209.0764199124769</v>
+        <v>209.0773185863931</v>
       </c>
       <c r="M14">
-        <v>205.4390274556428</v>
+        <v>205.439694473329</v>
       </c>
       <c r="N14">
-        <v>200.4619414325455</v>
+        <v>200.4629688874748</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P14">
-        <v>0.9164712041884817</v>
+        <v>0.9164659685863874</v>
       </c>
       <c r="Q14">
-        <v>33.55626383948209</v>
+        <v>33.56708707901527</v>
       </c>
       <c r="R14">
-        <v>65.45091592297919</v>
+        <v>65.45679592111628</v>
       </c>
       <c r="S14">
-        <v>12.01214520565472</v>
+        <v>12.02287669394016</v>
       </c>
       <c r="T14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="U14">
-        <v>0.07802617801047121</v>
+        <v>0.07803141361256545</v>
       </c>
       <c r="V14">
-        <v>126.8972407231211</v>
+        <v>127.1730038022816</v>
       </c>
       <c r="W14">
-        <v>139.4509990485251</v>
+        <v>139.7186311787071</v>
       </c>
       <c r="X14">
-        <v>119.3577545195052</v>
+        <v>119.6492395437262</v>
       </c>
       <c r="Y14" t="s">
         <v>114</v>
@@ -2127,49 +2127,49 @@
         <v>104</v>
       </c>
       <c r="L15">
-        <v>214.1140382334292</v>
+        <v>214.1110750982702</v>
       </c>
       <c r="M15">
-        <v>210.4988207221882</v>
+        <v>210.4964347286406</v>
       </c>
       <c r="N15">
-        <v>208.0128203359766</v>
+        <v>208.0095441693535</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P15">
-        <v>0.7513160621761658</v>
+        <v>0.7513264248704663</v>
       </c>
       <c r="Q15">
-        <v>39.31901555607033</v>
+        <v>39.20651412561173</v>
       </c>
       <c r="R15">
-        <v>70.88771186439894</v>
+        <v>70.78006070510541</v>
       </c>
       <c r="S15">
-        <v>12.71705943810136</v>
+        <v>12.66495447114249</v>
       </c>
       <c r="T15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U15">
-        <v>0.1782227979274612</v>
+        <v>0.1779533678756477</v>
       </c>
       <c r="V15">
-        <v>78.42584933530279</v>
+        <v>78.13164796736125</v>
       </c>
       <c r="W15">
-        <v>107.3371491875899</v>
+        <v>107.0761328864903</v>
       </c>
       <c r="X15">
-        <v>37.0153618906978</v>
+        <v>36.76540871339429</v>
       </c>
       <c r="Y15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z15">
-        <v>0.07046113989637305</v>
+        <v>0.07072020725388602</v>
       </c>
       <c r="AA15">
         <v>290</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -217,7 +217,7 @@
     <t>Sassafras</t>
   </si>
   <si>
-    <t>Striped Maple</t>
+    <t>striped maple</t>
   </si>
   <si>
     <t>llhouse2</t>
@@ -292,7 +292,7 @@
     <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
   </si>
   <si>
-    <t>['#b7c6db', '#5c6c44', '#393117']</t>
+    <t>['#b7c6db', '#393117', '#5c6c44']</t>
   </si>
   <si>
     <t>['#adbcd2', '#233827', '#9aa8bd']</t>
@@ -301,22 +301,22 @@
     <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
   </si>
   <si>
-    <t>['#7b859c', '#9aa6c5', '#354723']</t>
-  </si>
-  <si>
-    <t>['#828fa9', '#384935', '#8e9bbc']</t>
-  </si>
-  <si>
-    <t>['#547528', '#dedad6', '#365b10']</t>
-  </si>
-  <si>
-    <t>['#244a0f', '#dbdad9', '#849578']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#1b4009', '#4d6a28']</t>
-  </si>
-  <si>
-    <t>['#d7d2cd', '#54643a', '#3b4c1b']</t>
+    <t>['#354723', '#7b859c', '#9aa6c5']</t>
+  </si>
+  <si>
+    <t>['#828fa9', '#384935', '#8e9cbc']</t>
+  </si>
+  <si>
+    <t>['#355a0f', '#dedad5', '#527426']</t>
+  </si>
+  <si>
+    <t>['#244a0f', '#dbdad9', '#859578']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#1b4109', '#4e6b29']</t>
+  </si>
+  <si>
+    <t>['#d7d2cd', '#546439', '#3b4c1b']</t>
   </si>
   <si>
     <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
@@ -325,10 +325,10 @@
     <t>['#d1d0d0', '#294414', '#a0a49d']</t>
   </si>
   <si>
-    <t>['#d1cdc8', '#22410c', '#7f8c78']</t>
-  </si>
-  <si>
-    <t>['#27470d', '#d6d2d0', '#4e6b25']</t>
+    <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
+  </si>
+  <si>
+    <t>['#d6d2d0', '#4e6b25', '#27470d']</t>
   </si>
   <si>
     <t>darkgreen</t>
@@ -337,6 +337,9 @@
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
     <t>lightslategray</t>
   </si>
   <si>
@@ -349,13 +352,10 @@
     <t>silver</t>
   </si>
   <si>
-    <t>darkslategray</t>
+    <t>gainsboro</t>
   </si>
   <si>
     <t>darkgray</t>
-  </si>
-  <si>
-    <t>gainsboro</t>
   </si>
   <si>
     <t>gray</t>
@@ -865,13 +865,13 @@
         <v>91</v>
       </c>
       <c r="L2">
-        <v>188.3416957360965</v>
+        <v>188.3436449397384</v>
       </c>
       <c r="M2">
-        <v>202.8464710265135</v>
+        <v>202.8481373902246</v>
       </c>
       <c r="N2">
-        <v>220.915763538457</v>
+        <v>220.9192036379964</v>
       </c>
       <c r="O2" t="s">
         <v>105</v>
@@ -880,13 +880,13 @@
         <v>0.6489010989010989</v>
       </c>
       <c r="Q2">
-        <v>42.29902360588153</v>
+        <v>42.30053129512963</v>
       </c>
       <c r="R2">
-        <v>75.41250902988652</v>
+        <v>75.41380435288065</v>
       </c>
       <c r="S2">
-        <v>19.38843707034121</v>
+        <v>19.39029221232124</v>
       </c>
       <c r="T2" t="s">
         <v>106</v>
@@ -895,16 +895,16 @@
         <v>0.2357857142857143</v>
       </c>
       <c r="V2">
-        <v>163.2768482768487</v>
+        <v>163.2936330301447</v>
       </c>
       <c r="W2">
-        <v>177.9895133228466</v>
+        <v>178.0072384399257</v>
       </c>
       <c r="X2">
-        <v>189.2472472472464</v>
+        <v>189.2638697080805</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z2">
         <v>0.1153131868131868</v>
@@ -963,49 +963,49 @@
         <v>92</v>
       </c>
       <c r="L3">
-        <v>183.2323597318077</v>
+        <v>183.2364997904586</v>
       </c>
       <c r="M3">
-        <v>198.2738788032164</v>
+        <v>198.2781410869785</v>
       </c>
       <c r="N3">
-        <v>218.8811673730186</v>
+        <v>218.8874672824065</v>
       </c>
       <c r="O3" t="s">
         <v>106</v>
       </c>
       <c r="P3">
-        <v>0.6691058201058201</v>
+        <v>0.6690899470899471</v>
       </c>
       <c r="Q3">
-        <v>57.35710091176901</v>
+        <v>57.41402763673062</v>
       </c>
       <c r="R3">
-        <v>48.51392365940644</v>
+        <v>48.68100821715743</v>
       </c>
       <c r="S3">
-        <v>22.7506722299506</v>
+        <v>22.8024805342703</v>
       </c>
       <c r="T3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U3">
-        <v>0.171973544973545</v>
+        <v>0.1724285714285714</v>
       </c>
       <c r="V3">
-        <v>92.11828455904576</v>
+        <v>92.23231045730169</v>
       </c>
       <c r="W3">
-        <v>107.7036754714501</v>
+        <v>107.810057911205</v>
       </c>
       <c r="X3">
-        <v>67.50449076990198</v>
+        <v>67.68291952340581</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z3">
-        <v>0.1589206349206349</v>
+        <v>0.1584814814814815</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1082,7 +1082,7 @@
         <v>188.8616996805116</v>
       </c>
       <c r="T4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U4">
         <v>0.1970982367758186</v>
@@ -1097,7 +1097,7 @@
         <v>39.02866166969977</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z4">
         <v>0.1068765743073048</v>
@@ -1153,13 +1153,13 @@
         <v>94</v>
       </c>
       <c r="L5">
-        <v>171.6506978134842</v>
+        <v>171.6524343774405</v>
       </c>
       <c r="M5">
-        <v>186.0438363827481</v>
+        <v>186.0459767897252</v>
       </c>
       <c r="N5">
-        <v>209.8670441064442</v>
+        <v>209.8695459237344</v>
       </c>
       <c r="O5" t="s">
         <v>106</v>
@@ -1168,22 +1168,22 @@
         <v>0.5529653333333333</v>
       </c>
       <c r="Q5">
-        <v>151.0836809013941</v>
+        <v>151.0872798556223</v>
       </c>
       <c r="R5">
-        <v>163.9464797061756</v>
+        <v>163.9499035409798</v>
       </c>
       <c r="S5">
-        <v>185.5989946464142</v>
+        <v>185.6025110461135</v>
       </c>
       <c r="T5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U5">
         <v>0.3426986666666667</v>
       </c>
       <c r="V5">
-        <v>62.50738639268461</v>
+        <v>62.50738639268459</v>
       </c>
       <c r="W5">
         <v>61.79379440779776</v>
@@ -1192,7 +1192,7 @@
         <v>41.63170270407647</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z5">
         <v>0.104336</v>
@@ -1269,16 +1269,16 @@
         <v>166.3450154648808</v>
       </c>
       <c r="S6">
-        <v>197.2461172689395</v>
+        <v>197.2461172689396</v>
       </c>
       <c r="T6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U6">
         <v>0.3890835117773019</v>
       </c>
       <c r="V6">
-        <v>52.66094069530308</v>
+        <v>52.6609406953031</v>
       </c>
       <c r="W6">
         <v>70.53609406952461</v>
@@ -1287,7 +1287,7 @@
         <v>35.3840490797611</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z6">
         <v>0.04188008565310492</v>
@@ -1343,49 +1343,49 @@
         <v>96</v>
       </c>
       <c r="L7">
-        <v>130.2153140167135</v>
+        <v>130.359348730201</v>
       </c>
       <c r="M7">
-        <v>142.5762781447286</v>
+        <v>142.7403150163701</v>
       </c>
       <c r="N7">
-        <v>169.1631390723637</v>
+        <v>169.489408016989</v>
       </c>
       <c r="O7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7">
+        <v>0.5795384615384616</v>
+      </c>
+      <c r="Q7">
+        <v>141.9583776878883</v>
+      </c>
+      <c r="R7">
+        <v>155.6154080111924</v>
+      </c>
+      <c r="S7">
+        <v>188.4271115301547</v>
+      </c>
+      <c r="T7" t="s">
         <v>107</v>
       </c>
-      <c r="P7">
-        <v>0.5621128205128205</v>
-      </c>
-      <c r="Q7">
-        <v>141.6161632228142</v>
-      </c>
-      <c r="R7">
-        <v>155.2422459042467</v>
-      </c>
-      <c r="S7">
-        <v>188.0124643926126</v>
-      </c>
-      <c r="T7" t="s">
-        <v>111</v>
-      </c>
       <c r="U7">
-        <v>0.354651282051282</v>
+        <v>0.3372205128205128</v>
       </c>
       <c r="V7">
-        <v>55.74394676853434</v>
+        <v>55.74673484475606</v>
       </c>
       <c r="W7">
-        <v>73.41741112685592</v>
+        <v>73.42015771315909</v>
       </c>
       <c r="X7">
-        <v>52.70864395292821</v>
+        <v>52.71155741744565</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z7">
-        <v>0.08323589743589743</v>
+        <v>0.08324102564102565</v>
       </c>
       <c r="AA7">
         <v>216</v>
@@ -1441,49 +1441,49 @@
         <v>97</v>
       </c>
       <c r="L8">
-        <v>221.8846870062522</v>
+        <v>221.8690856777567</v>
       </c>
       <c r="M8">
-        <v>218.1225171168326</v>
+        <v>218.1099086053725</v>
       </c>
       <c r="N8">
-        <v>213.5128846587863</v>
+        <v>213.4939070257205</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8">
-        <v>0.5656010638297873</v>
+        <v>0.5656914893617021</v>
       </c>
       <c r="Q8">
-        <v>53.75551149508335</v>
+        <v>53.09944742296747</v>
       </c>
       <c r="R8">
-        <v>90.61639050180048</v>
+        <v>89.97210801563931</v>
       </c>
       <c r="S8">
-        <v>15.63958520195835</v>
+        <v>15.19103377954961</v>
       </c>
       <c r="T8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U8">
-        <v>0.3361010638297872</v>
+        <v>0.3257021276595745</v>
       </c>
       <c r="V8">
-        <v>84.49048170832825</v>
+        <v>82.28092313597655</v>
       </c>
       <c r="W8">
-        <v>117.3252220934754</v>
+        <v>115.6380385759562</v>
       </c>
       <c r="X8">
-        <v>39.85057661535133</v>
+        <v>37.86968621053936</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z8">
-        <v>0.09829787234042553</v>
+        <v>0.1086063829787234</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1539,49 +1539,49 @@
         <v>98</v>
       </c>
       <c r="L9">
-        <v>219.1860148440787</v>
+        <v>219.1904850983605</v>
       </c>
       <c r="M9">
-        <v>217.7420916382349</v>
+        <v>217.7451419079183</v>
       </c>
       <c r="N9">
-        <v>217.2547061112169</v>
+        <v>217.2594449391349</v>
       </c>
       <c r="O9" t="s">
         <v>105</v>
       </c>
       <c r="P9">
-        <v>0.7033578947368421</v>
+        <v>0.7033315789473684</v>
       </c>
       <c r="Q9">
-        <v>36.43105277114961</v>
+        <v>36.43909321616746</v>
       </c>
       <c r="R9">
-        <v>73.84079630260167</v>
+        <v>73.84828226202707</v>
       </c>
       <c r="S9">
-        <v>14.80382240404404</v>
+        <v>14.8097799325613</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U9">
-        <v>0.2779105263157895</v>
+        <v>0.2779894736842105</v>
       </c>
       <c r="V9">
-        <v>132.2873239436621</v>
+        <v>132.5333333333334</v>
       </c>
       <c r="W9">
-        <v>149.1107042253521</v>
+        <v>149.3052039381153</v>
       </c>
       <c r="X9">
-        <v>120.155492957746</v>
+        <v>120.4810126582273</v>
       </c>
       <c r="Y9" t="s">
         <v>114</v>
       </c>
       <c r="Z9">
-        <v>0.01873157894736842</v>
+        <v>0.01867894736842105</v>
       </c>
       <c r="AA9">
         <v>453</v>
@@ -1637,49 +1637,49 @@
         <v>99</v>
       </c>
       <c r="L10">
-        <v>211.2274908387691</v>
+        <v>211.2321612959008</v>
       </c>
       <c r="M10">
-        <v>208.9123625816136</v>
+        <v>208.9160275272598</v>
       </c>
       <c r="N10">
-        <v>206.2215942323034</v>
+        <v>206.2265985448473</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10">
-        <v>0.9008279569892473</v>
+        <v>0.9007849462365591</v>
       </c>
       <c r="Q10">
-        <v>26.55634178904509</v>
+        <v>26.81296296295599</v>
       </c>
       <c r="R10">
-        <v>64.45220293724373</v>
+        <v>64.6771164021107</v>
       </c>
       <c r="S10">
-        <v>8.518558077451559</v>
+        <v>8.59424603176123</v>
       </c>
       <c r="T10" t="s">
         <v>105</v>
       </c>
       <c r="U10">
-        <v>0.0806505376344086</v>
+        <v>0.08122043010752689</v>
       </c>
       <c r="V10">
-        <v>76.94748990190439</v>
+        <v>78.10698231944878</v>
       </c>
       <c r="W10">
-        <v>105.727062896712</v>
+        <v>106.5957446808522</v>
       </c>
       <c r="X10">
-        <v>40.03923831505807</v>
+        <v>41.31525322145393</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z10">
-        <v>0.01852150537634408</v>
+        <v>0.01799462365591398</v>
       </c>
       <c r="AA10">
         <v>127</v>
@@ -1735,49 +1735,49 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>214.5962834987609</v>
+        <v>214.5958316215711</v>
       </c>
       <c r="M11">
-        <v>210.341278400136</v>
+        <v>210.3409017548047</v>
       </c>
       <c r="N11">
-        <v>204.9647423905637</v>
+        <v>204.9641557603155</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P11">
         <v>0.7428283378746594</v>
       </c>
       <c r="Q11">
-        <v>59.33412069998509</v>
+        <v>59.28787474127495</v>
       </c>
       <c r="R11">
-        <v>76.39573491250985</v>
+        <v>76.35147225746879</v>
       </c>
       <c r="S11">
-        <v>27.18354514606446</v>
+        <v>27.13741069641458</v>
       </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U11">
-        <v>0.1653079019073569</v>
+        <v>0.1651171662125341</v>
       </c>
       <c r="V11">
-        <v>84.44690911213885</v>
+        <v>84.37176511547241</v>
       </c>
       <c r="W11">
-        <v>100.3524604518122</v>
+        <v>100.2814204479514</v>
       </c>
       <c r="X11">
-        <v>57.54270036776209</v>
+        <v>57.43576650807323</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z11">
-        <v>0.09186376021798365</v>
+        <v>0.09205449591280654</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1833,46 +1833,46 @@
         <v>101</v>
       </c>
       <c r="L12">
-        <v>201.3772533818934</v>
+        <v>201.4382416978819</v>
       </c>
       <c r="M12">
-        <v>199.7616357775198</v>
+        <v>199.8185206253305</v>
       </c>
       <c r="N12">
-        <v>197.0023373815555</v>
+        <v>197.0682999548924</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P12">
-        <v>0.5229897435897436</v>
+        <v>0.5228820512820512</v>
       </c>
       <c r="Q12">
-        <v>183.305439533167</v>
+        <v>183.3863243554666</v>
       </c>
       <c r="R12">
-        <v>182.3350403757912</v>
+        <v>182.4153944020353</v>
       </c>
       <c r="S12">
-        <v>180.585140255935</v>
+        <v>180.6456983052472</v>
       </c>
       <c r="T12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U12">
-        <v>0.4271538461538462</v>
+        <v>0.4272615384615385</v>
       </c>
       <c r="V12">
         <v>60.54896111909838</v>
       </c>
       <c r="W12">
-        <v>73.46019337585025</v>
+        <v>73.46019337585022</v>
       </c>
       <c r="X12">
         <v>35.59031063568744</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z12">
         <v>0.04985641025641026</v>
@@ -1940,7 +1940,7 @@
         <v>208.4494137937803</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13">
         <v>0.8300765027322404</v>
@@ -1952,7 +1952,7 @@
         <v>67.53761523578665</v>
       </c>
       <c r="S13">
-        <v>19.91608179370846</v>
+        <v>19.91608179370849</v>
       </c>
       <c r="T13" t="s">
         <v>105</v>
@@ -1970,7 +1970,7 @@
         <v>157.4387151310225</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z13">
         <v>0.02588524590163934</v>
@@ -2029,43 +2029,43 @@
         <v>103</v>
       </c>
       <c r="L14">
-        <v>209.0773185863931</v>
+        <v>209.0764199124769</v>
       </c>
       <c r="M14">
-        <v>205.439694473329</v>
+        <v>205.4390274556428</v>
       </c>
       <c r="N14">
-        <v>200.4629688874748</v>
+        <v>200.4619414325455</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P14">
-        <v>0.9164659685863874</v>
+        <v>0.9164712041884817</v>
       </c>
       <c r="Q14">
-        <v>33.56708707901527</v>
+        <v>33.55234196750783</v>
       </c>
       <c r="R14">
-        <v>65.45679592111628</v>
+        <v>65.4481277680955</v>
       </c>
       <c r="S14">
-        <v>12.02287669394016</v>
+        <v>12.00946181719718</v>
       </c>
       <c r="T14" t="s">
         <v>105</v>
       </c>
       <c r="U14">
-        <v>0.07803141361256545</v>
+        <v>0.07802617801047121</v>
       </c>
       <c r="V14">
-        <v>127.1730038022816</v>
+        <v>126.8640684410649</v>
       </c>
       <c r="W14">
-        <v>139.7186311787071</v>
+        <v>139.4201520912546</v>
       </c>
       <c r="X14">
-        <v>119.6492395437262</v>
+        <v>119.2937262357414</v>
       </c>
       <c r="Y14" t="s">
         <v>114</v>
@@ -2127,49 +2127,49 @@
         <v>104</v>
       </c>
       <c r="L15">
-        <v>214.1110750982702</v>
+        <v>214.1090377480807</v>
       </c>
       <c r="M15">
-        <v>210.4964347286406</v>
+        <v>210.49493841974</v>
       </c>
       <c r="N15">
-        <v>208.0095441693535</v>
+        <v>208.0073441184848</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P15">
-        <v>0.7513264248704663</v>
+        <v>0.7513367875647669</v>
       </c>
       <c r="Q15">
-        <v>39.20651412561173</v>
+        <v>39.16984386877849</v>
       </c>
       <c r="R15">
-        <v>70.78006070510541</v>
+        <v>70.7424419624505</v>
       </c>
       <c r="S15">
-        <v>12.66495447114249</v>
+        <v>12.65408455643615</v>
       </c>
       <c r="T15" t="s">
         <v>109</v>
       </c>
       <c r="U15">
-        <v>0.1779533678756477</v>
+        <v>0.1779222797927461</v>
       </c>
       <c r="V15">
-        <v>78.13164796736125</v>
+        <v>78.02952698781199</v>
       </c>
       <c r="W15">
-        <v>107.0761328864903</v>
+        <v>106.9919471851397</v>
       </c>
       <c r="X15">
-        <v>36.76540871339429</v>
+        <v>36.65742890307973</v>
       </c>
       <c r="Y15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z15">
-        <v>0.07072020725388602</v>
+        <v>0.07074093264248704</v>
       </c>
       <c r="AA15">
         <v>290</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -292,31 +292,31 @@
     <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
   </si>
   <si>
-    <t>['#b7c6db', '#393117', '#5c6c44']</t>
+    <t>['#5c6c44', '#b7c6db', '#393117']</t>
   </si>
   <si>
     <t>['#adbcd2', '#233827', '#9aa8bd']</t>
   </si>
   <si>
-    <t>['#acbad2', '#3f3e2a', '#97a4ba']</t>
-  </si>
-  <si>
-    <t>['#354723', '#7b859c', '#9aa6c5']</t>
-  </si>
-  <si>
-    <t>['#828fa9', '#384935', '#8e9cbc']</t>
-  </si>
-  <si>
-    <t>['#355a0f', '#dedad5', '#527426']</t>
-  </si>
-  <si>
-    <t>['#244a0f', '#dbdad9', '#859578']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#1b4109', '#4e6b29']</t>
-  </si>
-  <si>
-    <t>['#d7d2cd', '#546439', '#3b4c1b']</t>
+    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
+  </si>
+  <si>
+    <t>['#7b859c', '#354723', '#9aa6c5']</t>
+  </si>
+  <si>
+    <t>['#828fa9', '#384935', '#8e9bbc']</t>
+  </si>
+  <si>
+    <t>['#dedad6', '#365b10', '#547528']</t>
+  </si>
+  <si>
+    <t>['#dbdad9', '#254a0f', '#88987d']</t>
+  </si>
+  <si>
+    <t>['#d3d1ce', '#1b4109', '#4d6a28']</t>
+  </si>
+  <si>
+    <t>['#546439', '#d7d2cd', '#3b4c1b']</t>
   </si>
   <si>
     <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
@@ -328,34 +328,34 @@
     <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
   </si>
   <si>
-    <t>['#d6d2d0', '#4e6b25', '#27470d']</t>
+    <t>['#4e6b25', '#d6d2d0', '#27470d']</t>
   </si>
   <si>
     <t>darkgreen</t>
   </si>
   <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
     <t>lightsteelblue</t>
   </si>
   <si>
+    <t>darkgray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>gainsboro</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
     <t>darkslategray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
-    <t>darkolivegreen</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>gainsboro</t>
-  </si>
-  <si>
-    <t>darkgray</t>
   </si>
   <si>
     <t>gray</t>
@@ -865,13 +865,13 @@
         <v>91</v>
       </c>
       <c r="L2">
-        <v>188.3436449397384</v>
+        <v>188.3411619282971</v>
       </c>
       <c r="M2">
-        <v>202.8481373902246</v>
+        <v>202.8461486360588</v>
       </c>
       <c r="N2">
-        <v>220.9192036379964</v>
+        <v>220.9146163875584</v>
       </c>
       <c r="O2" t="s">
         <v>105</v>
@@ -880,31 +880,31 @@
         <v>0.6489010989010989</v>
       </c>
       <c r="Q2">
-        <v>42.30053129512963</v>
+        <v>42.29772557790812</v>
       </c>
       <c r="R2">
-        <v>75.41380435288065</v>
+        <v>75.4116797166182</v>
       </c>
       <c r="S2">
-        <v>19.39029221232124</v>
+        <v>19.38616237881138</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U2">
         <v>0.2357857142857143</v>
       </c>
       <c r="V2">
-        <v>163.2936330301447</v>
+        <v>163.2695718508634</v>
       </c>
       <c r="W2">
-        <v>178.0072384399257</v>
+        <v>177.9810241251073</v>
       </c>
       <c r="X2">
-        <v>189.2638697080805</v>
+        <v>189.2412033946783</v>
       </c>
       <c r="Y2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z2">
         <v>0.1153131868131868</v>
@@ -963,49 +963,49 @@
         <v>92</v>
       </c>
       <c r="L3">
-        <v>183.2364997904586</v>
+        <v>183.2323597318077</v>
       </c>
       <c r="M3">
-        <v>198.2781410869785</v>
+        <v>198.2738788032164</v>
       </c>
       <c r="N3">
-        <v>218.8874672824065</v>
+        <v>218.8811673730186</v>
       </c>
       <c r="O3" t="s">
         <v>106</v>
       </c>
       <c r="P3">
-        <v>0.6690899470899471</v>
+        <v>0.6690952380952381</v>
       </c>
       <c r="Q3">
-        <v>57.41402763673062</v>
+        <v>57.37068379764921</v>
       </c>
       <c r="R3">
-        <v>48.68100821715743</v>
+        <v>48.53650626969225</v>
       </c>
       <c r="S3">
-        <v>22.8024805342703</v>
+        <v>22.76307986904843</v>
       </c>
       <c r="T3" t="s">
         <v>107</v>
       </c>
       <c r="U3">
-        <v>0.1724285714285714</v>
+        <v>0.171994708994709</v>
       </c>
       <c r="V3">
-        <v>92.23231045730169</v>
+        <v>92.13021558872595</v>
       </c>
       <c r="W3">
-        <v>107.810057911205</v>
+        <v>107.72457711443</v>
       </c>
       <c r="X3">
-        <v>67.68291952340581</v>
+        <v>67.52530679934503</v>
       </c>
       <c r="Y3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Z3">
-        <v>0.1584814814814815</v>
+        <v>0.1589100529100529</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1067,7 +1067,7 @@
         <v>210.2517768995839</v>
       </c>
       <c r="O4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P4">
         <v>0.6960251889168766</v>
@@ -1082,7 +1082,7 @@
         <v>188.8616996805116</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="U4">
         <v>0.1970982367758186</v>
@@ -1097,7 +1097,7 @@
         <v>39.02866166969977</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z4">
         <v>0.1068765743073048</v>
@@ -1162,7 +1162,7 @@
         <v>209.8695459237344</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P5">
         <v>0.5529653333333333</v>
@@ -1177,7 +1177,7 @@
         <v>185.6025110461135</v>
       </c>
       <c r="T5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="U5">
         <v>0.3426986666666667</v>
@@ -1192,7 +1192,7 @@
         <v>41.63170270407647</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Z5">
         <v>0.104336</v>
@@ -1248,16 +1248,16 @@
         <v>95</v>
       </c>
       <c r="L6">
-        <v>122.6745064687805</v>
+        <v>122.6752668101727</v>
       </c>
       <c r="M6">
-        <v>133.2987529069956</v>
+        <v>133.2995499224752</v>
       </c>
       <c r="N6">
-        <v>155.9339800856488</v>
+        <v>155.9353107642291</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P6">
         <v>0.5690364025695932</v>
@@ -1272,22 +1272,22 @@
         <v>197.2461172689396</v>
       </c>
       <c r="T6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="U6">
         <v>0.3890835117773019</v>
       </c>
       <c r="V6">
-        <v>52.6609406953031</v>
+        <v>52.67208422774856</v>
       </c>
       <c r="W6">
-        <v>70.53609406952461</v>
+        <v>70.54451599713286</v>
       </c>
       <c r="X6">
-        <v>35.3840490797611</v>
+        <v>35.40294388225121</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z6">
         <v>0.04188008565310492</v>
@@ -1343,49 +1343,49 @@
         <v>96</v>
       </c>
       <c r="L7">
-        <v>130.359348730201</v>
+        <v>130.2153140167135</v>
       </c>
       <c r="M7">
-        <v>142.7403150163701</v>
+        <v>142.5762781447286</v>
       </c>
       <c r="N7">
-        <v>169.489408016989</v>
+        <v>169.1631390723637</v>
       </c>
       <c r="O7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7">
+        <v>0.5621128205128205</v>
+      </c>
+      <c r="Q7">
+        <v>141.6161632228142</v>
+      </c>
+      <c r="R7">
+        <v>155.2422459042467</v>
+      </c>
+      <c r="S7">
+        <v>188.0124643926126</v>
+      </c>
+      <c r="T7" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7">
+        <v>0.354651282051282</v>
+      </c>
+      <c r="V7">
+        <v>55.74394676853434</v>
+      </c>
+      <c r="W7">
+        <v>73.41741112685592</v>
+      </c>
+      <c r="X7">
+        <v>52.70864395292821</v>
+      </c>
+      <c r="Y7" t="s">
         <v>108</v>
       </c>
-      <c r="P7">
-        <v>0.5795384615384616</v>
-      </c>
-      <c r="Q7">
-        <v>141.9583776878883</v>
-      </c>
-      <c r="R7">
-        <v>155.6154080111924</v>
-      </c>
-      <c r="S7">
-        <v>188.4271115301547</v>
-      </c>
-      <c r="T7" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7">
-        <v>0.3372205128205128</v>
-      </c>
-      <c r="V7">
-        <v>55.74673484475606</v>
-      </c>
-      <c r="W7">
-        <v>73.42015771315909</v>
-      </c>
-      <c r="X7">
-        <v>52.71155741744565</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>113</v>
-      </c>
       <c r="Z7">
-        <v>0.08324102564102565</v>
+        <v>0.08323589743589743</v>
       </c>
       <c r="AA7">
         <v>216</v>
@@ -1441,49 +1441,49 @@
         <v>97</v>
       </c>
       <c r="L8">
-        <v>221.8690856777567</v>
+        <v>221.8846870062522</v>
       </c>
       <c r="M8">
-        <v>218.1099086053725</v>
+        <v>218.1225171168326</v>
       </c>
       <c r="N8">
-        <v>213.4939070257205</v>
+        <v>213.5128846587863</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P8">
-        <v>0.5656914893617021</v>
+        <v>0.5656010638297873</v>
       </c>
       <c r="Q8">
-        <v>53.09944742296747</v>
+        <v>53.75551149508335</v>
       </c>
       <c r="R8">
-        <v>89.97210801563931</v>
+        <v>90.6163905018005</v>
       </c>
       <c r="S8">
-        <v>15.19103377954961</v>
+        <v>15.63958520195835</v>
       </c>
       <c r="T8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="U8">
-        <v>0.3257021276595745</v>
+        <v>0.3361010638297872</v>
       </c>
       <c r="V8">
-        <v>82.28092313597655</v>
+        <v>84.49048170832825</v>
       </c>
       <c r="W8">
-        <v>115.6380385759562</v>
+        <v>117.3252220934754</v>
       </c>
       <c r="X8">
-        <v>37.86968621053936</v>
+        <v>39.85057661535133</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z8">
-        <v>0.1086063829787234</v>
+        <v>0.09829787234042553</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1539,49 +1539,49 @@
         <v>98</v>
       </c>
       <c r="L9">
-        <v>219.1904850983605</v>
+        <v>219.2320885573494</v>
       </c>
       <c r="M9">
-        <v>217.7451419079183</v>
+        <v>217.7762548869809</v>
       </c>
       <c r="N9">
-        <v>217.2594449391349</v>
+        <v>217.3025210084094</v>
       </c>
       <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9">
+        <v>0.7027789473684211</v>
+      </c>
+      <c r="Q9">
+        <v>36.58030148475714</v>
+      </c>
+      <c r="R9">
+        <v>73.96851033283376</v>
+      </c>
+      <c r="S9">
+        <v>14.91884846422417</v>
+      </c>
+      <c r="T9" t="s">
         <v>105</v>
       </c>
-      <c r="P9">
-        <v>0.7033315789473684</v>
-      </c>
-      <c r="Q9">
-        <v>36.43909321616746</v>
-      </c>
-      <c r="R9">
-        <v>73.84828226202707</v>
-      </c>
-      <c r="S9">
-        <v>14.8097799325613</v>
-      </c>
-      <c r="T9" t="s">
-        <v>112</v>
-      </c>
       <c r="U9">
-        <v>0.2779894736842105</v>
+        <v>0.2785263157894737</v>
       </c>
       <c r="V9">
-        <v>132.5333333333334</v>
+        <v>135.6007336343116</v>
       </c>
       <c r="W9">
-        <v>149.3052039381153</v>
+        <v>151.6467268623025</v>
       </c>
       <c r="X9">
-        <v>120.4810126582273</v>
+        <v>124.6975169300221</v>
       </c>
       <c r="Y9" t="s">
         <v>114</v>
       </c>
       <c r="Z9">
-        <v>0.01867894736842105</v>
+        <v>0.01869473684210526</v>
       </c>
       <c r="AA9">
         <v>453</v>
@@ -1637,49 +1637,49 @@
         <v>99</v>
       </c>
       <c r="L10">
-        <v>211.2321612959008</v>
+        <v>211.2274908387691</v>
       </c>
       <c r="M10">
-        <v>208.9160275272598</v>
+        <v>208.9123625816136</v>
       </c>
       <c r="N10">
-        <v>206.2265985448473</v>
+        <v>206.2215942323034</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10">
-        <v>0.9007849462365591</v>
+        <v>0.9008279569892473</v>
       </c>
       <c r="Q10">
-        <v>26.81296296295599</v>
+        <v>26.63027559578589</v>
       </c>
       <c r="R10">
-        <v>64.6771164021107</v>
+        <v>64.52003727865213</v>
       </c>
       <c r="S10">
-        <v>8.59424603176123</v>
+        <v>8.543602716031558</v>
       </c>
       <c r="T10" t="s">
         <v>105</v>
       </c>
       <c r="U10">
-        <v>0.08122043010752689</v>
+        <v>0.08077956989247312</v>
       </c>
       <c r="V10">
-        <v>78.10698231944878</v>
+        <v>77.24123831775718</v>
       </c>
       <c r="W10">
-        <v>106.5957446808522</v>
+        <v>105.9357476635525</v>
       </c>
       <c r="X10">
-        <v>41.31525322145393</v>
+        <v>40.31600467289468</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z10">
-        <v>0.01799462365591398</v>
+        <v>0.01839247311827957</v>
       </c>
       <c r="AA10">
         <v>127</v>
@@ -1735,49 +1735,49 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>214.5958316215711</v>
+        <v>214.5962834987609</v>
       </c>
       <c r="M11">
-        <v>210.3409017548047</v>
+        <v>210.341278400136</v>
       </c>
       <c r="N11">
-        <v>204.9641557603155</v>
+        <v>204.9647423905637</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P11">
         <v>0.7428283378746594</v>
       </c>
       <c r="Q11">
-        <v>59.28787474127495</v>
+        <v>59.30306466135823</v>
       </c>
       <c r="R11">
-        <v>76.35147225746879</v>
+        <v>76.36402441058524</v>
       </c>
       <c r="S11">
-        <v>27.13741069641458</v>
+        <v>27.15283289426762</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U11">
-        <v>0.1651171662125341</v>
+        <v>0.1651444141689373</v>
       </c>
       <c r="V11">
-        <v>84.37176511547241</v>
+        <v>84.3973956516714</v>
       </c>
       <c r="W11">
-        <v>100.2814204479514</v>
+        <v>100.3088594349492</v>
       </c>
       <c r="X11">
-        <v>57.43576650807323</v>
+        <v>57.47093361237843</v>
       </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z11">
-        <v>0.09205449591280654</v>
+        <v>0.09202724795640327</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1833,31 +1833,31 @@
         <v>101</v>
       </c>
       <c r="L12">
-        <v>201.4382416978819</v>
+        <v>201.4368865399079</v>
       </c>
       <c r="M12">
-        <v>199.8185206253305</v>
+        <v>199.816989106027</v>
       </c>
       <c r="N12">
-        <v>197.0682999548924</v>
+        <v>197.0657658629451</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P12">
         <v>0.5228820512820512</v>
       </c>
       <c r="Q12">
-        <v>183.3863243554666</v>
+        <v>183.383432378895</v>
       </c>
       <c r="R12">
-        <v>182.4153944020353</v>
+        <v>182.4128819256855</v>
       </c>
       <c r="S12">
-        <v>180.6456983052472</v>
+        <v>180.6446605438499</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U12">
         <v>0.4272615384615385</v>
@@ -1872,7 +1872,7 @@
         <v>35.59031063568744</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z12">
         <v>0.04985641025641026</v>
@@ -1940,7 +1940,7 @@
         <v>208.4494137937803</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P13">
         <v>0.8300765027322404</v>
@@ -1970,7 +1970,7 @@
         <v>157.4387151310225</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z13">
         <v>0.02588524590163934</v>
@@ -2038,19 +2038,19 @@
         <v>200.4619414325455</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P14">
         <v>0.9164712041884817</v>
       </c>
       <c r="Q14">
-        <v>33.55234196750783</v>
+        <v>33.55626383948211</v>
       </c>
       <c r="R14">
-        <v>65.4481277680955</v>
+        <v>65.45091592297919</v>
       </c>
       <c r="S14">
-        <v>12.00946181719718</v>
+        <v>12.01214520565472</v>
       </c>
       <c r="T14" t="s">
         <v>105</v>
@@ -2059,13 +2059,13 @@
         <v>0.07802617801047121</v>
       </c>
       <c r="V14">
-        <v>126.8640684410649</v>
+        <v>126.8972407231211</v>
       </c>
       <c r="W14">
-        <v>139.4201520912546</v>
+        <v>139.4509990485251</v>
       </c>
       <c r="X14">
-        <v>119.2937262357414</v>
+        <v>119.3577545195052</v>
       </c>
       <c r="Y14" t="s">
         <v>114</v>
@@ -2136,40 +2136,40 @@
         <v>208.0073441184848</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P15">
         <v>0.7513367875647669</v>
       </c>
       <c r="Q15">
-        <v>39.16984386877849</v>
+        <v>39.16224991224877</v>
       </c>
       <c r="R15">
-        <v>70.7424419624505</v>
+        <v>70.73394173393393</v>
       </c>
       <c r="S15">
-        <v>12.65408455643615</v>
+        <v>12.65052065049812</v>
       </c>
       <c r="T15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U15">
-        <v>0.1779222797927461</v>
+        <v>0.1778031088082901</v>
       </c>
       <c r="V15">
-        <v>78.02952698781199</v>
+        <v>78.00891433541096</v>
       </c>
       <c r="W15">
-        <v>106.9919471851397</v>
+        <v>106.9762284389017</v>
       </c>
       <c r="X15">
-        <v>36.65742890307973</v>
+        <v>36.64190462386222</v>
       </c>
       <c r="Y15" t="s">
         <v>105</v>
       </c>
       <c r="Z15">
-        <v>0.07074093264248704</v>
+        <v>0.07086010362694301</v>
       </c>
       <c r="AA15">
         <v>290</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>Image_Label</t>
   </si>
@@ -289,46 +289,46 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#2a4b13', '#bccbdd', '#a3b2bd']</t>
-  </si>
-  <si>
-    <t>['#5c6c44', '#b7c6db', '#393117']</t>
-  </si>
-  <si>
-    <t>['#adbcd2', '#233827', '#9aa8bd']</t>
-  </si>
-  <si>
-    <t>['#97a4ba', '#3f3e2a', '#acbad2']</t>
-  </si>
-  <si>
-    <t>['#7b859c', '#354723', '#9aa6c5']</t>
-  </si>
-  <si>
-    <t>['#828fa9', '#384935', '#8e9bbc']</t>
-  </si>
-  <si>
-    <t>['#dedad6', '#365b10', '#547528']</t>
-  </si>
-  <si>
-    <t>['#dbdad9', '#254a0f', '#88987d']</t>
-  </si>
-  <si>
-    <t>['#d3d1ce', '#1b4109', '#4d6a28']</t>
-  </si>
-  <si>
-    <t>['#546439', '#d7d2cd', '#3b4c1b']</t>
-  </si>
-  <si>
-    <t>['#c9c8c5', '#3d4924', '#b7b6b5']</t>
-  </si>
-  <si>
-    <t>['#d1d0d0', '#294414', '#a0a49d']</t>
-  </si>
-  <si>
-    <t>['#d1cdc8', '#22410c', '#7f8b77']</t>
-  </si>
-  <si>
-    <t>['#4e6b25', '#d6d2d0', '#27470d']</t>
+    <t>['#2e5013', '#1d3e0d', '#47672e']</t>
+  </si>
+  <si>
+    <t>['#606e47', '#374e1c', '#411b17']</t>
+  </si>
+  <si>
+    <t>['#213625', '#2f4330', '#637372']</t>
+  </si>
+  <si>
+    <t>['#4b4831', '#303120', '#6d716b']</t>
+  </si>
+  <si>
+    <t>['#7e89a3', '#727c8c', '#334521']</t>
+  </si>
+  <si>
+    <t>['#394b36', '#30422e', '#485a45']</t>
+  </si>
+  <si>
+    <t>['#3c6014', '#2b5009', '#567628']</t>
+  </si>
+  <si>
+    <t>['#1e450b', '#426423', '#a9b29f']</t>
+  </si>
+  <si>
+    <t>['#193f08', '#3e6018', '#70855a']</t>
+  </si>
+  <si>
+    <t>['#394a18', '#4d5e2f', '#7b846d']</t>
+  </si>
+  <si>
+    <t>['#33401b', '#46532c', '#727a67']</t>
+  </si>
+  <si>
+    <t>['#233e10', '#39521f', '#778578']</t>
+  </si>
+  <si>
+    <t>['#1d3e09', '#2f4c16', '#6d7e63']</t>
+  </si>
+  <si>
+    <t>['#27460d', '#48661e', '#7a8964']</t>
   </si>
   <si>
     <t>darkgreen</t>
@@ -337,25 +337,22 @@
     <t>darkolivegreen</t>
   </si>
   <si>
-    <t>lightsteelblue</t>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>maroon</t>
+  </si>
+  <si>
+    <t>dimgray</t>
   </si>
   <si>
     <t>darkgray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
-    <t>gainsboro</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
   </si>
   <si>
     <t>gray</t>
@@ -865,49 +862,49 @@
         <v>91</v>
       </c>
       <c r="L2">
-        <v>188.3411619282971</v>
+        <v>45.97814836112708</v>
       </c>
       <c r="M2">
-        <v>202.8461486360588</v>
+        <v>79.56411730879816</v>
       </c>
       <c r="N2">
-        <v>220.9146163875584</v>
+        <v>19.43789534215066</v>
       </c>
       <c r="O2" t="s">
         <v>105</v>
       </c>
       <c r="P2">
-        <v>0.6489010989010989</v>
+        <v>0.5463167437643832</v>
       </c>
       <c r="Q2">
-        <v>42.29772557790812</v>
+        <v>29.27318355640535</v>
       </c>
       <c r="R2">
-        <v>75.4116797166182</v>
+        <v>61.88121414913958</v>
       </c>
       <c r="S2">
-        <v>19.38616237881138</v>
+        <v>13.46534416826004</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U2">
-        <v>0.2357857142857143</v>
+        <v>0.3745786745391571</v>
       </c>
       <c r="V2">
-        <v>163.2695718508634</v>
+        <v>71.14808362369338</v>
       </c>
       <c r="W2">
-        <v>177.9810241251073</v>
+        <v>102.7508710801394</v>
       </c>
       <c r="X2">
-        <v>189.2412033946783</v>
+        <v>46.02003484320558</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z2">
-        <v>0.1153131868131868</v>
+        <v>0.0791045816964597</v>
       </c>
       <c r="AA2">
         <v>272</v>
@@ -963,49 +960,49 @@
         <v>92</v>
       </c>
       <c r="L3">
-        <v>183.2323597318077</v>
+        <v>95.9524976437323</v>
       </c>
       <c r="M3">
-        <v>198.2738788032164</v>
+        <v>110.2499528746466</v>
       </c>
       <c r="N3">
-        <v>218.8811673730186</v>
+        <v>70.85183788878417</v>
       </c>
       <c r="O3" t="s">
         <v>106</v>
       </c>
       <c r="P3">
-        <v>0.6690952380952381</v>
+        <v>0.3954607068469601</v>
       </c>
       <c r="Q3">
-        <v>57.37068379764921</v>
+        <v>55.08265582655827</v>
       </c>
       <c r="R3">
-        <v>48.53650626969225</v>
+        <v>77.52032520325203</v>
       </c>
       <c r="S3">
-        <v>22.76307986904843</v>
+        <v>28.02484191508582</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3">
-        <v>0.171994708994709</v>
+        <v>0.331933745495421</v>
       </c>
       <c r="V3">
-        <v>92.13021558872595</v>
+        <v>65.05141100866163</v>
       </c>
       <c r="W3">
-        <v>107.72457711443</v>
+        <v>26.80441464096117</v>
       </c>
       <c r="X3">
-        <v>67.52530679934503</v>
+        <v>22.63704945515507</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Z3">
-        <v>0.1589100529100529</v>
+        <v>0.272605547657619</v>
       </c>
       <c r="AA3">
         <v>428</v>
@@ -1058,49 +1055,49 @@
         <v>93</v>
       </c>
       <c r="L4">
-        <v>172.7732299764028</v>
+        <v>33.08536082474227</v>
       </c>
       <c r="M4">
-        <v>187.6358839623083</v>
+        <v>53.92420618556701</v>
       </c>
       <c r="N4">
-        <v>210.2517768995839</v>
+        <v>37.13632989690721</v>
       </c>
       <c r="O4" t="s">
         <v>107</v>
       </c>
       <c r="P4">
-        <v>0.6960251889168766</v>
+        <v>0.8377406092319193</v>
       </c>
       <c r="Q4">
-        <v>153.8308242811499</v>
+        <v>46.87076923076921</v>
       </c>
       <c r="R4">
-        <v>167.9830031948883</v>
+        <v>67.18358974358972</v>
       </c>
       <c r="S4">
-        <v>188.8616996805116</v>
+        <v>47.68358974358974</v>
       </c>
       <c r="T4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U4">
-        <v>0.1970982367758186</v>
+        <v>0.1443188189123528</v>
       </c>
       <c r="V4">
-        <v>35.32824211570215</v>
+        <v>99.24137931034483</v>
       </c>
       <c r="W4">
-        <v>56.05699335311498</v>
+        <v>115.3256704980843</v>
       </c>
       <c r="X4">
-        <v>39.02866166969977</v>
+        <v>114.1494252873563</v>
       </c>
       <c r="Y4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z4">
-        <v>0.1068765743073048</v>
+        <v>0.0179405718557279</v>
       </c>
       <c r="AA4">
         <v>299</v>
@@ -1153,49 +1150,49 @@
         <v>94</v>
       </c>
       <c r="L5">
-        <v>171.6524343774405</v>
+        <v>74.59150057651128</v>
       </c>
       <c r="M5">
-        <v>186.0459767897252</v>
+        <v>72.10772525119421</v>
       </c>
       <c r="N5">
-        <v>209.8695459237344</v>
+        <v>48.63482128150223</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5">
-        <v>0.5529653333333333</v>
+        <v>0.4851644753412926</v>
       </c>
       <c r="Q5">
-        <v>151.0872798556223</v>
+        <v>48.29093440055681</v>
       </c>
       <c r="R5">
-        <v>163.9499035409798</v>
+        <v>49.33252131546895</v>
       </c>
       <c r="S5">
-        <v>185.6025110461135</v>
+        <v>32.10875239255263</v>
       </c>
       <c r="T5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U5">
-        <v>0.3426986666666667</v>
+        <v>0.4782126844995214</v>
       </c>
       <c r="V5">
-        <v>62.50738639268459</v>
+        <v>109.4808510638298</v>
       </c>
       <c r="W5">
-        <v>61.79379440779776</v>
+        <v>112.6191489361702</v>
       </c>
       <c r="X5">
-        <v>41.63170270407647</v>
+        <v>107.4170212765957</v>
       </c>
       <c r="Y5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Z5">
-        <v>0.104336</v>
+        <v>0.03662284015918593</v>
       </c>
       <c r="AA5">
         <v>287</v>
@@ -1248,49 +1245,49 @@
         <v>95</v>
       </c>
       <c r="L6">
-        <v>122.6752668101727</v>
+        <v>126.0449522102748</v>
       </c>
       <c r="M6">
-        <v>133.2995499224752</v>
+        <v>137.0162783751494</v>
       </c>
       <c r="N6">
-        <v>155.9353107642291</v>
+        <v>163.2979390681004</v>
       </c>
       <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6">
+        <v>0.5529952117230766</v>
+      </c>
+      <c r="Q6">
+        <v>113.5908115070846</v>
+      </c>
+      <c r="R6">
+        <v>123.6835551738944</v>
+      </c>
+      <c r="S6">
+        <v>139.900601116359</v>
+      </c>
+      <c r="T6" t="s">
         <v>109</v>
       </c>
-      <c r="P6">
-        <v>0.5690364025695932</v>
-      </c>
-      <c r="Q6">
-        <v>153.8474315087378</v>
-      </c>
-      <c r="R6">
-        <v>166.3450154648808</v>
-      </c>
-      <c r="S6">
-        <v>197.2461172689396</v>
-      </c>
-      <c r="T6" t="s">
-        <v>113</v>
-      </c>
       <c r="U6">
-        <v>0.3890835117773019</v>
+        <v>0.373454355144859</v>
       </c>
       <c r="V6">
-        <v>52.67208422774856</v>
+        <v>50.69700214132762</v>
       </c>
       <c r="W6">
-        <v>70.54451599713286</v>
+        <v>69.00428265524627</v>
       </c>
       <c r="X6">
-        <v>35.40294388225121</v>
+        <v>32.83297644539615</v>
       </c>
       <c r="Y6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z6">
-        <v>0.04188008565310492</v>
+        <v>0.07355043313206427</v>
       </c>
       <c r="AA6">
         <v>499</v>
@@ -1343,49 +1340,49 @@
         <v>96</v>
       </c>
       <c r="L7">
-        <v>130.2153140167135</v>
+        <v>57.04837443065809</v>
       </c>
       <c r="M7">
-        <v>142.5762781447286</v>
+        <v>74.68540914088271</v>
       </c>
       <c r="N7">
-        <v>169.1631390723637</v>
+        <v>53.8041463797707</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7">
-        <v>0.5621128205128205</v>
+        <v>0.498578140454995</v>
       </c>
       <c r="Q7">
-        <v>141.6161632228142</v>
+        <v>48.34974267173864</v>
       </c>
       <c r="R7">
-        <v>155.2422459042467</v>
+        <v>65.78496307898858</v>
       </c>
       <c r="S7">
-        <v>188.0124643926126</v>
+        <v>45.73797270082792</v>
       </c>
       <c r="T7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U7">
-        <v>0.354651282051282</v>
+        <v>0.3814910979228487</v>
       </c>
       <c r="V7">
-        <v>55.74394676853434</v>
+        <v>71.99931129476585</v>
       </c>
       <c r="W7">
-        <v>73.41741112685592</v>
+        <v>90.39393939393938</v>
       </c>
       <c r="X7">
-        <v>52.70864395292821</v>
+        <v>68.64669421487604</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z7">
-        <v>0.08323589743589743</v>
+        <v>0.1199307616221563</v>
       </c>
       <c r="AA7">
         <v>216</v>
@@ -1441,49 +1438,49 @@
         <v>97</v>
       </c>
       <c r="L8">
-        <v>221.8846870062522</v>
+        <v>59.8522209567198</v>
       </c>
       <c r="M8">
-        <v>218.1225171168326</v>
+        <v>96.46568906605923</v>
       </c>
       <c r="N8">
-        <v>213.5128846587863</v>
+        <v>19.56947608200455</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P8">
-        <v>0.5656010638297873</v>
+        <v>0.5563202828237241</v>
       </c>
       <c r="Q8">
-        <v>53.75551149508335</v>
+        <v>42.78999999999998</v>
       </c>
       <c r="R8">
-        <v>90.6163905018005</v>
+        <v>80.23206896551723</v>
       </c>
       <c r="S8">
-        <v>15.63958520195835</v>
+        <v>9.143103448275861</v>
       </c>
       <c r="T8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U8">
-        <v>0.3361010638297872</v>
+        <v>0.2699612621760878</v>
       </c>
       <c r="V8">
-        <v>84.49048170832825</v>
+        <v>85.52622673434855</v>
       </c>
       <c r="W8">
-        <v>117.3252220934754</v>
+        <v>118.0833333333333</v>
       </c>
       <c r="X8">
-        <v>39.85057661535133</v>
+        <v>40.42554991539763</v>
       </c>
       <c r="Y8" t="s">
         <v>106</v>
       </c>
       <c r="Z8">
-        <v>0.09829787234042553</v>
+        <v>0.173718455000188</v>
       </c>
       <c r="AA8">
         <v>520</v>
@@ -1539,49 +1536,49 @@
         <v>98</v>
       </c>
       <c r="L9">
-        <v>219.2320885573494</v>
+        <v>30.48150122614352</v>
       </c>
       <c r="M9">
-        <v>217.7762548869809</v>
+        <v>68.68130930802859</v>
       </c>
       <c r="N9">
-        <v>217.3025210084094</v>
+        <v>11.19746241603583</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P9">
-        <v>0.7027789473684211</v>
+        <v>0.7729343587126872</v>
       </c>
       <c r="Q9">
-        <v>36.58030148475714</v>
+        <v>66.10406189555127</v>
       </c>
       <c r="R9">
-        <v>73.96851033283376</v>
+        <v>99.64835589941973</v>
       </c>
       <c r="S9">
-        <v>14.91884846422417</v>
+        <v>34.96711798839458</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U9">
-        <v>0.2785263157894737</v>
+        <v>0.1980901702081131</v>
       </c>
       <c r="V9">
-        <v>135.6007336343116</v>
+        <v>169.25</v>
       </c>
       <c r="W9">
-        <v>151.6467268623025</v>
+        <v>177.8796296296296</v>
       </c>
       <c r="X9">
-        <v>124.6975169300221</v>
+        <v>159.4845679012346</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Z9">
-        <v>0.01869473684210526</v>
+        <v>0.02897547107919962</v>
       </c>
       <c r="AA9">
         <v>453</v>
@@ -1637,49 +1634,49 @@
         <v>99</v>
       </c>
       <c r="L10">
-        <v>211.2274908387691</v>
+        <v>25.04223198180535</v>
       </c>
       <c r="M10">
-        <v>208.9123625816136</v>
+        <v>63.14359658066034</v>
       </c>
       <c r="N10">
-        <v>206.2215942323034</v>
+        <v>8.312720570935614</v>
       </c>
       <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10">
+        <v>0.747759932375317</v>
+      </c>
+      <c r="Q10">
+        <v>62.32370557699988</v>
+      </c>
+      <c r="R10">
+        <v>95.71103420737388</v>
+      </c>
+      <c r="S10">
+        <v>23.58538533209105</v>
+      </c>
+      <c r="T10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10">
+        <v>0.2273316427162581</v>
+      </c>
+      <c r="V10">
+        <v>112.4478764478764</v>
+      </c>
+      <c r="W10">
+        <v>133.3526383526383</v>
+      </c>
+      <c r="X10">
+        <v>89.80051480051483</v>
+      </c>
+      <c r="Y10" t="s">
         <v>111</v>
       </c>
-      <c r="P10">
-        <v>0.9008279569892473</v>
-      </c>
-      <c r="Q10">
-        <v>26.63027559578589</v>
-      </c>
-      <c r="R10">
-        <v>64.52003727865213</v>
-      </c>
-      <c r="S10">
-        <v>8.543602716031558</v>
-      </c>
-      <c r="T10" t="s">
-        <v>105</v>
-      </c>
-      <c r="U10">
-        <v>0.08077956989247312</v>
-      </c>
-      <c r="V10">
-        <v>77.24123831775718</v>
-      </c>
-      <c r="W10">
-        <v>105.9357476635525</v>
-      </c>
-      <c r="X10">
-        <v>40.31600467289468</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>106</v>
-      </c>
       <c r="Z10">
-        <v>0.01839247311827957</v>
+        <v>0.02490842490842491</v>
       </c>
       <c r="AA10">
         <v>127</v>
@@ -1735,49 +1732,49 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>214.5962834987609</v>
+        <v>56.73730591691146</v>
       </c>
       <c r="M11">
-        <v>210.341278400136</v>
+        <v>73.80276961812841</v>
       </c>
       <c r="N11">
-        <v>204.9647423905637</v>
+        <v>24.31542873129109</v>
       </c>
       <c r="O11" t="s">
         <v>106</v>
       </c>
       <c r="P11">
-        <v>0.7428283378746594</v>
+        <v>0.4907691331655635</v>
       </c>
       <c r="Q11">
-        <v>59.30306466135823</v>
+        <v>76.9210566733221</v>
       </c>
       <c r="R11">
-        <v>76.36402441058524</v>
+        <v>93.91952081093535</v>
       </c>
       <c r="S11">
-        <v>27.15283289426762</v>
+        <v>47.44785747197052</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U11">
-        <v>0.1651444141689373</v>
+        <v>0.4624103876329647</v>
       </c>
       <c r="V11">
-        <v>84.3973956516714</v>
+        <v>123.2899408284024</v>
       </c>
       <c r="W11">
-        <v>100.3088594349492</v>
+        <v>131.6449704142011</v>
       </c>
       <c r="X11">
-        <v>57.47093361237843</v>
+        <v>109.3076923076923</v>
       </c>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Z11">
-        <v>0.09202724795640327</v>
+        <v>0.04682047920147187</v>
       </c>
       <c r="AA11">
         <v>391</v>
@@ -1833,49 +1830,49 @@
         <v>101</v>
       </c>
       <c r="L12">
-        <v>201.4368865399079</v>
+        <v>50.67990150815636</v>
       </c>
       <c r="M12">
-        <v>199.816989106027</v>
+        <v>63.9854570637119</v>
       </c>
       <c r="N12">
-        <v>197.0657658629451</v>
+        <v>26.6241920590951</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P12">
-        <v>0.5228820512820512</v>
+        <v>0.5235474006116208</v>
       </c>
       <c r="Q12">
-        <v>183.383432378895</v>
+        <v>70.3199668141593</v>
       </c>
       <c r="R12">
-        <v>182.4128819256855</v>
+        <v>82.94957595870207</v>
       </c>
       <c r="S12">
-        <v>180.6446605438499</v>
+        <v>43.69321533923303</v>
       </c>
       <c r="T12" t="s">
         <v>106</v>
       </c>
       <c r="U12">
-        <v>0.4272615384615385</v>
+        <v>0.4462793068297655</v>
       </c>
       <c r="V12">
-        <v>60.54896111909838</v>
+        <v>113.9549180327869</v>
       </c>
       <c r="W12">
-        <v>73.46019337585022</v>
+        <v>122.1680327868852</v>
       </c>
       <c r="X12">
-        <v>35.59031063568744</v>
+        <v>102.9562841530055</v>
       </c>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z12">
-        <v>0.04985641025641026</v>
+        <v>0.03017329255861366</v>
       </c>
       <c r="AA12">
         <v>171</v>
@@ -1931,49 +1928,49 @@
         <v>102</v>
       </c>
       <c r="L13">
-        <v>209.4411456859088</v>
+        <v>34.66468078412867</v>
       </c>
       <c r="M13">
-        <v>208.0204859488259</v>
+        <v>61.95664484162099</v>
       </c>
       <c r="N13">
-        <v>208.4494137937803</v>
+        <v>15.51691932597968</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P13">
-        <v>0.8300765027322404</v>
+        <v>0.6794876582396654</v>
       </c>
       <c r="Q13">
-        <v>41.01335407260117</v>
+        <v>56.72618453865336</v>
       </c>
       <c r="R13">
-        <v>67.53761523578665</v>
+        <v>81.5252369077307</v>
       </c>
       <c r="S13">
-        <v>19.91608179370849</v>
+        <v>30.53710723192019</v>
       </c>
       <c r="T13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U13">
-        <v>0.1440382513661202</v>
+        <v>0.2951193099070167</v>
       </c>
       <c r="V13">
-        <v>159.8989856297552</v>
+        <v>119.2796657381615</v>
       </c>
       <c r="W13">
-        <v>164.1223584108203</v>
+        <v>132.533704735376</v>
       </c>
       <c r="X13">
-        <v>157.4387151310225</v>
+        <v>119.8880222841225</v>
       </c>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Z13">
-        <v>0.02588524590163934</v>
+        <v>0.0253930318533179</v>
       </c>
       <c r="AA13">
         <v>181</v>
@@ -2029,49 +2026,49 @@
         <v>103</v>
       </c>
       <c r="L14">
-        <v>209.0764199124769</v>
+        <v>29.31262158141664</v>
       </c>
       <c r="M14">
-        <v>205.4390274556428</v>
+        <v>62.09486211236984</v>
       </c>
       <c r="N14">
-        <v>200.4619414325455</v>
+        <v>8.833848266392033</v>
       </c>
       <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14">
+        <v>0.7074820907402494</v>
+      </c>
+      <c r="Q14">
+        <v>46.85687022900764</v>
+      </c>
+      <c r="R14">
+        <v>76.28594147582697</v>
+      </c>
+      <c r="S14">
+        <v>21.87213740458015</v>
+      </c>
+      <c r="T14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U14">
+        <v>0.2598169275669939</v>
+      </c>
+      <c r="V14">
+        <v>109.3086419753087</v>
+      </c>
+      <c r="W14">
+        <v>125.7827160493827</v>
+      </c>
+      <c r="X14">
+        <v>98.95308641975308</v>
+      </c>
+      <c r="Y14" t="s">
         <v>111</v>
       </c>
-      <c r="P14">
-        <v>0.9164712041884817</v>
-      </c>
-      <c r="Q14">
-        <v>33.55626383948211</v>
-      </c>
-      <c r="R14">
-        <v>65.45091592297919</v>
-      </c>
-      <c r="S14">
-        <v>12.01214520565472</v>
-      </c>
-      <c r="T14" t="s">
-        <v>105</v>
-      </c>
-      <c r="U14">
-        <v>0.07802617801047121</v>
-      </c>
-      <c r="V14">
-        <v>126.8972407231211</v>
-      </c>
-      <c r="W14">
-        <v>139.4509990485251</v>
-      </c>
-      <c r="X14">
-        <v>119.3577545195052</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>114</v>
-      </c>
       <c r="Z14">
-        <v>0.005502617801047121</v>
+        <v>0.0327009816927567</v>
       </c>
       <c r="AA14">
         <v>226</v>
@@ -2127,49 +2124,49 @@
         <v>104</v>
       </c>
       <c r="L15">
-        <v>214.1090377480807</v>
+        <v>38.77505926979612</v>
       </c>
       <c r="M15">
-        <v>210.49493841974</v>
+        <v>70.3650545282124</v>
       </c>
       <c r="N15">
-        <v>208.0073441184848</v>
+        <v>12.56076339497393</v>
       </c>
       <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15">
+        <v>0.6718002392344498</v>
+      </c>
+      <c r="Q15">
+        <v>72.04190536813066</v>
+      </c>
+      <c r="R15">
+        <v>102.4348079779333</v>
+      </c>
+      <c r="S15">
+        <v>29.77928071292169</v>
+      </c>
+      <c r="T15" t="s">
         <v>106</v>
       </c>
-      <c r="P15">
-        <v>0.7513367875647669</v>
-      </c>
-      <c r="Q15">
-        <v>39.16224991224877</v>
-      </c>
-      <c r="R15">
-        <v>70.73394173393393</v>
-      </c>
-      <c r="S15">
-        <v>12.65052065049812</v>
-      </c>
-      <c r="T15" t="s">
-        <v>111</v>
-      </c>
       <c r="U15">
-        <v>0.1778031088082901</v>
+        <v>0.306156015037594</v>
       </c>
       <c r="V15">
-        <v>78.00891433541096</v>
+        <v>122.1222067039106</v>
       </c>
       <c r="W15">
-        <v>106.9762284389017</v>
+        <v>137.3617318435755</v>
       </c>
       <c r="X15">
-        <v>36.64190462386222</v>
+        <v>100.1494413407822</v>
       </c>
       <c r="Y15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z15">
-        <v>0.07086010362694301</v>
+        <v>0.02204374572795625</v>
       </c>
       <c r="AA15">
         <v>290</v>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="114">
   <si>
     <t>Image_Label</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Solidity</t>
   </si>
   <si>
+    <t>Angle</t>
+  </si>
+  <si>
     <t>p1</t>
   </si>
   <si>
@@ -289,46 +292,46 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#2e5013', '#1d3e0d', '#47672e']</t>
-  </si>
-  <si>
-    <t>['#606e47', '#374e1c', '#411b17']</t>
-  </si>
-  <si>
-    <t>['#213625', '#2f4330', '#637372']</t>
-  </si>
-  <si>
-    <t>['#4b4831', '#303120', '#6d716b']</t>
+    <t>['#20410e', '#325316', '#52703e']</t>
+  </si>
+  <si>
+    <t>['#526335', '#392c16', '#7e8377']</t>
+  </si>
+  <si>
+    <t>['#213625', '#2d412e', '#60716e']</t>
+  </si>
+  <si>
+    <t>['#313221', '#4c4932', '#737876']</t>
   </si>
   <si>
     <t>['#7e89a3', '#727c8c', '#334521']</t>
   </si>
   <si>
-    <t>['#394b36', '#30422e', '#485a45']</t>
-  </si>
-  <si>
-    <t>['#3c6014', '#2b5009', '#567628']</t>
-  </si>
-  <si>
-    <t>['#1e450b', '#426423', '#a9b29f']</t>
-  </si>
-  <si>
-    <t>['#193f08', '#3e6018', '#70855a']</t>
-  </si>
-  <si>
-    <t>['#394a18', '#4d5e2f', '#7b846d']</t>
-  </si>
-  <si>
-    <t>['#33401b', '#46532c', '#727a67']</t>
-  </si>
-  <si>
-    <t>['#233e10', '#39521f', '#778578']</t>
-  </si>
-  <si>
-    <t>['#1d3e09', '#2f4c16', '#6d7e63']</t>
-  </si>
-  <si>
-    <t>['#27460d', '#48661e', '#7a8964']</t>
+    <t>['#394b36', '#31422e', '#485a44']</t>
+  </si>
+  <si>
+    <t>['#30550c', '#426618', '#617e33']</t>
+  </si>
+  <si>
+    <t>['#1f450b', '#426322', '#a7b09d']</t>
+  </si>
+  <si>
+    <t>['#183e08', '#395b14', '#637b43']</t>
+  </si>
+  <si>
+    <t>['#384918', '#4c5d2f', '#79826a']</t>
+  </si>
+  <si>
+    <t>['#32401a', '#46532b', '#717a66']</t>
+  </si>
+  <si>
+    <t>['#223d0f', '#37501d', '#758274']</t>
+  </si>
+  <si>
+    <t>['#1d3e09', '#2e4b15', '#6c7c61']</t>
+  </si>
+  <si>
+    <t>['#27460d', '#48661e', '#798961']</t>
   </si>
   <si>
     <t>darkgreen</t>
@@ -346,16 +349,13 @@
     <t>slategray</t>
   </si>
   <si>
-    <t>maroon</t>
+    <t>gray</t>
   </si>
   <si>
     <t>dimgray</t>
   </si>
   <si>
     <t>darkgray</t>
-  </si>
-  <si>
-    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -726,13 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,28 +829,31 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>43641</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>37.2463215678</v>
@@ -859,96 +862,99 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2">
-        <v>45.97814836112708</v>
+        <v>32.00785769379127</v>
       </c>
       <c r="M2">
-        <v>79.56411730879816</v>
+        <v>64.96418241419161</v>
       </c>
       <c r="N2">
-        <v>19.43789534215066</v>
+        <v>14.21635171615906</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P2">
-        <v>0.5463167437643832</v>
+        <v>0.4822055370882633</v>
       </c>
       <c r="Q2">
-        <v>29.27318355640535</v>
+        <v>49.87979788164434</v>
       </c>
       <c r="R2">
-        <v>61.88121414913958</v>
+        <v>83.36186959479139</v>
       </c>
       <c r="S2">
-        <v>13.46534416826004</v>
+        <v>21.86060635506763</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U2">
-        <v>0.3745786745391571</v>
+        <v>0.478555986889514</v>
       </c>
       <c r="V2">
-        <v>71.14808362369338</v>
+        <v>82.48552864737161</v>
       </c>
       <c r="W2">
-        <v>102.7508710801394</v>
+        <v>111.8133490844655</v>
       </c>
       <c r="X2">
-        <v>46.02003484320558</v>
+        <v>61.50502067336102</v>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z2">
-        <v>0.0791045816964597</v>
+        <v>0.03923847602222274</v>
       </c>
       <c r="AA2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AB2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AC2">
         <v>42647</v>
       </c>
       <c r="AD2">
-        <v>1.0187265917603</v>
+        <v>1.049586776859504</v>
       </c>
       <c r="AE2">
-        <v>0.7050139690201849</v>
+        <v>0.6938081603435934</v>
       </c>
       <c r="AF2">
         <v>0.9190767639325891</v>
       </c>
+      <c r="AG2">
+        <v>105.9358596801758</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>37.3504969752</v>
@@ -957,93 +963,96 @@
         <v>-80.4847910049</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3">
-        <v>95.9524976437323</v>
+        <v>82.44866255144072</v>
       </c>
       <c r="M3">
-        <v>110.2499528746466</v>
+        <v>99.45085733882124</v>
       </c>
       <c r="N3">
-        <v>70.85183788878417</v>
+        <v>52.7458161865576</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P3">
-        <v>0.3954607068469601</v>
+        <v>0.4818990313088901</v>
       </c>
       <c r="Q3">
-        <v>55.08265582655827</v>
+        <v>57.26036341927487</v>
       </c>
       <c r="R3">
-        <v>77.52032520325203</v>
+        <v>43.91903287190843</v>
       </c>
       <c r="S3">
-        <v>28.02484191508582</v>
+        <v>21.70807059438245</v>
       </c>
       <c r="T3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U3">
-        <v>0.331933745495421</v>
+        <v>0.4434654676496843</v>
       </c>
       <c r="V3">
-        <v>65.05141100866163</v>
+        <v>126.394881976616</v>
       </c>
       <c r="W3">
-        <v>26.80441464096117</v>
+        <v>131.2717846900509</v>
       </c>
       <c r="X3">
-        <v>22.63704945515507</v>
+        <v>119.2565629825732</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z3">
-        <v>0.272605547657619</v>
+        <v>0.07463550104142559</v>
       </c>
       <c r="AA3">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="AB3">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="AC3">
         <v>60445</v>
       </c>
       <c r="AD3">
-        <v>0.9204301075268817</v>
+        <v>1.084057971014493</v>
       </c>
       <c r="AE3">
-        <v>0.4723446486621655</v>
+        <v>0.4684569479965899</v>
       </c>
       <c r="AF3">
         <v>0.6568537958314317</v>
       </c>
+      <c r="AG3">
+        <v>46.17789459228516</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>43821</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>37.2461629761</v>
@@ -1052,93 +1061,96 @@
         <v>-80.4092512154</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>33.08536082474227</v>
+        <v>32.69142990218924</v>
       </c>
       <c r="M4">
-        <v>53.92420618556701</v>
+        <v>53.51251746623188</v>
       </c>
       <c r="N4">
-        <v>37.13632989690721</v>
+        <v>36.8965999068468</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P4">
-        <v>0.8377406092319193</v>
+        <v>0.802420108390955</v>
       </c>
       <c r="Q4">
-        <v>46.87076923076921</v>
+        <v>44.57684265551495</v>
       </c>
       <c r="R4">
-        <v>67.18358974358972</v>
+        <v>65.10663878724515</v>
       </c>
       <c r="S4">
-        <v>47.68358974358974</v>
+        <v>45.50888656560375</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U4">
-        <v>0.1443188189123528</v>
+        <v>0.1787516352083723</v>
       </c>
       <c r="V4">
-        <v>99.24137931034483</v>
+        <v>96.38557213930358</v>
       </c>
       <c r="W4">
-        <v>115.3256704980843</v>
+        <v>112.9875621890547</v>
       </c>
       <c r="X4">
-        <v>114.1494252873563</v>
+        <v>110.2960199004975</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z4">
-        <v>0.0179405718557279</v>
+        <v>0.01882825640067277</v>
       </c>
       <c r="AA4">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AB4">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AC4">
         <v>21082</v>
       </c>
       <c r="AD4">
-        <v>2.120567375886525</v>
+        <v>2.478991596638656</v>
       </c>
       <c r="AE4">
-        <v>0.6181679568379076</v>
+        <v>0.6005412334425295</v>
       </c>
       <c r="AF4">
         <v>0.8983105013102669</v>
       </c>
+      <c r="AG4">
+        <v>89.91668701171875</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>43837</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>37.2463788487</v>
@@ -1147,286 +1159,295 @@
         <v>-80.4095616039</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>74.59150057651128</v>
+        <v>49.08198207271602</v>
       </c>
       <c r="M5">
-        <v>72.10772525119421</v>
+        <v>50.01510726155686</v>
       </c>
       <c r="N5">
-        <v>48.63482128150223</v>
+        <v>32.56742874408293</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>0.4851644753412926</v>
+        <v>0.500176313535842</v>
       </c>
       <c r="Q5">
-        <v>48.29093440055681</v>
+        <v>75.93321881039293</v>
       </c>
       <c r="R5">
-        <v>49.33252131546895</v>
+        <v>73.36772600386523</v>
       </c>
       <c r="S5">
-        <v>32.10875239255263</v>
+        <v>49.87889199055191</v>
       </c>
       <c r="T5" t="s">
         <v>107</v>
       </c>
       <c r="U5">
-        <v>0.4782126844995214</v>
+        <v>0.4691955065236008</v>
       </c>
       <c r="V5">
-        <v>109.4808510638298</v>
+        <v>115.1134868421052</v>
       </c>
       <c r="W5">
-        <v>112.6191489361702</v>
+        <v>119.5723684210526</v>
       </c>
       <c r="X5">
-        <v>107.4170212765957</v>
+        <v>118.4901315789474</v>
       </c>
       <c r="Y5" t="s">
         <v>111</v>
       </c>
       <c r="Z5">
-        <v>0.03662284015918593</v>
+        <v>0.03062817994055715</v>
       </c>
       <c r="AA5">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AB5">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AC5">
         <v>19528.5</v>
       </c>
       <c r="AD5">
-        <v>1.269911504424779</v>
+        <v>1.756578947368421</v>
       </c>
       <c r="AE5">
-        <v>0.4927208962002321</v>
+        <v>0.4811871673565937</v>
       </c>
       <c r="AF5">
         <v>0.741386837759344</v>
       </c>
+      <c r="AG5">
+        <v>83.74250793457031</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>126.0449522102748</v>
+        <v>125.8731294821853</v>
       </c>
       <c r="M6">
-        <v>137.0162783751494</v>
+        <v>136.8333474504473</v>
       </c>
       <c r="N6">
-        <v>163.2979390681004</v>
+        <v>163.1228189056415</v>
       </c>
       <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6">
+        <v>0.5533310941173714</v>
+      </c>
+      <c r="Q6">
+        <v>113.5558440470702</v>
+      </c>
+      <c r="R6">
+        <v>123.6226391389919</v>
+      </c>
+      <c r="S6">
+        <v>139.7157334896777</v>
+      </c>
+      <c r="T6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6">
+        <v>0.3730637942212606</v>
+      </c>
+      <c r="V6">
+        <v>51.19274424525621</v>
+      </c>
+      <c r="W6">
+        <v>69.36353028534811</v>
+      </c>
+      <c r="X6">
+        <v>33.47268484140375</v>
+      </c>
+      <c r="Y6" t="s">
         <v>108</v>
       </c>
-      <c r="P6">
-        <v>0.5529952117230766</v>
-      </c>
-      <c r="Q6">
-        <v>113.5908115070846</v>
-      </c>
-      <c r="R6">
-        <v>123.6835551738944</v>
-      </c>
-      <c r="S6">
-        <v>139.900601116359</v>
-      </c>
-      <c r="T6" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6">
-        <v>0.373454355144859</v>
-      </c>
-      <c r="V6">
-        <v>50.69700214132762</v>
-      </c>
-      <c r="W6">
-        <v>69.00428265524627</v>
-      </c>
-      <c r="X6">
-        <v>32.83297644539615</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>107</v>
-      </c>
       <c r="Z6">
-        <v>0.07355043313206427</v>
+        <v>0.07360511166136806</v>
       </c>
       <c r="AA6">
         <v>499</v>
       </c>
       <c r="AB6">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AC6">
-        <v>227544</v>
+        <v>126945.5</v>
       </c>
       <c r="AD6">
-        <v>1.094298245614035</v>
+        <v>1.089519650655022</v>
       </c>
       <c r="AE6">
-        <v>227544</v>
+        <v>0.5554580777275074</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.7743199680379641</v>
+      </c>
+      <c r="AG6">
+        <v>63.34011459350586</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>57.04837443065809</v>
+        <v>57.28499114148319</v>
       </c>
       <c r="M7">
-        <v>74.68540914088271</v>
+        <v>74.96583143507972</v>
       </c>
       <c r="N7">
-        <v>53.8041463797707</v>
+        <v>54.02417109592508</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P7">
-        <v>0.498578140454995</v>
+        <v>0.4885014836795252</v>
       </c>
       <c r="Q7">
-        <v>48.34974267173864</v>
+        <v>48.69292706030945</v>
       </c>
       <c r="R7">
-        <v>65.78496307898858</v>
+        <v>66.13688032838641</v>
       </c>
       <c r="S7">
-        <v>45.73797270082792</v>
+        <v>46.01720871487225</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U7">
-        <v>0.3814910979228487</v>
+        <v>0.3915677546983185</v>
       </c>
       <c r="V7">
-        <v>71.99931129476585</v>
+        <v>71.8113402061856</v>
       </c>
       <c r="W7">
-        <v>90.39393939393938</v>
+        <v>90.21494845360823</v>
       </c>
       <c r="X7">
-        <v>68.64669421487604</v>
+        <v>68.46855670103103</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z7">
         <v>0.1199307616221563</v>
       </c>
       <c r="AA7">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="AB7">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AC7">
         <v>15944.5</v>
       </c>
       <c r="AD7">
-        <v>0.9473684210526315</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="AE7">
-        <v>0.6242463393626184</v>
+        <v>0.5118290960451978</v>
       </c>
       <c r="AF7">
         <v>0.961902750965251</v>
       </c>
+      <c r="AG7">
+        <v>3.063427686691284</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>37.2504015</v>
@@ -1435,96 +1456,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>59.8522209567198</v>
+        <v>48.22573214873302</v>
       </c>
       <c r="M8">
-        <v>96.46568906605923</v>
+        <v>85.40270922452594</v>
       </c>
       <c r="N8">
-        <v>19.56947608200455</v>
+        <v>12.27149829987851</v>
       </c>
       <c r="O8" t="s">
         <v>106</v>
       </c>
       <c r="P8">
-        <v>0.5563202828237241</v>
+        <v>0.4571815412388582</v>
       </c>
       <c r="Q8">
-        <v>42.78999999999998</v>
+        <v>66.09947236878654</v>
       </c>
       <c r="R8">
-        <v>80.23206896551723</v>
+        <v>102.4359344626493</v>
       </c>
       <c r="S8">
-        <v>9.143103448275861</v>
+        <v>23.85592890863636</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U8">
-        <v>0.2699612621760878</v>
+        <v>0.4511264056564745</v>
       </c>
       <c r="V8">
-        <v>85.52622673434855</v>
+        <v>96.50637947592256</v>
       </c>
       <c r="W8">
-        <v>118.0833333333333</v>
+        <v>125.7557964055427</v>
       </c>
       <c r="X8">
-        <v>40.42554991539763</v>
+        <v>50.51173000411519</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z8">
-        <v>0.173718455000188</v>
+        <v>0.09169205310466734</v>
       </c>
       <c r="AA8">
-        <v>520</v>
+        <v>362</v>
       </c>
       <c r="AB8">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="AC8">
         <v>80554.5</v>
       </c>
       <c r="AD8">
-        <v>1.001926782273603</v>
+        <v>0.7991169977924945</v>
       </c>
       <c r="AE8">
-        <v>0.5129716305282261</v>
+        <v>0.4912279096996085</v>
       </c>
       <c r="AF8">
         <v>0.7763765336314659</v>
       </c>
+      <c r="AG8">
+        <v>127.713134765625</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>37.2496022353</v>
@@ -1533,96 +1557,99 @@
         <v>-80.66670543399999</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9">
-        <v>30.48150122614352</v>
+        <v>30.5734663412542</v>
       </c>
       <c r="M9">
-        <v>68.68130930802859</v>
+        <v>68.71120536454767</v>
       </c>
       <c r="N9">
-        <v>11.19746241603583</v>
+        <v>11.2331587801807</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9">
-        <v>0.7729343587126872</v>
+        <v>0.7691256332689433</v>
       </c>
       <c r="Q9">
-        <v>66.10406189555127</v>
+        <v>65.56579185520285</v>
       </c>
       <c r="R9">
-        <v>99.64835589941973</v>
+        <v>99.12787330316644</v>
       </c>
       <c r="S9">
-        <v>34.96711798839458</v>
+        <v>34.39683257918497</v>
       </c>
       <c r="T9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U9">
-        <v>0.1980901702081131</v>
+        <v>0.2013339650836462</v>
       </c>
       <c r="V9">
-        <v>169.25</v>
+        <v>166.726095003084</v>
       </c>
       <c r="W9">
-        <v>177.8796296296296</v>
+        <v>175.6785934608267</v>
       </c>
       <c r="X9">
-        <v>159.4845679012346</v>
+        <v>157.0876002467605</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z9">
-        <v>0.02897547107919962</v>
+        <v>0.02954040164741043</v>
       </c>
       <c r="AA9">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="AB9">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="AC9">
         <v>54472</v>
       </c>
       <c r="AD9">
-        <v>0.9977973568281938</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="AE9">
-        <v>0.3836461598056133</v>
+        <v>0.3776064773735581</v>
       </c>
       <c r="AF9">
         <v>0.6177539621785603</v>
       </c>
+      <c r="AG9">
+        <v>29.49881362915039</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>37.2485728184</v>
@@ -1631,96 +1658,99 @@
         <v>-80.66748366829999</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>25.04223198180535</v>
+        <v>24.0497808390732</v>
       </c>
       <c r="M10">
-        <v>63.14359658066034</v>
+        <v>62.21407326236701</v>
       </c>
       <c r="N10">
-        <v>8.312720570935614</v>
+        <v>8.119990607388939</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P10">
-        <v>0.747759932375317</v>
+        <v>0.7199211045364892</v>
       </c>
       <c r="Q10">
-        <v>62.32370557699988</v>
+        <v>57.09934577174681</v>
       </c>
       <c r="R10">
-        <v>95.71103420737388</v>
+        <v>91.42040222922199</v>
       </c>
       <c r="S10">
-        <v>23.58538533209105</v>
+        <v>19.86818512236506</v>
       </c>
       <c r="T10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U10">
-        <v>0.2273316427162581</v>
+        <v>0.2324034939419555</v>
       </c>
       <c r="V10">
-        <v>112.4478764478764</v>
+        <v>98.61520190023751</v>
       </c>
       <c r="W10">
-        <v>133.3526383526383</v>
+        <v>123.4881235154395</v>
       </c>
       <c r="X10">
-        <v>89.80051480051483</v>
+        <v>66.67220902612841</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Z10">
-        <v>0.02490842490842491</v>
+        <v>0.04767540152155537</v>
       </c>
       <c r="AA10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB10">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC10">
-        <v>45085</v>
+        <v>17808</v>
       </c>
       <c r="AD10">
-        <v>0.3577464788732395</v>
+        <v>0.3569405099150141</v>
       </c>
       <c r="AE10">
-        <v>45085</v>
+        <v>0.4003777148253069</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.8890220158753931</v>
+      </c>
+      <c r="AG10">
+        <v>179.0602264404297</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>37.2504015</v>
@@ -1729,96 +1759,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11">
-        <v>56.73730591691146</v>
+        <v>56.19459603354185</v>
       </c>
       <c r="M11">
-        <v>73.80276961812841</v>
+        <v>73.29189405031292</v>
       </c>
       <c r="N11">
-        <v>24.31542873129109</v>
+        <v>23.76214561426931</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P11">
-        <v>0.4907691331655635</v>
+        <v>0.4761985323661894</v>
       </c>
       <c r="Q11">
-        <v>76.9210566733221</v>
+        <v>76.48937215325529</v>
       </c>
       <c r="R11">
-        <v>93.91952081093535</v>
+        <v>93.34455657765463</v>
       </c>
       <c r="S11">
-        <v>47.44785747197052</v>
+        <v>46.77855675627457</v>
       </c>
       <c r="T11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U11">
-        <v>0.4624103876329647</v>
+        <v>0.473724279400258</v>
       </c>
       <c r="V11">
-        <v>123.2899408284024</v>
+        <v>121.4927782497879</v>
       </c>
       <c r="W11">
-        <v>131.6449704142011</v>
+        <v>130.1444350042481</v>
       </c>
       <c r="X11">
-        <v>109.3076923076923</v>
+        <v>106.4655904842826</v>
       </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z11">
-        <v>0.04682047920147187</v>
+        <v>0.05007718823355256</v>
       </c>
       <c r="AA11">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="AB11">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="AC11">
         <v>46800</v>
       </c>
       <c r="AD11">
-        <v>0.9923857868020305</v>
+        <v>1.087837837837838</v>
       </c>
       <c r="AE11">
-        <v>0.5007114810574855</v>
+        <v>0.4910189692798388</v>
       </c>
       <c r="AF11">
         <v>0.7538720511602058</v>
       </c>
+      <c r="AG11">
+        <v>87.69241333007812</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12">
         <v>37.2504015</v>
@@ -1827,96 +1860,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12">
-        <v>50.67990150815636</v>
+        <v>50.45849880857833</v>
       </c>
       <c r="M12">
-        <v>63.9854570637119</v>
+        <v>63.77760127085</v>
       </c>
       <c r="N12">
-        <v>26.6241920590951</v>
+        <v>26.44360603653684</v>
       </c>
       <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12">
+        <v>0.5133537206931702</v>
+      </c>
+      <c r="Q12">
+        <v>69.91886455073768</v>
+      </c>
+      <c r="R12">
+        <v>82.6385784532857</v>
+      </c>
+      <c r="S12">
+        <v>43.39651318730436</v>
+      </c>
+      <c r="T12" t="s">
         <v>107</v>
       </c>
-      <c r="P12">
-        <v>0.5235474006116208</v>
-      </c>
-      <c r="Q12">
-        <v>70.3199668141593</v>
-      </c>
-      <c r="R12">
-        <v>82.94957595870207</v>
-      </c>
-      <c r="S12">
-        <v>43.69321533923303</v>
-      </c>
-      <c r="T12" t="s">
-        <v>106</v>
-      </c>
       <c r="U12">
-        <v>0.4462793068297655</v>
+        <v>0.4560652395514781</v>
       </c>
       <c r="V12">
-        <v>113.9549180327869</v>
+        <v>113.3833333333334</v>
       </c>
       <c r="W12">
-        <v>122.1680327868852</v>
+        <v>121.58</v>
       </c>
       <c r="X12">
-        <v>102.9562841530055</v>
+        <v>102.0833333333333</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z12">
-        <v>0.03017329255861366</v>
+        <v>0.03058103975535168</v>
       </c>
       <c r="AA12">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AB12">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AC12">
         <v>9634</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="AE12">
-        <v>0.6326503808773313</v>
+        <v>0.3413648926369499</v>
       </c>
       <c r="AF12">
         <v>0.9440007838910391</v>
       </c>
+      <c r="AG12">
+        <v>179.1753540039062</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>36660</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>37.2504015</v>
@@ -1925,194 +1961,200 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13">
-        <v>34.66468078412867</v>
+        <v>33.60385088078653</v>
       </c>
       <c r="M13">
-        <v>61.95664484162099</v>
+        <v>60.91964651489427</v>
       </c>
       <c r="N13">
-        <v>15.51691932597968</v>
+        <v>14.9695675074617</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P13">
-        <v>0.6794876582396654</v>
+        <v>0.6380372680085141</v>
       </c>
       <c r="Q13">
-        <v>56.72618453865336</v>
+        <v>54.5344846796657</v>
       </c>
       <c r="R13">
-        <v>81.5252369077307</v>
+        <v>79.82451253481885</v>
       </c>
       <c r="S13">
-        <v>30.53710723192019</v>
+        <v>28.62885793871872</v>
       </c>
       <c r="T13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U13">
-        <v>0.2951193099070167</v>
+        <v>0.3351506777698943</v>
       </c>
       <c r="V13">
-        <v>119.2796657381615</v>
+        <v>117.1255230125523</v>
       </c>
       <c r="W13">
-        <v>132.533704735376</v>
+        <v>130.1910739191073</v>
       </c>
       <c r="X13">
-        <v>119.8880222841225</v>
+        <v>116.4170153417014</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z13">
-        <v>0.0253930318533179</v>
+        <v>0.02681205422159155</v>
       </c>
       <c r="AA13">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB13">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC13">
-        <v>47422</v>
+        <v>26603</v>
       </c>
       <c r="AD13">
-        <v>0.6908396946564885</v>
+        <v>0.685823754789272</v>
       </c>
       <c r="AE13">
-        <v>47422</v>
+        <v>0.5694257154476765</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>0.8941433492983782</v>
+      </c>
+      <c r="AG13">
+        <v>177.54052734375</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>37380</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14">
-        <v>29.31262158141664</v>
+        <v>28.86380451713413</v>
       </c>
       <c r="M14">
-        <v>62.09486211236984</v>
+        <v>61.72975077881609</v>
       </c>
       <c r="N14">
-        <v>8.833848266392033</v>
+        <v>8.59092679127717</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P14">
-        <v>0.7074820907402494</v>
+        <v>0.6812151764393738</v>
       </c>
       <c r="Q14">
-        <v>46.85687022900764</v>
+        <v>45.62962101836793</v>
       </c>
       <c r="R14">
-        <v>76.28594147582697</v>
+        <v>75.28551499651239</v>
       </c>
       <c r="S14">
-        <v>21.87213740458015</v>
+        <v>20.67937688909557</v>
       </c>
       <c r="T14" t="s">
         <v>106</v>
       </c>
       <c r="U14">
-        <v>0.2598169275669939</v>
+        <v>0.2854205359511807</v>
       </c>
       <c r="V14">
-        <v>109.3086419753087</v>
+        <v>107.7176938369782</v>
       </c>
       <c r="W14">
-        <v>125.7827160493827</v>
+        <v>123.5328031809145</v>
       </c>
       <c r="X14">
-        <v>98.95308641975308</v>
+        <v>96.74353876739542</v>
       </c>
       <c r="Y14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z14">
-        <v>0.0327009816927567</v>
+        <v>0.03336428760944548</v>
       </c>
       <c r="AA14">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="AB14">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AC14">
         <v>15060.5</v>
       </c>
       <c r="AD14">
-        <v>0.9826086956521739</v>
+        <v>0.7511520737327189</v>
       </c>
       <c r="AE14">
-        <v>0.4398510514018691</v>
+        <v>0.4257866613892737</v>
       </c>
       <c r="AF14">
         <v>0.7597871052366058</v>
       </c>
+      <c r="AG14">
+        <v>1.601779818534851</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>37920</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>37.2295733</v>
@@ -2121,70 +2163,73 @@
         <v>-80.4139393</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15">
-        <v>38.77505926979612</v>
+        <v>38.79958611906962</v>
       </c>
       <c r="M15">
-        <v>70.3650545282124</v>
+        <v>70.35775230818136</v>
       </c>
       <c r="N15">
-        <v>12.56076339497393</v>
+        <v>12.62158548233079</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P15">
-        <v>0.6718002392344498</v>
+        <v>0.6709244702665755</v>
       </c>
       <c r="Q15">
-        <v>72.04190536813066</v>
+        <v>71.86120424699567</v>
       </c>
       <c r="R15">
-        <v>102.4348079779333</v>
+        <v>102.3265576976802</v>
       </c>
       <c r="S15">
-        <v>29.77928071292169</v>
+        <v>29.54428611343965</v>
       </c>
       <c r="T15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U15">
-        <v>0.306156015037594</v>
+        <v>0.3058356117566644</v>
       </c>
       <c r="V15">
-        <v>122.1222067039106</v>
+        <v>120.7311926605506</v>
       </c>
       <c r="W15">
-        <v>137.3617318435755</v>
+        <v>136.5348623853213</v>
       </c>
       <c r="X15">
-        <v>100.1494413407822</v>
+        <v>96.94220183486244</v>
       </c>
       <c r="Y15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z15">
-        <v>0.02204374572795625</v>
+        <v>0.02323991797676008</v>
       </c>
       <c r="AA15">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="AB15">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AC15">
         <v>47232.5</v>
       </c>
       <c r="AD15">
-        <v>0.6373626373626373</v>
+        <v>0.5152838427947598</v>
       </c>
       <c r="AE15">
-        <v>0.4894458145945162</v>
+        <v>0.436981903634076</v>
       </c>
       <c r="AF15">
         <v>0.7729284796714041</v>
+      </c>
+      <c r="AG15">
+        <v>166.9147491455078</v>
       </c>
     </row>
   </sheetData>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>Image_Label</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Solidity</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -127,70 +124,241 @@
     <t>p4</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873590/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873599/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873608/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873623/medium.jpeg</t>
-  </si>
-  <si>
-    <t>Flowering Plants</t>
-  </si>
-  <si>
-    <t>五爪金龙</t>
-  </si>
-  <si>
-    <t>Plants</t>
-  </si>
-  <si>
-    <t>jiayuelin</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
-  </si>
-  <si>
-    <t>11:37:00</t>
-  </si>
-  <si>
-    <t>Xuhui District, Shanghai, China</t>
-  </si>
-  <si>
-    <t>['#5c9909', '#3e7204', '#7cac3b']</t>
-  </si>
-  <si>
-    <t>['#202b0d', '#3f4e20', '#ab91d1']</t>
-  </si>
-  <si>
-    <t>['#162512', '#2c5221', '#497c3e']</t>
-  </si>
-  <si>
-    <t>['#78793a', '#3f3819', '#b9b683']</t>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921715/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921454/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921258/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512952/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921893/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922113/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636303/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636318/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636336/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636355/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636374/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636390/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204639334/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/205799198/medium.jpeg</t>
+  </si>
+  <si>
+    <t>Carolina sweetshrub</t>
+  </si>
+  <si>
+    <t>Moosewood</t>
+  </si>
+  <si>
+    <t>American Chestnut</t>
+  </si>
+  <si>
+    <t>American chestnut</t>
+  </si>
+  <si>
+    <t>black oak</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Sassafras</t>
+  </si>
+  <si>
+    <t>striped maple</t>
+  </si>
+  <si>
+    <t>llhouse2</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>12:07:21</t>
+  </si>
+  <si>
+    <t>12:09:03</t>
+  </si>
+  <si>
+    <t>12:10:21</t>
+  </si>
+  <si>
+    <t>12:10:37</t>
+  </si>
+  <si>
+    <t>10:48:19</t>
+  </si>
+  <si>
+    <t>10:41:30</t>
+  </si>
+  <si>
+    <t>10:10:02</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>10:23:00</t>
+  </si>
+  <si>
+    <t>10:32:00</t>
+  </si>
+  <si>
+    <t>Highview Dr, Blacksburg, VA, US</t>
+  </si>
+  <si>
+    <t>Virginia, US</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Jefferson National Forest, Virginia 24134, USA</t>
+  </si>
+  <si>
+    <t>Giles County, VA, USA</t>
+  </si>
+  <si>
+    <t>Blacksburg, VA, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             40.343137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             74.655070</t>
+  </si>
+  <si>
+    <t>['#21420e', '#345517', '#5b764e']</t>
+  </si>
+  <si>
+    <t>['#597043', '#303613', '#612a2a']</t>
+  </si>
+  <si>
+    <t>['#203525', '#2b3f2c', '#60716e']</t>
+  </si>
+  <si>
+    <t>['#44422b', '#2e2f1f', '#5a5844']</t>
+  </si>
+  <si>
+    <t>['#7e89a3', '#727c8c', '#334521']</t>
+  </si>
+  <si>
+    <t>['#3a4b36', '#31422e', '#485b45']</t>
+  </si>
+  <si>
+    <t>['#31560d', '#436819', '#648137']</t>
+  </si>
+  <si>
+    <t>['#1f450b', '#426322', '#a6af9d']</t>
+  </si>
+  <si>
+    <t>['#183e08', '#3a5c14', '#637c44']</t>
+  </si>
+  <si>
+    <t>['#4a5b2c', '#364816', '#737d62']</t>
+  </si>
+  <si>
+    <t>['#32401a', '#46522b', '#717965']</t>
+  </si>
+  <si>
+    <t>['#213c0f', '#354f1c', '#748173']</t>
+  </si>
+  <si>
+    <t>['#1c3d08', '#2b4912', '#6b7b60']</t>
+  </si>
+  <si>
+    <t>['#27470d', '#49671f', '#7c8a67']</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
+  </si>
+  <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>saddlebrown</t>
+  </si>
+  <si>
+    <t>dimgray</t>
   </si>
   <si>
     <t>olivedrab</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>forestgreen</t>
-  </si>
-  <si>
-    <t>darkolivegreen</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
-  </si>
-  <si>
-    <t>mediumpurple</t>
-  </si>
-  <si>
-    <t>darkkhaki</t>
+    <t>darkgray</t>
+  </si>
+  <si>
+    <t>gray</t>
   </si>
 </sst>
 </file>
@@ -561,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,412 +832,1362 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>43641</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2">
+        <v>37.2463215678</v>
+      </c>
+      <c r="J2">
+        <v>-80.40952306609999</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>32.99255615250177</v>
+      </c>
+      <c r="M2">
+        <v>66.01909508706062</v>
+      </c>
+      <c r="N2">
+        <v>14.47550003236455</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2">
+        <v>0.5246518979985588</v>
+      </c>
+      <c r="Q2">
+        <v>51.77923523332538</v>
+      </c>
+      <c r="R2">
+        <v>85.22632959694729</v>
+      </c>
+      <c r="S2">
+        <v>23.37713649733683</v>
+      </c>
+      <c r="T2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2">
+        <v>0.4507543178595504</v>
+      </c>
+      <c r="V2">
+        <v>91.33540372670808</v>
+      </c>
+      <c r="W2">
+        <v>117.5031055900621</v>
+      </c>
+      <c r="X2">
+        <v>77.58385093167702</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2">
+        <v>0.02459378414189079</v>
+      </c>
+      <c r="AA2">
+        <v>272</v>
+      </c>
+      <c r="AB2">
+        <v>267</v>
+      </c>
+      <c r="AC2">
+        <v>42647</v>
+      </c>
+      <c r="AD2">
+        <v>1.0187265917603</v>
+      </c>
+      <c r="AE2">
+        <v>0.7050139690201849</v>
+      </c>
+      <c r="AF2">
+        <v>0.9190767639325891</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>43743</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>37.3504969752</v>
+      </c>
+      <c r="J3">
+        <v>-80.4847910049</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3">
+        <v>88.9072204229377</v>
+      </c>
+      <c r="M3">
+        <v>111.9531339302724</v>
+      </c>
+      <c r="N3">
+        <v>66.74166507906267</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3">
+        <v>0.4337289648560188</v>
+      </c>
+      <c r="Q3">
+        <v>47.59707724425887</v>
+      </c>
+      <c r="R3">
+        <v>53.93736951983299</v>
+      </c>
+      <c r="S3">
+        <v>19.17139874739039</v>
+      </c>
+      <c r="T3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3">
+        <v>0.3856084900981915</v>
+      </c>
+      <c r="V3">
+        <v>96.92663405958203</v>
+      </c>
+      <c r="W3">
+        <v>42.00044464206314</v>
+      </c>
+      <c r="X3">
+        <v>41.70075589150735</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3">
+        <v>0.1806625450457897</v>
+      </c>
+      <c r="AA3">
+        <v>428</v>
+      </c>
+      <c r="AB3">
+        <v>465</v>
+      </c>
+      <c r="AC3">
+        <v>60445</v>
+      </c>
+      <c r="AD3">
+        <v>0.9204301075268817</v>
+      </c>
+      <c r="AE3">
+        <v>0.4723446486621655</v>
+      </c>
+      <c r="AF3">
+        <v>0.6568537958314317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>43821</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <v>37.2461629761</v>
+      </c>
+      <c r="J4">
+        <v>-80.4092512154</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4">
+        <v>32.22251485536425</v>
+      </c>
+      <c r="M4">
+        <v>53.02183139977797</v>
+      </c>
+      <c r="N4">
+        <v>36.58254793983849</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4">
+        <v>0.7569613156419361</v>
+      </c>
+      <c r="Q4">
+        <v>42.57649131967107</v>
+      </c>
+      <c r="R4">
+        <v>63.27476830700956</v>
+      </c>
+      <c r="S4">
+        <v>43.89453074011227</v>
+      </c>
+      <c r="T4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4">
+        <v>0.223603064847692</v>
+      </c>
+      <c r="V4">
+        <v>95.88990825688072</v>
+      </c>
+      <c r="W4">
+        <v>112.5070892410342</v>
+      </c>
+      <c r="X4">
+        <v>109.6763969974979</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4">
+        <v>0.01943561951037189</v>
+      </c>
+      <c r="AA4">
+        <v>299</v>
+      </c>
+      <c r="AB4">
+        <v>141</v>
+      </c>
+      <c r="AC4">
+        <v>21082</v>
+      </c>
+      <c r="AD4">
+        <v>2.120567375886525</v>
+      </c>
+      <c r="AE4">
+        <v>0.6181679568379076</v>
+      </c>
+      <c r="AF4">
+        <v>0.8983105013102669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>43837</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <v>37.2463788487</v>
+      </c>
+      <c r="J5">
+        <v>-80.4095616039</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5">
+        <v>67.83200692041522</v>
+      </c>
+      <c r="M5">
+        <v>66.11245674740485</v>
+      </c>
+      <c r="N5">
+        <v>43.40709342560554</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5">
+        <v>0.4500528940607526</v>
+      </c>
+      <c r="Q5">
+        <v>45.78466719492869</v>
+      </c>
+      <c r="R5">
+        <v>47.21790808240889</v>
+      </c>
+      <c r="S5">
+        <v>30.79655309033281</v>
+      </c>
+      <c r="T5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5">
+        <v>0.3909122966097426</v>
+      </c>
+      <c r="V5">
+        <v>89.97222222222223</v>
+      </c>
+      <c r="W5">
+        <v>87.86513687600645</v>
+      </c>
+      <c r="X5">
+        <v>67.82809983896942</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5">
+        <v>0.1590348093295048</v>
+      </c>
+      <c r="AA5">
+        <v>287</v>
+      </c>
+      <c r="AB5">
+        <v>226</v>
+      </c>
+      <c r="AC5">
+        <v>19528.5</v>
+      </c>
+      <c r="AD5">
+        <v>1.269911504424779</v>
+      </c>
+      <c r="AE5">
+        <v>0.4927208962002321</v>
+      </c>
+      <c r="AF5">
+        <v>0.741386837759344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>38899</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <v>126.0996527957714</v>
+      </c>
+      <c r="M6">
+        <v>137.0632740840545</v>
+      </c>
+      <c r="N6">
+        <v>163.3955018914858</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6">
+        <v>0.5528311761351653</v>
+      </c>
+      <c r="Q6">
+        <v>113.8680034622042</v>
+      </c>
+      <c r="R6">
+        <v>123.9503750721293</v>
+      </c>
+      <c r="S6">
+        <v>140.233193883439</v>
+      </c>
+      <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6">
+        <v>0.373454355144859</v>
+      </c>
+      <c r="V6">
+        <v>51.19858156028368</v>
+      </c>
+      <c r="W6">
+        <v>69.45352743561028</v>
+      </c>
+      <c r="X6">
+        <v>33.36207540126911</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6">
+        <v>0.07371446871997563</v>
+      </c>
+      <c r="AA6">
+        <v>499</v>
+      </c>
+      <c r="AB6">
+        <v>456</v>
+      </c>
+      <c r="AC6">
+        <v>227544</v>
+      </c>
+      <c r="AD6">
+        <v>1.094298245614035</v>
+      </c>
+      <c r="AE6">
+        <v>227544</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>38490</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7">
+        <v>57.69560566895445</v>
+      </c>
+      <c r="M7">
+        <v>75.39183527943669</v>
+      </c>
+      <c r="N7">
+        <v>54.37204741955613</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7">
+        <v>0.4718719090009891</v>
+      </c>
+      <c r="Q7">
+        <v>48.89440177849638</v>
+      </c>
+      <c r="R7">
+        <v>66.34387631366209</v>
+      </c>
+      <c r="S7">
+        <v>46.24292643492321</v>
+      </c>
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7">
+        <v>0.4136993076162216</v>
+      </c>
+      <c r="V7">
+        <v>72.41280262617973</v>
+      </c>
+      <c r="W7">
+        <v>90.78580221583915</v>
+      </c>
+      <c r="X7">
+        <v>69.23512515387772</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z7">
+        <v>0.1144287833827893</v>
+      </c>
+      <c r="AA7">
+        <v>216</v>
+      </c>
+      <c r="AB7">
+        <v>228</v>
+      </c>
+      <c r="AC7">
+        <v>15944.5</v>
+      </c>
+      <c r="AD7">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="AE7">
+        <v>0.6242463393626184</v>
+      </c>
+      <c r="AF7">
+        <v>0.961902750965251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>36602</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>37.2504015</v>
+      </c>
+      <c r="J8">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8">
+        <v>48.95688511541523</v>
+      </c>
+      <c r="M8">
+        <v>86.05929954895197</v>
+      </c>
+      <c r="N8">
+        <v>12.7220748209074</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8">
+        <v>0.4933243070442664</v>
+      </c>
+      <c r="Q8">
+        <v>67.49799970365981</v>
+      </c>
+      <c r="R8">
+        <v>103.7605571195733</v>
+      </c>
+      <c r="S8">
+        <v>24.88768706475033</v>
+      </c>
+      <c r="T8" t="s">
+        <v>106</v>
+      </c>
+      <c r="U8">
+        <v>0.4311682776085349</v>
+      </c>
+      <c r="V8">
+        <v>100.071761416589</v>
+      </c>
+      <c r="W8">
+        <v>128.5116495806151</v>
+      </c>
+      <c r="X8">
+        <v>54.97204100652376</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8">
+        <v>0.07550741534719872</v>
+      </c>
+      <c r="AA8">
+        <v>520</v>
+      </c>
+      <c r="AB8">
+        <v>519</v>
+      </c>
+      <c r="AC8">
+        <v>80554.5</v>
+      </c>
+      <c r="AD8">
+        <v>1.001926782273603</v>
+      </c>
+      <c r="AE8">
+        <v>0.5129716305282261</v>
+      </c>
+      <c r="AF8">
+        <v>0.7763765336314659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>36600</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <v>37.2496022353</v>
+      </c>
+      <c r="J9">
+        <v>-80.66670543399999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9">
+        <v>30.60897996082567</v>
+      </c>
+      <c r="M9">
+        <v>68.76501431369597</v>
+      </c>
+      <c r="N9">
+        <v>11.25770679523881</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9">
+        <v>0.7692167511025257</v>
+      </c>
+      <c r="Q9">
+        <v>65.5511903365779</v>
+      </c>
+      <c r="R9">
+        <v>99.09651694617096</v>
+      </c>
+      <c r="S9">
+        <v>34.38688870646183</v>
+      </c>
+      <c r="T9" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9">
+        <v>0.2011517294164814</v>
+      </c>
+      <c r="V9">
+        <v>165.9020061728395</v>
+      </c>
+      <c r="W9">
+        <v>174.8904320987655</v>
+      </c>
+      <c r="X9">
+        <v>156.5686728395062</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z9">
+        <v>0.02963151948099282</v>
+      </c>
+      <c r="AA9">
+        <v>453</v>
+      </c>
+      <c r="AB9">
+        <v>454</v>
+      </c>
+      <c r="AC9">
+        <v>54472</v>
+      </c>
+      <c r="AD9">
+        <v>0.9977973568281938</v>
+      </c>
+      <c r="AE9">
+        <v>0.3836461598056133</v>
+      </c>
+      <c r="AF9">
+        <v>0.6177539621785603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>36600</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>37.2485728184</v>
+      </c>
+      <c r="J10">
+        <v>-80.66748366829999</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>24.25385485197368</v>
+      </c>
+      <c r="M10">
+        <v>62.38101356907892</v>
+      </c>
+      <c r="N10">
+        <v>8.184621710526313</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10">
+        <v>0.72465483234714</v>
+      </c>
+      <c r="Q10">
+        <v>57.98717524408406</v>
+      </c>
+      <c r="R10">
+        <v>92.08753930167136</v>
+      </c>
+      <c r="S10">
+        <v>20.4979314909813</v>
+      </c>
+      <c r="T10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10">
+        <v>0.2300929839391378</v>
+      </c>
+      <c r="V10">
+        <v>99.40044444444443</v>
+      </c>
+      <c r="W10">
+        <v>124.1488888888889</v>
+      </c>
+      <c r="X10">
+        <v>67.72755555555561</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z10">
+        <v>0.04525218371372217</v>
+      </c>
+      <c r="AA10">
+        <v>127</v>
+      </c>
+      <c r="AB10">
+        <v>355</v>
+      </c>
+      <c r="AC10">
+        <v>45085</v>
+      </c>
+      <c r="AD10">
+        <v>0.3577464788732395</v>
+      </c>
+      <c r="AE10">
+        <v>45085</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>36600</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>37.2504015</v>
+      </c>
+      <c r="J11">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>74.28336093436768</v>
+      </c>
+      <c r="M11">
+        <v>91.30279787326769</v>
+      </c>
+      <c r="N11">
+        <v>44.17048723088993</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11">
+        <v>0.5190644363144205</v>
+      </c>
+      <c r="Q11">
+        <v>54.35618497109826</v>
+      </c>
+      <c r="R11">
+        <v>71.57710982658956</v>
+      </c>
+      <c r="S11">
+        <v>21.89017341040462</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11">
+        <v>0.4188677649248208</v>
+      </c>
+      <c r="V11">
+        <v>115.0738595220854</v>
+      </c>
+      <c r="W11">
+        <v>125.4279507603186</v>
+      </c>
+      <c r="X11">
+        <v>97.97900072411295</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11">
+        <v>0.06206779876075877</v>
+      </c>
+      <c r="AA11">
+        <v>391</v>
+      </c>
+      <c r="AB11">
+        <v>394</v>
+      </c>
+      <c r="AC11">
+        <v>46800</v>
+      </c>
+      <c r="AD11">
+        <v>0.9923857868020305</v>
+      </c>
+      <c r="AE11">
+        <v>0.5007114810574855</v>
+      </c>
+      <c r="AF11">
+        <v>0.7538720511602058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>36600</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>37.2504015</v>
+      </c>
+      <c r="J12">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12">
+        <v>50.23061235161846</v>
+      </c>
+      <c r="M12">
+        <v>63.56199341107567</v>
+      </c>
+      <c r="N12">
+        <v>26.28630445013857</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12">
+        <v>0.5060142711518858</v>
+      </c>
+      <c r="Q12">
+        <v>69.5855850730986</v>
+      </c>
+      <c r="R12">
+        <v>82.27242732806189</v>
+      </c>
+      <c r="S12">
+        <v>43.11530803799989</v>
+      </c>
+      <c r="T12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12">
+        <v>0.462691131498471</v>
+      </c>
+      <c r="V12">
+        <v>112.6247892074199</v>
+      </c>
+      <c r="W12">
+        <v>120.7976391231029</v>
+      </c>
+      <c r="X12">
+        <v>101.0413153456998</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12">
+        <v>0.03129459734964322</v>
+      </c>
+      <c r="AA12">
+        <v>171</v>
+      </c>
+      <c r="AB12">
+        <v>171</v>
+      </c>
+      <c r="AC12">
+        <v>9634</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>0.6326503808773313</v>
+      </c>
+      <c r="AF12">
+        <v>0.9440007838910391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>36660</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>37.2504015</v>
+      </c>
+      <c r="J13">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13">
+        <v>33.02679106393906</v>
+      </c>
+      <c r="M13">
+        <v>60.31610031669949</v>
+      </c>
+      <c r="N13">
+        <v>14.68736625866644</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13">
+        <v>0.6108144441540013</v>
+      </c>
+      <c r="Q13">
+        <v>53.31770108544391</v>
+      </c>
+      <c r="R13">
+        <v>78.95519064848315</v>
+      </c>
+      <c r="S13">
+        <v>27.52080434177568</v>
+      </c>
+      <c r="T13" t="s">
+        <v>106</v>
+      </c>
+      <c r="U13">
+        <v>0.3616639904402704</v>
+      </c>
+      <c r="V13">
+        <v>116.0502555366269</v>
+      </c>
+      <c r="W13">
+        <v>129.1839863713799</v>
+      </c>
+      <c r="X13">
+        <v>114.5868824531516</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z13">
+        <v>0.02752156540572837</v>
+      </c>
+      <c r="AA13">
+        <v>181</v>
+      </c>
+      <c r="AB13">
+        <v>262</v>
+      </c>
+      <c r="AC13">
+        <v>47422</v>
+      </c>
+      <c r="AD13">
+        <v>0.6908396946564885</v>
+      </c>
+      <c r="AE13">
+        <v>47422</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>37380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14">
+        <v>27.74884248322781</v>
+      </c>
+      <c r="M14">
+        <v>60.75574033827835</v>
+      </c>
+      <c r="N14">
+        <v>8.054663138996508</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14">
+        <v>0.610639426903688</v>
+      </c>
+      <c r="Q14">
+        <v>43.20559015421114</v>
+      </c>
+      <c r="R14">
+        <v>73.46426453143532</v>
+      </c>
+      <c r="S14">
+        <v>18.41622182680901</v>
+      </c>
+      <c r="T14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14">
+        <v>0.35520031838684</v>
+      </c>
+      <c r="V14">
+        <v>107.3102866779089</v>
+      </c>
+      <c r="W14">
+        <v>123.0522765598651</v>
+      </c>
+      <c r="X14">
+        <v>95.64586846543004</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14">
+        <v>0.03416025470947201</v>
+      </c>
+      <c r="AA14">
+        <v>226</v>
+      </c>
+      <c r="AB14">
+        <v>230</v>
+      </c>
+      <c r="AC14">
+        <v>15060.5</v>
+      </c>
+      <c r="AD14">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AE14">
+        <v>0.4398510514018691</v>
+      </c>
+      <c r="AF14">
+        <v>0.7597871052366058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>41820</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2">
-        <v>31.1735516158</v>
-      </c>
-      <c r="J2">
-        <v>121.4434514835</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2">
-        <v>91.85866616780461</v>
-      </c>
-      <c r="M2">
-        <v>153.3836872135442</v>
-      </c>
-      <c r="N2">
-        <v>8.644654382190556</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2">
-        <v>0.5231236527532824</v>
-      </c>
-      <c r="Q2">
-        <v>62.47787610619414</v>
-      </c>
-      <c r="R2">
-        <v>114.3943362831863</v>
-      </c>
-      <c r="S2">
-        <v>3.942300884955552</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2">
-        <v>0.2776308054085832</v>
-      </c>
-      <c r="V2">
-        <v>124.0746745271427</v>
-      </c>
-      <c r="W2">
-        <v>171.8636698599856</v>
-      </c>
-      <c r="X2">
-        <v>59.33284205354913</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2">
-        <v>0.1992455418381344</v>
-      </c>
-      <c r="AA2">
-        <v>425</v>
-      </c>
-      <c r="AB2">
-        <v>312</v>
-      </c>
-      <c r="AC2">
-        <v>29075</v>
-      </c>
-      <c r="AD2">
-        <v>1.362179487179487</v>
-      </c>
-      <c r="AE2">
-        <v>0.2192684766214178</v>
-      </c>
-      <c r="AF2">
-        <v>0.7917273680340926</v>
-      </c>
-      <c r="AG2">
-        <v>28.65376091003418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>41820</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3">
-        <v>31.1842826996</v>
-      </c>
-      <c r="J3">
-        <v>121.4352117322</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3">
-        <v>31.55129801912854</v>
-      </c>
-      <c r="M3">
-        <v>43.14997888079006</v>
-      </c>
-      <c r="N3">
-        <v>13.22445929407598</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3">
-        <v>0.5768159753145266</v>
-      </c>
-      <c r="Q3">
-        <v>63.04392307864515</v>
-      </c>
-      <c r="R3">
-        <v>77.58172334281136</v>
-      </c>
-      <c r="S3">
-        <v>32.15393225726937</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3">
-        <v>0.2823965480476149</v>
-      </c>
-      <c r="V3">
-        <v>171.2067813224144</v>
-      </c>
-      <c r="W3">
-        <v>144.529094635531</v>
-      </c>
-      <c r="X3">
-        <v>209.3465959721966</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3">
-        <v>0.1407874766378586</v>
-      </c>
-      <c r="AA3">
-        <v>499</v>
-      </c>
-      <c r="AB3">
-        <v>332</v>
-      </c>
-      <c r="AC3">
-        <v>160978</v>
-      </c>
-      <c r="AD3">
-        <v>1.503012048192771</v>
-      </c>
-      <c r="AE3">
-        <v>0.9716903686891856</v>
-      </c>
-      <c r="AF3">
-        <v>0.9716903686891856</v>
-      </c>
-      <c r="AG3">
-        <v>81.53978729248047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>41820</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4">
-        <v>31.1773801504</v>
-      </c>
-      <c r="J4">
-        <v>121.4369283459</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>21.52662449683681</v>
-      </c>
-      <c r="M4">
-        <v>36.53507763082159</v>
-      </c>
-      <c r="N4">
-        <v>17.57297297297291</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4">
-        <v>0.4430099312452254</v>
-      </c>
-      <c r="Q4">
-        <v>43.63475876253317</v>
-      </c>
-      <c r="R4">
-        <v>81.80546747793304</v>
-      </c>
-      <c r="S4">
-        <v>32.5635444339703</v>
-      </c>
-      <c r="T4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4">
-        <v>0.2975044563279857</v>
-      </c>
-      <c r="V4">
-        <v>73.35726177651614</v>
-      </c>
-      <c r="W4">
-        <v>124.1889139163637</v>
-      </c>
-      <c r="X4">
-        <v>61.6875918127509</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4">
-        <v>0.2594856124267889</v>
-      </c>
-      <c r="AA4">
-        <v>499</v>
-      </c>
-      <c r="AB4">
-        <v>332</v>
-      </c>
-      <c r="AC4">
-        <v>38861</v>
-      </c>
-      <c r="AD4">
-        <v>1.503012048192771</v>
-      </c>
-      <c r="AE4">
-        <v>0.2345715527440423</v>
-      </c>
-      <c r="AF4">
-        <v>0.6625690513537476</v>
-      </c>
-      <c r="AG4">
-        <v>155.7671661376953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>41820</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>31.1720927511</v>
-      </c>
-      <c r="J5">
-        <v>121.4345250867</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>119.7831419516814</v>
-      </c>
-      <c r="M5">
-        <v>120.5472280528462</v>
-      </c>
-      <c r="N5">
-        <v>57.5939416388857</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5">
-        <v>0.468181029998266</v>
-      </c>
-      <c r="Q5">
-        <v>62.76207817431546</v>
-      </c>
-      <c r="R5">
-        <v>56.28034717164367</v>
-      </c>
-      <c r="S5">
-        <v>24.61228453508164</v>
-      </c>
-      <c r="T5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5">
-        <v>0.3167832302564399</v>
-      </c>
-      <c r="V5">
-        <v>185.0189577717891</v>
-      </c>
-      <c r="W5">
-        <v>181.7265049415992</v>
-      </c>
-      <c r="X5">
-        <v>130.7886792452821</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5">
-        <v>0.2150357397452941</v>
-      </c>
-      <c r="AA5">
-        <v>387</v>
-      </c>
-      <c r="AB5">
-        <v>240</v>
-      </c>
-      <c r="AC5">
-        <v>53230</v>
-      </c>
-      <c r="AD5">
-        <v>1.6125</v>
-      </c>
-      <c r="AE5">
-        <v>0.5731050818260121</v>
-      </c>
-      <c r="AF5">
-        <v>0.7515973031169473</v>
-      </c>
-      <c r="AG5">
-        <v>104.5516662597656</v>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>37920</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>37.2295733</v>
+      </c>
+      <c r="J15">
+        <v>-80.4139393</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15">
+        <v>39.19809297472758</v>
+      </c>
+      <c r="M15">
+        <v>70.75779619754232</v>
+      </c>
+      <c r="N15">
+        <v>12.77817064688152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15">
+        <v>0.6822881066302119</v>
+      </c>
+      <c r="Q15">
+        <v>73.1397871330757</v>
+      </c>
+      <c r="R15">
+        <v>103.4364449867805</v>
+      </c>
+      <c r="S15">
+        <v>30.54681038573656</v>
+      </c>
+      <c r="T15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15">
+        <v>0.2970779220779221</v>
+      </c>
+      <c r="V15">
+        <v>123.7252985884908</v>
+      </c>
+      <c r="W15">
+        <v>137.7480998914223</v>
+      </c>
+      <c r="X15">
+        <v>103.1335504885993</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15">
+        <v>0.02063397129186603</v>
+      </c>
+      <c r="AA15">
+        <v>290</v>
+      </c>
+      <c r="AB15">
+        <v>455</v>
+      </c>
+      <c r="AC15">
+        <v>47232.5</v>
+      </c>
+      <c r="AD15">
+        <v>0.6373626373626373</v>
+      </c>
+      <c r="AE15">
+        <v>0.4894458145945162</v>
+      </c>
+      <c r="AF15">
+        <v>0.7729284796714041</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +2196,16 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Image_Label</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Solidity</t>
   </si>
   <si>
+    <t>Angle</t>
+  </si>
+  <si>
     <t>p1</t>
   </si>
   <si>
@@ -157,16 +160,16 @@
     <t>Xuhui District, Shanghai, China</t>
   </si>
   <si>
-    <t>['#5e9b09', '#407504', '#7dac3d']</t>
-  </si>
-  <si>
-    <t>['#232f0e', '#475428', '#ac91d2']</t>
-  </si>
-  <si>
-    <t>['#192b14', '#37691f', '#4b774d']</t>
-  </si>
-  <si>
-    <t>['#808240', '#46411d', '#bfbb8b']</t>
+    <t>['#5c9909', '#3e7204', '#7cac3b']</t>
+  </si>
+  <si>
+    <t>['#1f2b0d', '#3e4d1f', '#ab90d1']</t>
+  </si>
+  <si>
+    <t>['#152412', '#2c5221', '#497c3e']</t>
+  </si>
+  <si>
+    <t>['#787839', '#3f3819', '#b9b683']</t>
   </si>
   <si>
     <t>olivedrab</t>
@@ -181,10 +184,13 @@
     <t>darkolivegreen</t>
   </si>
   <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
     <t>mediumpurple</t>
   </si>
   <si>
-    <t>tan</t>
+    <t>darkkhaki</t>
   </si>
 </sst>
 </file>
@@ -555,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,31 +664,34 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>41820</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2">
         <v>31.1735516158</v>
@@ -691,96 +700,99 @@
         <v>121.4434514835</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2">
-        <v>93.5189807592304</v>
+        <v>91.85866616780461</v>
       </c>
       <c r="M2">
-        <v>154.9525741029641</v>
+        <v>153.3836872135442</v>
       </c>
       <c r="N2">
-        <v>9.302704108164326</v>
+        <v>8.644654382190559</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2">
-        <v>0.5079365079365079</v>
+        <v>0.5231236527532824</v>
       </c>
       <c r="Q2">
-        <v>64.01510721247564</v>
+        <v>62.47787610619413</v>
       </c>
       <c r="R2">
-        <v>117.0961663417804</v>
+        <v>114.3943362831863</v>
       </c>
       <c r="S2">
-        <v>4.130279402209228</v>
+        <v>3.942300884955552</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2">
-        <v>0.300607485792671</v>
+        <v>0.2776308054085832</v>
       </c>
       <c r="V2">
-        <v>124.6582089552238</v>
+        <v>124.0746745271427</v>
       </c>
       <c r="W2">
-        <v>171.9772048846676</v>
+        <v>171.8636698599856</v>
       </c>
       <c r="X2">
-        <v>61.40284938941656</v>
+        <v>59.33284205354913</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z2">
-        <v>0.1914560062708211</v>
+        <v>0.1992455418381344</v>
       </c>
       <c r="AA2">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="AB2">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="AC2">
-        <v>323.5</v>
+        <v>29075</v>
       </c>
       <c r="AD2">
-        <v>1.068965517241379</v>
+        <v>1.362179487179487</v>
       </c>
       <c r="AE2">
-        <v>0.647</v>
+        <v>0.2192684766214178</v>
       </c>
       <c r="AF2">
-        <v>0.9472913616398243</v>
+        <v>0.7917273680340926</v>
+      </c>
+      <c r="AG2">
+        <v>28.65376091003418</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>41820</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <v>31.1842826996</v>
@@ -789,96 +801,99 @@
         <v>121.4352117322</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3">
-        <v>34.54611531584492</v>
+        <v>31.09900725042031</v>
       </c>
       <c r="M3">
-        <v>46.8827307908982</v>
+        <v>42.56052426101493</v>
       </c>
       <c r="N3">
-        <v>14.23884929091043</v>
+        <v>13.09405465699855</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3">
-        <v>0.6606625440588036</v>
+        <v>0.5643728911355569</v>
       </c>
       <c r="Q3">
-        <v>70.51637213517449</v>
+        <v>62.094764198783</v>
       </c>
       <c r="R3">
-        <v>83.69759843552507</v>
+        <v>76.7427527045309</v>
       </c>
       <c r="S3">
-        <v>40.36240490329354</v>
+        <v>31.27389705882275</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3">
-        <v>0.1994342912333956</v>
+        <v>0.2947204696260803</v>
       </c>
       <c r="V3">
-        <v>171.686894732108</v>
+        <v>171.1346359266632</v>
       </c>
       <c r="W3">
-        <v>144.9418043354422</v>
+        <v>144.4651949439139</v>
       </c>
       <c r="X3">
-        <v>209.8968608520972</v>
+        <v>209.2709631475868</v>
       </c>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z3">
-        <v>0.1399031647078008</v>
+        <v>0.1409066392383628</v>
       </c>
       <c r="AA3">
-        <v>14</v>
+        <v>499</v>
       </c>
       <c r="AB3">
+        <v>332</v>
+      </c>
+      <c r="AC3">
+        <v>160978</v>
+      </c>
+      <c r="AD3">
+        <v>1.503012048192771</v>
+      </c>
+      <c r="AE3">
+        <v>0.9716903686891856</v>
+      </c>
+      <c r="AF3">
+        <v>0.9716903686891856</v>
+      </c>
+      <c r="AG3">
+        <v>81.53978729248047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="AC3">
-        <v>374</v>
-      </c>
-      <c r="AD3">
-        <v>0.3255813953488372</v>
-      </c>
-      <c r="AE3">
-        <v>0.6212624584717608</v>
-      </c>
-      <c r="AF3">
-        <v>0.9626769626769627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>41820</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>31.1773801504</v>
@@ -887,96 +902,99 @@
         <v>121.4369283459</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>24.7054518542883</v>
+        <v>21.4819562330384</v>
       </c>
       <c r="M4">
-        <v>42.96154373269742</v>
+        <v>36.44638835960434</v>
       </c>
       <c r="N4">
-        <v>20.35109503056218</v>
+        <v>17.53143945955303</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4">
-        <v>0.5494270435446906</v>
+        <v>0.4417112299465241</v>
       </c>
       <c r="Q4">
-        <v>54.53472222222224</v>
+        <v>43.52746689448949</v>
       </c>
       <c r="R4">
-        <v>105.3377581120944</v>
+        <v>81.56744980777452</v>
       </c>
       <c r="S4">
-        <v>31.4577802359882</v>
+        <v>32.53208030756082</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U4">
-        <v>0.2723198370257194</v>
+        <v>0.297886427298192</v>
       </c>
       <c r="V4">
-        <v>75.18142383261038</v>
+        <v>73.30060511419153</v>
       </c>
       <c r="W4">
-        <v>119.151399166454</v>
+        <v>124.1522545383554</v>
       </c>
       <c r="X4">
-        <v>76.55719996597776</v>
+        <v>61.59037673238332</v>
       </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z4">
-        <v>0.17825311942959</v>
+        <v>0.260402342755284</v>
       </c>
       <c r="AA4">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="AB4">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AC4">
-        <v>2570</v>
+        <v>38861</v>
       </c>
       <c r="AD4">
-        <v>1.108108108108108</v>
+        <v>1.503012048192771</v>
       </c>
       <c r="AE4">
-        <v>0.4235332893869479</v>
+        <v>0.2345715527440423</v>
       </c>
       <c r="AF4">
-        <v>0.8208240178856595</v>
+        <v>0.6625690513537476</v>
+      </c>
+      <c r="AG4">
+        <v>155.7671661376953</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>41820</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <v>31.1720927511</v>
@@ -985,70 +1003,73 @@
         <v>121.4345250867</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5">
-        <v>128.3833326839911</v>
+        <v>119.6535114850098</v>
       </c>
       <c r="M5">
-        <v>129.6390111816729</v>
+        <v>120.3929234195226</v>
       </c>
       <c r="N5">
-        <v>64.3162621264658</v>
+        <v>57.46525629922908</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5">
-        <v>0.434714756372464</v>
+        <v>0.4678149625262509</v>
       </c>
       <c r="Q5">
-        <v>70.30055620965449</v>
+        <v>62.69727001884973</v>
       </c>
       <c r="R5">
-        <v>64.75532865088712</v>
+        <v>56.23213959992711</v>
       </c>
       <c r="S5">
-        <v>28.61473346595752</v>
+        <v>24.59135404633094</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5">
-        <v>0.3833882434541356</v>
+        <v>0.3162437624029439</v>
       </c>
       <c r="V5">
-        <v>190.6730479774224</v>
+        <v>184.7987864727414</v>
       </c>
       <c r="W5">
-        <v>187.1391815616182</v>
+        <v>181.5444811278665</v>
       </c>
       <c r="X5">
-        <v>139.4707431796801</v>
+        <v>130.5095922191479</v>
       </c>
       <c r="Y5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z5">
-        <v>0.1818970001734004</v>
+        <v>0.2159412750708052</v>
       </c>
       <c r="AA5">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB5">
         <v>240</v>
       </c>
       <c r="AC5">
-        <v>93120</v>
+        <v>53230</v>
       </c>
       <c r="AD5">
-        <v>1.616666666666667</v>
+        <v>1.6125</v>
       </c>
       <c r="AE5">
-        <v>93120</v>
+        <v>0.5731050818260121</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.7515973031169473</v>
+      </c>
+      <c r="AG5">
+        <v>104.5516662597656</v>
       </c>
     </row>
   </sheetData>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
   <si>
     <t>Image_Label</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Solidity</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -127,58 +124,214 @@
     <t>p4</t>
   </si>
   <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873590/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873599/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873608/medium.jpeg</t>
-  </si>
-  <si>
-    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/198873623/medium.jpeg</t>
-  </si>
-  <si>
-    <t>Flowering Plants</t>
-  </si>
-  <si>
-    <t>五爪金龙</t>
-  </si>
-  <si>
-    <t>Plants</t>
-  </si>
-  <si>
-    <t>jiayuelin</t>
-  </si>
-  <si>
-    <t>2022-05-19</t>
-  </si>
-  <si>
-    <t>11:37:00</t>
-  </si>
-  <si>
-    <t>Xuhui District, Shanghai, China</t>
-  </si>
-  <si>
-    <t>['#5c9909', '#3e7204', '#7cac3b']</t>
-  </si>
-  <si>
-    <t>['#1f2b0d', '#3e4d1f', '#ab90d1']</t>
-  </si>
-  <si>
-    <t>['#152412', '#2c5221', '#497c3e']</t>
-  </si>
-  <si>
-    <t>['#787839', '#3f3819', '#b9b683']</t>
-  </si>
-  <si>
-    <t>olivedrab</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>forestgreen</t>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921715/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921454/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921258/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/200512952/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203921893/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/203922113/medium.jpg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636303/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636318/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636336/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636355/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636374/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204636390/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/204639334/medium.jpeg</t>
+  </si>
+  <si>
+    <t>https://inaturalist-open-data.s3.amazonaws.com/photos/205799198/medium.jpeg</t>
+  </si>
+  <si>
+    <t>Carolina sweetshrub</t>
+  </si>
+  <si>
+    <t>Moosewood</t>
+  </si>
+  <si>
+    <t>American Chestnut</t>
+  </si>
+  <si>
+    <t>American chestnut</t>
+  </si>
+  <si>
+    <t>black oak</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Sassafras</t>
+  </si>
+  <si>
+    <t>striped maple</t>
+  </si>
+  <si>
+    <t>llhouse2</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>12:07:21</t>
+  </si>
+  <si>
+    <t>12:09:03</t>
+  </si>
+  <si>
+    <t>12:10:21</t>
+  </si>
+  <si>
+    <t>12:10:37</t>
+  </si>
+  <si>
+    <t>10:48:19</t>
+  </si>
+  <si>
+    <t>10:41:30</t>
+  </si>
+  <si>
+    <t>10:10:02</t>
+  </si>
+  <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>10:23:00</t>
+  </si>
+  <si>
+    <t>10:32:00</t>
+  </si>
+  <si>
+    <t>Highview Dr, Blacksburg, VA, US</t>
+  </si>
+  <si>
+    <t>Virginia, US</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Jefferson National Forest, Virginia 24134, USA</t>
+  </si>
+  <si>
+    <t>Giles County, VA, USA</t>
+  </si>
+  <si>
+    <t>Blacksburg, VA, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             40.343137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             74.655070</t>
+  </si>
+  <si>
+    <t>['#20410e', '#335417', '#577347']</t>
+  </si>
+  <si>
+    <t>['#506232', '#392815', '#7c8072']</t>
+  </si>
+  <si>
+    <t>['#213625', '#304431', '#647471']</t>
+  </si>
+  <si>
+    <t>['#313221', '#4c4a32', '#747978']</t>
+  </si>
+  <si>
+    <t>['#7e89a3', '#727c8c', '#344622']</t>
+  </si>
+  <si>
+    <t>['#334430', '#3e503a', '#526354']</t>
+  </si>
+  <si>
+    <t>['#3e6315', '#2d530b', '#5a792c']</t>
+  </si>
+  <si>
+    <t>['#20460c', '#466727', '#abb3a1']</t>
+  </si>
+  <si>
+    <t>['#183e08', '#385a13', '#5f783d']</t>
+  </si>
+  <si>
+    <t>['#384918', '#4d5e2f', '#7d856e']</t>
+  </si>
+  <si>
+    <t>['#33401b', '#47532c', '#737b69']</t>
+  </si>
+  <si>
+    <t>['#233e0f', '#38511e', '#768376']</t>
+  </si>
+  <si>
+    <t>['#1b3c08', '#2a4811', '#6a7a5f']</t>
+  </si>
+  <si>
+    <t>['#26460c', '#43621a', '#647d3e']</t>
+  </si>
+  <si>
+    <t>darkgreen</t>
   </si>
   <si>
     <t>darkolivegreen</t>
@@ -187,10 +340,19 @@
     <t>darkslategray</t>
   </si>
   <si>
-    <t>mediumpurple</t>
-  </si>
-  <si>
-    <t>darkkhaki</t>
+    <t>lightslategray</t>
+  </si>
+  <si>
+    <t>slategray</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>dimgray</t>
+  </si>
+  <si>
+    <t>darkgray</t>
   </si>
 </sst>
 </file>
@@ -561,13 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,412 +826,1362 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>43641</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2">
+        <v>37.2463215678</v>
+      </c>
+      <c r="J2">
+        <v>-80.40952306609999</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>32.09783710713079</v>
+      </c>
+      <c r="M2">
+        <v>65.07113889827644</v>
+      </c>
+      <c r="N2">
+        <v>14.22744170327813</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2">
+        <v>0.4905506869057858</v>
+      </c>
+      <c r="Q2">
+        <v>50.63216481143047</v>
+      </c>
+      <c r="R2">
+        <v>84.10034889516533</v>
+      </c>
+      <c r="S2">
+        <v>22.51254361189567</v>
+      </c>
+      <c r="T2" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2">
+        <v>0.4796950184802064</v>
+      </c>
+      <c r="V2">
+        <v>87.47293447293447</v>
+      </c>
+      <c r="W2">
+        <v>115.0455840455841</v>
+      </c>
+      <c r="X2">
+        <v>71.23931623931624</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2">
+        <v>0.02975429461400777</v>
+      </c>
+      <c r="AA2">
+        <v>272</v>
+      </c>
+      <c r="AB2">
+        <v>267</v>
+      </c>
+      <c r="AC2">
+        <v>42647</v>
+      </c>
+      <c r="AD2">
+        <v>1.0187265917603</v>
+      </c>
+      <c r="AE2">
+        <v>0.7050139690201849</v>
+      </c>
+      <c r="AF2">
+        <v>0.9190767639325891</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
+        <v>43743</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>37.3504969752</v>
+      </c>
+      <c r="J3">
+        <v>-80.4847910049</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3">
+        <v>79.9584011843079</v>
+      </c>
+      <c r="M3">
+        <v>98.23153219837155</v>
+      </c>
+      <c r="N3">
+        <v>50.31946706143597</v>
+      </c>
+      <c r="O3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3">
+        <v>0.4951400138856746</v>
+      </c>
+      <c r="Q3">
+        <v>57.19501302567917</v>
+      </c>
+      <c r="R3">
+        <v>40.45180498697432</v>
+      </c>
+      <c r="S3">
+        <v>21.09452921473763</v>
+      </c>
+      <c r="T3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3">
+        <v>0.419529209508381</v>
+      </c>
+      <c r="V3">
+        <v>123.9729501267962</v>
+      </c>
+      <c r="W3">
+        <v>127.8901098901099</v>
+      </c>
+      <c r="X3">
+        <v>113.5815722738799</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3">
+        <v>0.08533077660594439</v>
+      </c>
+      <c r="AA3">
+        <v>428</v>
+      </c>
+      <c r="AB3">
+        <v>465</v>
+      </c>
+      <c r="AC3">
+        <v>60445</v>
+      </c>
+      <c r="AD3">
+        <v>0.9204301075268817</v>
+      </c>
+      <c r="AE3">
+        <v>0.4723446486621655</v>
+      </c>
+      <c r="AF3">
+        <v>0.6568537958314317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <v>43821</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <v>37.2461629761</v>
+      </c>
+      <c r="J4">
+        <v>-80.4092512154</v>
+      </c>
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4">
+        <v>33.31991464696328</v>
+      </c>
+      <c r="M4">
+        <v>54.16293512532247</v>
+      </c>
+      <c r="N4">
+        <v>37.32106118029236</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4">
+        <v>0.8577368716127827</v>
+      </c>
+      <c r="Q4">
+        <v>47.94422726088088</v>
+      </c>
+      <c r="R4">
+        <v>68.09616888193901</v>
+      </c>
+      <c r="S4">
+        <v>48.69611675788377</v>
+      </c>
+      <c r="T4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4">
+        <v>0.1243692767706971</v>
+      </c>
+      <c r="V4">
+        <v>99.50662251655626</v>
+      </c>
+      <c r="W4">
+        <v>116.1605960264901</v>
+      </c>
+      <c r="X4">
+        <v>113.3129139072847</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z4">
+        <v>0.01789385161652028</v>
+      </c>
+      <c r="AA4">
+        <v>299</v>
+      </c>
+      <c r="AB4">
+        <v>141</v>
+      </c>
+      <c r="AC4">
+        <v>21082</v>
+      </c>
+      <c r="AD4">
+        <v>2.120567375886525</v>
+      </c>
+      <c r="AE4">
+        <v>0.6181679568379076</v>
+      </c>
+      <c r="AF4">
+        <v>0.8983105013102669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>43837</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <v>37.2463788487</v>
+      </c>
+      <c r="J5">
+        <v>-80.4095616039</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5">
+        <v>49.20835349137236</v>
+      </c>
+      <c r="M5">
+        <v>50.13255926463474</v>
+      </c>
+      <c r="N5">
+        <v>32.63876794065473</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5">
+        <v>0.5055160949070576</v>
+      </c>
+      <c r="Q5">
+        <v>76.28256688232207</v>
+      </c>
+      <c r="R5">
+        <v>73.68735792970797</v>
+      </c>
+      <c r="S5">
+        <v>50.16611295681063</v>
+      </c>
+      <c r="T5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5">
+        <v>0.4646617298876631</v>
+      </c>
+      <c r="V5">
+        <v>115.8125</v>
+      </c>
+      <c r="W5">
+        <v>120.5733695652174</v>
+      </c>
+      <c r="X5">
+        <v>120.1521739130435</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5">
+        <v>0.02982217520527933</v>
+      </c>
+      <c r="AA5">
+        <v>287</v>
+      </c>
+      <c r="AB5">
+        <v>226</v>
+      </c>
+      <c r="AC5">
+        <v>19528.5</v>
+      </c>
+      <c r="AD5">
+        <v>1.269911504424779</v>
+      </c>
+      <c r="AE5">
+        <v>0.4927208962002321</v>
+      </c>
+      <c r="AF5">
+        <v>0.741386837759344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>38899</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6">
+        <v>125.8543609434997</v>
+      </c>
+      <c r="M6">
+        <v>136.8104772353264</v>
+      </c>
+      <c r="N6">
+        <v>163.0735052111904</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6">
+        <v>0.5533154716804274</v>
+      </c>
+      <c r="Q6">
+        <v>113.6721050537207</v>
+      </c>
+      <c r="R6">
+        <v>123.7280143255074</v>
+      </c>
+      <c r="S6">
+        <v>139.7839235972941</v>
+      </c>
+      <c r="T6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U6">
+        <v>0.3728997586333492</v>
+      </c>
+      <c r="V6">
+        <v>51.77464788732395</v>
+      </c>
+      <c r="W6">
+        <v>69.91750503018108</v>
+      </c>
+      <c r="X6">
+        <v>34.11971830985917</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6">
+        <v>0.07378476968622336</v>
+      </c>
+      <c r="AA6">
+        <v>499</v>
+      </c>
+      <c r="AB6">
+        <v>456</v>
+      </c>
+      <c r="AC6">
+        <v>227544</v>
+      </c>
+      <c r="AD6">
+        <v>1.094298245614035</v>
+      </c>
+      <c r="AE6">
+        <v>227544</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>38490</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7">
+        <v>50.68816762530813</v>
+      </c>
+      <c r="M7">
+        <v>68.12914270062996</v>
+      </c>
+      <c r="N7">
+        <v>47.99685017803342</v>
+      </c>
+      <c r="O7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7">
+        <v>0.5947082096933729</v>
+      </c>
+      <c r="Q7">
+        <v>61.5697851096158</v>
+      </c>
+      <c r="R7">
+        <v>79.62774039505099</v>
+      </c>
+      <c r="S7">
+        <v>57.61406555242023</v>
+      </c>
+      <c r="T7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7">
+        <v>0.3724653808110782</v>
+      </c>
+      <c r="V7">
+        <v>81.58311345646437</v>
+      </c>
+      <c r="W7">
+        <v>98.67282321899735</v>
+      </c>
+      <c r="X7">
+        <v>84.21372031662268</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7">
+        <v>0.03282640949554896</v>
+      </c>
+      <c r="AA7">
+        <v>216</v>
+      </c>
+      <c r="AB7">
+        <v>228</v>
+      </c>
+      <c r="AC7">
+        <v>15944.5</v>
+      </c>
+      <c r="AD7">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="AE7">
+        <v>0.6242463393626184</v>
+      </c>
+      <c r="AF7">
+        <v>0.961902750965251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>36602</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>37.2504015</v>
+      </c>
+      <c r="J8">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8">
+        <v>62.31013879611073</v>
+      </c>
+      <c r="M8">
+        <v>98.83802790766717</v>
+      </c>
+      <c r="N8">
+        <v>21.18635418986119</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8">
+        <v>0.5181591384908546</v>
+      </c>
+      <c r="Q8">
+        <v>45.36885195633509</v>
+      </c>
+      <c r="R8">
+        <v>82.7310805838341</v>
+      </c>
+      <c r="S8">
+        <v>10.60723046731264</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8">
+        <v>0.3491042661752354</v>
+      </c>
+      <c r="V8">
+        <v>90.01899191218953</v>
+      </c>
+      <c r="W8">
+        <v>121.3991190063547</v>
+      </c>
+      <c r="X8">
+        <v>44.4110340843443</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z8">
+        <v>0.13273659533391</v>
+      </c>
+      <c r="AA8">
+        <v>520</v>
+      </c>
+      <c r="AB8">
+        <v>519</v>
+      </c>
+      <c r="AC8">
+        <v>80554.5</v>
+      </c>
+      <c r="AD8">
+        <v>1.001926782273603</v>
+      </c>
+      <c r="AE8">
+        <v>0.5129716305282261</v>
+      </c>
+      <c r="AF8">
+        <v>0.7763765336314659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>36600</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9">
+        <v>37.2496022353</v>
+      </c>
+      <c r="J9">
+        <v>-80.66670543399999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9">
+        <v>31.52426615913916</v>
+      </c>
+      <c r="M9">
+        <v>69.58612107459189</v>
+      </c>
+      <c r="N9">
+        <v>11.76456091550155</v>
+      </c>
+      <c r="O9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9">
+        <v>0.7973903852462004</v>
+      </c>
+      <c r="Q9">
+        <v>69.99909850351581</v>
+      </c>
+      <c r="R9">
+        <v>102.5898791994711</v>
+      </c>
+      <c r="S9">
+        <v>38.54642706893443</v>
+      </c>
+      <c r="T9" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9">
+        <v>0.1745270984437074</v>
+      </c>
+      <c r="V9">
+        <v>170.6975821003247</v>
+      </c>
+      <c r="W9">
+        <v>178.9364850234572</v>
+      </c>
+      <c r="X9">
+        <v>161.1187297004691</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9">
+        <v>0.02808251631009221</v>
+      </c>
+      <c r="AA9">
+        <v>453</v>
+      </c>
+      <c r="AB9">
+        <v>454</v>
+      </c>
+      <c r="AC9">
+        <v>54472</v>
+      </c>
+      <c r="AD9">
+        <v>0.9977973568281938</v>
+      </c>
+      <c r="AE9">
+        <v>0.3836461598056133</v>
+      </c>
+      <c r="AF9">
+        <v>0.6177539621785603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>36600</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>37.2485728184</v>
+      </c>
+      <c r="J10">
+        <v>-80.66748366829999</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10">
+        <v>23.99038648911984</v>
+      </c>
+      <c r="M10">
+        <v>62.16914582656705</v>
+      </c>
+      <c r="N10">
+        <v>8.14296849626502</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10">
+        <v>0.7120315581854043</v>
+      </c>
+      <c r="Q10">
+        <v>55.53091508656223</v>
+      </c>
+      <c r="R10">
+        <v>90.2388705688376</v>
+      </c>
+      <c r="S10">
+        <v>18.80338004946414</v>
+      </c>
+      <c r="T10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10">
+        <v>0.2311073541842773</v>
+      </c>
+      <c r="V10">
+        <v>94.51789976133654</v>
+      </c>
+      <c r="W10">
+        <v>120.2871917263325</v>
+      </c>
+      <c r="X10">
+        <v>60.88225934765315</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z10">
+        <v>0.0568610876303184</v>
+      </c>
+      <c r="AA10">
+        <v>127</v>
+      </c>
+      <c r="AB10">
+        <v>355</v>
+      </c>
+      <c r="AC10">
+        <v>45085</v>
+      </c>
+      <c r="AD10">
+        <v>0.3577464788732395</v>
+      </c>
+      <c r="AE10">
+        <v>45085</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>36600</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>37.2504015</v>
+      </c>
+      <c r="J11">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>56.3639565328205</v>
+      </c>
+      <c r="M11">
+        <v>73.46435274218582</v>
+      </c>
+      <c r="N11">
+        <v>23.92465071016473</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11">
+        <v>0.4833675217290164</v>
+      </c>
+      <c r="Q11">
+        <v>76.8193908393397</v>
+      </c>
+      <c r="R11">
+        <v>93.65728900255758</v>
+      </c>
+      <c r="S11">
+        <v>47.29451290397584</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11">
+        <v>0.4706367500581555</v>
+      </c>
+      <c r="V11">
+        <v>124.7712401724576</v>
+      </c>
+      <c r="W11">
+        <v>132.7136697945728</v>
+      </c>
+      <c r="X11">
+        <v>110.0223180319554</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z11">
+        <v>0.04599572821282805</v>
+      </c>
+      <c r="AA11">
+        <v>391</v>
+      </c>
+      <c r="AB11">
+        <v>394</v>
+      </c>
+      <c r="AC11">
+        <v>46800</v>
+      </c>
+      <c r="AD11">
+        <v>0.9923857868020305</v>
+      </c>
+      <c r="AE11">
+        <v>0.5007114810574855</v>
+      </c>
+      <c r="AF11">
+        <v>0.7538720511602058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>36600</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>37.2504015</v>
+      </c>
+      <c r="J12">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12">
+        <v>51.05374665477252</v>
+      </c>
+      <c r="M12">
+        <v>64.42796610169491</v>
+      </c>
+      <c r="N12">
+        <v>26.99628308058281</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12">
+        <v>0.535881753312946</v>
+      </c>
+      <c r="Q12">
+        <v>70.83025016773699</v>
+      </c>
+      <c r="R12">
+        <v>83.40697785871751</v>
+      </c>
+      <c r="S12">
+        <v>44.27547205981021</v>
+      </c>
+      <c r="T12" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12">
+        <v>0.4348623853211009</v>
+      </c>
+      <c r="V12">
+        <v>115.1519536903039</v>
+      </c>
+      <c r="W12">
+        <v>123.1606367583213</v>
+      </c>
+      <c r="X12">
+        <v>105.0217076700434</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12">
+        <v>0.02925586136595311</v>
+      </c>
+      <c r="AA12">
+        <v>171</v>
+      </c>
+      <c r="AB12">
+        <v>171</v>
+      </c>
+      <c r="AC12">
+        <v>9634</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>0.6326503808773313</v>
+      </c>
+      <c r="AF12">
+        <v>0.9440007838910391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>36660</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>37.2504015</v>
+      </c>
+      <c r="J13">
+        <v>-80.66645370000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13">
+        <v>34.5418673860449</v>
+      </c>
+      <c r="M13">
+        <v>61.82197529278265</v>
+      </c>
+      <c r="N13">
+        <v>15.48581583060355</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13">
+        <v>0.6751185630531387</v>
+      </c>
+      <c r="Q13">
+        <v>56.38783110411747</v>
+      </c>
+      <c r="R13">
+        <v>81.30731707317067</v>
+      </c>
+      <c r="S13">
+        <v>30.20660896931551</v>
+      </c>
+      <c r="T13" t="s">
+        <v>106</v>
+      </c>
+      <c r="U13">
+        <v>0.2990402927667202</v>
+      </c>
+      <c r="V13">
+        <v>118.0573951434879</v>
+      </c>
+      <c r="W13">
+        <v>131.1892935982341</v>
+      </c>
+      <c r="X13">
+        <v>117.9983443708609</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13">
+        <v>0.02584114418014116</v>
+      </c>
+      <c r="AA13">
+        <v>181</v>
+      </c>
+      <c r="AB13">
+        <v>262</v>
+      </c>
+      <c r="AC13">
+        <v>47422</v>
+      </c>
+      <c r="AD13">
+        <v>0.6908396946564885</v>
+      </c>
+      <c r="AE13">
+        <v>47422</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>37380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14">
+        <v>26.92288511267085</v>
+      </c>
+      <c r="M14">
+        <v>60.07222016992981</v>
+      </c>
+      <c r="N14">
+        <v>7.679903952715183</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14">
+        <v>0.5699124436189971</v>
+      </c>
+      <c r="Q14">
+        <v>41.9477803868948</v>
+      </c>
+      <c r="R14">
+        <v>72.39751761153975</v>
+      </c>
+      <c r="S14">
+        <v>17.24477244772448</v>
+      </c>
+      <c r="T14" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14">
+        <v>0.3951976651631732</v>
+      </c>
+      <c r="V14">
+        <v>106.2425952045134</v>
+      </c>
+      <c r="W14">
+        <v>122.4668547249647</v>
+      </c>
+      <c r="X14">
+        <v>95.2242595204513</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14">
+        <v>0.03488989121782966</v>
+      </c>
+      <c r="AA14">
+        <v>226</v>
+      </c>
+      <c r="AB14">
+        <v>230</v>
+      </c>
+      <c r="AC14">
+        <v>15060.5</v>
+      </c>
+      <c r="AD14">
+        <v>0.9826086956521739</v>
+      </c>
+      <c r="AE14">
+        <v>0.4398510514018691</v>
+      </c>
+      <c r="AF14">
+        <v>0.7597871052366058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2">
-        <v>41820</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2">
-        <v>31.1735516158</v>
-      </c>
-      <c r="J2">
-        <v>121.4434514835</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2">
-        <v>91.85866616780461</v>
-      </c>
-      <c r="M2">
-        <v>153.3836872135442</v>
-      </c>
-      <c r="N2">
-        <v>8.644654382190559</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2">
-        <v>0.5231236527532824</v>
-      </c>
-      <c r="Q2">
-        <v>62.47787610619413</v>
-      </c>
-      <c r="R2">
-        <v>114.3943362831863</v>
-      </c>
-      <c r="S2">
-        <v>3.942300884955552</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2">
-        <v>0.2776308054085832</v>
-      </c>
-      <c r="V2">
-        <v>124.0746745271427</v>
-      </c>
-      <c r="W2">
-        <v>171.8636698599856</v>
-      </c>
-      <c r="X2">
-        <v>59.33284205354913</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2">
-        <v>0.1992455418381344</v>
-      </c>
-      <c r="AA2">
-        <v>425</v>
-      </c>
-      <c r="AB2">
-        <v>312</v>
-      </c>
-      <c r="AC2">
-        <v>29075</v>
-      </c>
-      <c r="AD2">
-        <v>1.362179487179487</v>
-      </c>
-      <c r="AE2">
-        <v>0.2192684766214178</v>
-      </c>
-      <c r="AF2">
-        <v>0.7917273680340926</v>
-      </c>
-      <c r="AG2">
-        <v>28.65376091003418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>41820</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3">
-        <v>31.1842826996</v>
-      </c>
-      <c r="J3">
-        <v>121.4352117322</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3">
-        <v>31.09900725042031</v>
-      </c>
-      <c r="M3">
-        <v>42.56052426101493</v>
-      </c>
-      <c r="N3">
-        <v>13.09405465699855</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3">
-        <v>0.5643728911355569</v>
-      </c>
-      <c r="Q3">
-        <v>62.094764198783</v>
-      </c>
-      <c r="R3">
-        <v>76.7427527045309</v>
-      </c>
-      <c r="S3">
-        <v>31.27389705882275</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3">
-        <v>0.2947204696260803</v>
-      </c>
-      <c r="V3">
-        <v>171.1346359266632</v>
-      </c>
-      <c r="W3">
-        <v>144.4651949439139</v>
-      </c>
-      <c r="X3">
-        <v>209.2709631475868</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3">
-        <v>0.1409066392383628</v>
-      </c>
-      <c r="AA3">
-        <v>499</v>
-      </c>
-      <c r="AB3">
-        <v>332</v>
-      </c>
-      <c r="AC3">
-        <v>160978</v>
-      </c>
-      <c r="AD3">
-        <v>1.503012048192771</v>
-      </c>
-      <c r="AE3">
-        <v>0.9716903686891856</v>
-      </c>
-      <c r="AF3">
-        <v>0.9716903686891856</v>
-      </c>
-      <c r="AG3">
-        <v>81.53978729248047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>41820</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4">
-        <v>31.1773801504</v>
-      </c>
-      <c r="J4">
-        <v>121.4369283459</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>21.4819562330384</v>
-      </c>
-      <c r="M4">
-        <v>36.44638835960434</v>
-      </c>
-      <c r="N4">
-        <v>17.53143945955303</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4">
-        <v>0.4417112299465241</v>
-      </c>
-      <c r="Q4">
-        <v>43.52746689448949</v>
-      </c>
-      <c r="R4">
-        <v>81.56744980777452</v>
-      </c>
-      <c r="S4">
-        <v>32.53208030756082</v>
-      </c>
-      <c r="T4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4">
-        <v>0.297886427298192</v>
-      </c>
-      <c r="V4">
-        <v>73.30060511419153</v>
-      </c>
-      <c r="W4">
-        <v>124.1522545383554</v>
-      </c>
-      <c r="X4">
-        <v>61.59037673238332</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4">
-        <v>0.260402342755284</v>
-      </c>
-      <c r="AA4">
-        <v>499</v>
-      </c>
-      <c r="AB4">
-        <v>332</v>
-      </c>
-      <c r="AC4">
-        <v>38861</v>
-      </c>
-      <c r="AD4">
-        <v>1.503012048192771</v>
-      </c>
-      <c r="AE4">
-        <v>0.2345715527440423</v>
-      </c>
-      <c r="AF4">
-        <v>0.6625690513537476</v>
-      </c>
-      <c r="AG4">
-        <v>155.7671661376953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>41820</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>31.1720927511</v>
-      </c>
-      <c r="J5">
-        <v>121.4345250867</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>119.6535114850098</v>
-      </c>
-      <c r="M5">
-        <v>120.3929234195226</v>
-      </c>
-      <c r="N5">
-        <v>57.46525629922908</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5">
-        <v>0.4678149625262509</v>
-      </c>
-      <c r="Q5">
-        <v>62.69727001884973</v>
-      </c>
-      <c r="R5">
-        <v>56.23213959992711</v>
-      </c>
-      <c r="S5">
-        <v>24.59135404633094</v>
-      </c>
-      <c r="T5" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5">
-        <v>0.3162437624029439</v>
-      </c>
-      <c r="V5">
-        <v>184.7987864727414</v>
-      </c>
-      <c r="W5">
-        <v>181.5444811278665</v>
-      </c>
-      <c r="X5">
-        <v>130.5095922191479</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5">
-        <v>0.2159412750708052</v>
-      </c>
-      <c r="AA5">
-        <v>387</v>
-      </c>
-      <c r="AB5">
-        <v>240</v>
-      </c>
-      <c r="AC5">
-        <v>53230</v>
-      </c>
-      <c r="AD5">
-        <v>1.6125</v>
-      </c>
-      <c r="AE5">
-        <v>0.5731050818260121</v>
-      </c>
-      <c r="AF5">
-        <v>0.7515973031169473</v>
-      </c>
-      <c r="AG5">
-        <v>104.5516662597656</v>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>37920</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15">
+        <v>37.2295733</v>
+      </c>
+      <c r="J15">
+        <v>-80.4139393</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15">
+        <v>38.06539541413196</v>
+      </c>
+      <c r="M15">
+        <v>69.60575573233506</v>
+      </c>
+      <c r="N15">
+        <v>12.35084230229293</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15">
+        <v>0.6357014695830485</v>
+      </c>
+      <c r="Q15">
+        <v>67.07770270270271</v>
+      </c>
+      <c r="R15">
+        <v>97.98856548856551</v>
+      </c>
+      <c r="S15">
+        <v>26.01559251559252</v>
+      </c>
+      <c r="T15" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15">
+        <v>0.2976973684210527</v>
+      </c>
+      <c r="V15">
+        <v>100.1735807860262</v>
+      </c>
+      <c r="W15">
+        <v>125.2161572052402</v>
+      </c>
+      <c r="X15">
+        <v>62.08078602620086</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z15">
+        <v>0.06660116199589884</v>
+      </c>
+      <c r="AA15">
+        <v>290</v>
+      </c>
+      <c r="AB15">
+        <v>455</v>
+      </c>
+      <c r="AC15">
+        <v>47232.5</v>
+      </c>
+      <c r="AD15">
+        <v>0.6373626373626373</v>
+      </c>
+      <c r="AE15">
+        <v>0.4894458145945162</v>
+      </c>
+      <c r="AF15">
+        <v>0.7729284796714041</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +2190,16 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iNatStruct.xlsx
+++ b/iNatStruct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
   <si>
     <t>Image_Label</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Solidity</t>
   </si>
   <si>
+    <t>Angle</t>
+  </si>
+  <si>
     <t>p1</t>
   </si>
   <si>
@@ -289,67 +292,70 @@
     <t xml:space="preserve">             74.655070</t>
   </si>
   <si>
-    <t>['#20410e', '#335417', '#577347']</t>
-  </si>
-  <si>
-    <t>['#506232', '#392815', '#7c8072']</t>
-  </si>
-  <si>
-    <t>['#213625', '#304431', '#647471']</t>
-  </si>
-  <si>
-    <t>['#313221', '#4c4a32', '#747978']</t>
-  </si>
-  <si>
-    <t>['#7e89a3', '#727c8c', '#344622']</t>
-  </si>
-  <si>
-    <t>['#334430', '#3e503a', '#526354']</t>
-  </si>
-  <si>
-    <t>['#3e6315', '#2d530b', '#5a792c']</t>
-  </si>
-  <si>
-    <t>['#20460c', '#466727', '#abb3a1']</t>
-  </si>
-  <si>
-    <t>['#183e08', '#385a13', '#5f783d']</t>
-  </si>
-  <si>
-    <t>['#384918', '#4d5e2f', '#7d856e']</t>
-  </si>
-  <si>
-    <t>['#33401b', '#47532c', '#737b69']</t>
-  </si>
-  <si>
-    <t>['#233e0f', '#38511e', '#768376']</t>
-  </si>
-  <si>
-    <t>['#1b3c08', '#2a4811', '#6a7a5f']</t>
-  </si>
-  <si>
-    <t>['#26460c', '#43621a', '#647d3e']</t>
+    <t>['#315315', '#1f400e', '#506d3a']</t>
+  </si>
+  <si>
+    <t>['#606d46', '#394f1c', '#3f1c16']</t>
+  </si>
+  <si>
+    <t>['#213625', '#2d412e', '#60706d']</t>
+  </si>
+  <si>
+    <t>['#313221', '#4c4a32', '#747979']</t>
+  </si>
+  <si>
+    <t>['#7d88a3', '#717b8b', '#334521']</t>
+  </si>
+  <si>
+    <t>['#394b36', '#31422e', '#475a44']</t>
+  </si>
+  <si>
+    <t>['#3f6416', '#2f540b', '#59792c']</t>
+  </si>
+  <si>
+    <t>['#20460c', '#466727', '#aab2a0']</t>
+  </si>
+  <si>
+    <t>['#173d08', '#335611', '#597536']</t>
+  </si>
+  <si>
+    <t>['#4d5d2f', '#384918', '#7c846c']</t>
+  </si>
+  <si>
+    <t>['#33411b', '#47532c', '#727a68']</t>
+  </si>
+  <si>
+    <t>['#213c0f', '#354e1b', '#738072']</t>
+  </si>
+  <si>
+    <t>['#1d3e09', '#2d4b14', '#6b7b60']</t>
+  </si>
+  <si>
+    <t>['#26460c', '#43621a', '#657d41']</t>
+  </si>
+  <si>
+    <t>darkolivegreen</t>
+  </si>
+  <si>
+    <t>darkslategray</t>
+  </si>
+  <si>
+    <t>lightslategray</t>
   </si>
   <si>
     <t>darkgreen</t>
   </si>
   <si>
-    <t>darkolivegreen</t>
-  </si>
-  <si>
-    <t>darkslategray</t>
-  </si>
-  <si>
-    <t>lightslategray</t>
-  </si>
-  <si>
     <t>slategray</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>dimgray</t>
+  </si>
+  <si>
     <t>gray</t>
-  </si>
-  <si>
-    <t>dimgray</t>
   </si>
   <si>
     <t>darkgray</t>
@@ -723,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,28 +832,31 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>43641</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>37.2463215678</v>
@@ -856,96 +865,99 @@
         <v>-80.40952306609999</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2">
-        <v>32.09783710713079</v>
+        <v>49.02021206096753</v>
       </c>
       <c r="M2">
-        <v>65.07113889827644</v>
+        <v>82.55715705765408</v>
       </c>
       <c r="N2">
-        <v>14.22744170327813</v>
+        <v>21.2188535453943</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P2">
-        <v>0.4905506869057858</v>
+        <v>0.4977568051326158</v>
       </c>
       <c r="Q2">
-        <v>50.63216481143047</v>
+        <v>31.46352392901954</v>
       </c>
       <c r="R2">
-        <v>84.10034889516533</v>
+        <v>64.34217601720739</v>
       </c>
       <c r="S2">
-        <v>22.51254361189567</v>
+        <v>14.13927227101631</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U2">
-        <v>0.4796950184802064</v>
+        <v>0.4564959668983473</v>
       </c>
       <c r="V2">
-        <v>87.47293447293447</v>
+        <v>79.6448736998514</v>
       </c>
       <c r="W2">
-        <v>115.0455840455841</v>
+        <v>109.4665676077266</v>
       </c>
       <c r="X2">
-        <v>71.23931623931624</v>
+        <v>57.72956909361069</v>
       </c>
       <c r="Y2" t="s">
         <v>106</v>
       </c>
       <c r="Z2">
-        <v>0.02975429461400777</v>
+        <v>0.04574722796903694</v>
       </c>
       <c r="AA2">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="AB2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AC2">
         <v>42647</v>
       </c>
       <c r="AD2">
-        <v>1.0187265917603</v>
+        <v>1.049586776859504</v>
       </c>
       <c r="AE2">
-        <v>0.7050139690201849</v>
+        <v>0.6938081603435934</v>
       </c>
       <c r="AF2">
         <v>0.9190767639325891</v>
       </c>
+      <c r="AG2">
+        <v>105.9358596801758</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>43743</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <v>37.3504969752</v>
@@ -954,93 +966,96 @@
         <v>-80.4847910049</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3">
-        <v>79.9584011843079</v>
+        <v>95.66843762298309</v>
       </c>
       <c r="M3">
-        <v>98.23153219837155</v>
+        <v>109.1473829201102</v>
       </c>
       <c r="N3">
-        <v>50.31946706143597</v>
+        <v>70.2748917748918</v>
       </c>
       <c r="O3" t="s">
         <v>106</v>
       </c>
       <c r="P3">
-        <v>0.4951400138856746</v>
+        <v>0.3943366284259596</v>
       </c>
       <c r="Q3">
-        <v>57.19501302567917</v>
+        <v>56.50852794542114</v>
       </c>
       <c r="R3">
-        <v>40.45180498697432</v>
+        <v>79.01416950931514</v>
       </c>
       <c r="S3">
-        <v>21.09452921473763</v>
+        <v>28.31067961165048</v>
       </c>
       <c r="T3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3">
-        <v>0.419529209508381</v>
+        <v>0.3250404998842861</v>
       </c>
       <c r="V3">
-        <v>123.9729501267962</v>
+        <v>63.13107511045655</v>
       </c>
       <c r="W3">
-        <v>127.8901098901099</v>
+        <v>28.13048600883653</v>
       </c>
       <c r="X3">
-        <v>113.5815722738799</v>
+        <v>22.02326951399117</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z3">
-        <v>0.08533077660594439</v>
+        <v>0.2806228716897544</v>
       </c>
       <c r="AA3">
-        <v>428</v>
+        <v>374</v>
       </c>
       <c r="AB3">
-        <v>465</v>
+        <v>345</v>
       </c>
       <c r="AC3">
         <v>60445</v>
       </c>
       <c r="AD3">
-        <v>0.9204301075268817</v>
+        <v>1.084057971014493</v>
       </c>
       <c r="AE3">
-        <v>0.4723446486621655</v>
+        <v>0.4684569479965899</v>
       </c>
       <c r="AF3">
         <v>0.6568537958314317</v>
       </c>
+      <c r="AG3">
+        <v>46.17789459228516</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>43821</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>37.2461629761</v>
@@ -1049,93 +1064,96 @@
         <v>-80.4092512154</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4">
-        <v>33.31991464696328</v>
+        <v>32.80097832342221</v>
       </c>
       <c r="M4">
-        <v>54.16293512532247</v>
+        <v>53.6360540955304</v>
       </c>
       <c r="N4">
-        <v>37.32106118029236</v>
+        <v>36.91338960291581</v>
       </c>
       <c r="O4" t="s">
         <v>107</v>
       </c>
       <c r="P4">
-        <v>0.8577368716127827</v>
+        <v>0.803774995327976</v>
       </c>
       <c r="Q4">
-        <v>47.94422726088088</v>
+        <v>44.85721006821925</v>
       </c>
       <c r="R4">
-        <v>68.09616888193901</v>
+        <v>65.34932956951307</v>
       </c>
       <c r="S4">
-        <v>48.69611675788377</v>
+        <v>45.8040461067984</v>
       </c>
       <c r="T4" t="s">
         <v>107</v>
       </c>
       <c r="U4">
-        <v>0.1243692767706971</v>
+        <v>0.1772098673145207</v>
       </c>
       <c r="V4">
-        <v>99.50662251655626</v>
+        <v>95.67002012072433</v>
       </c>
       <c r="W4">
-        <v>116.1605960264901</v>
+        <v>112.1670020120724</v>
       </c>
       <c r="X4">
-        <v>113.3129139072847</v>
+        <v>109.2837022132797</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z4">
-        <v>0.01789385161652028</v>
+        <v>0.01901513735750327</v>
       </c>
       <c r="AA4">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AB4">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="AC4">
         <v>21082</v>
       </c>
       <c r="AD4">
-        <v>2.120567375886525</v>
+        <v>2.478991596638656</v>
       </c>
       <c r="AE4">
-        <v>0.6181679568379076</v>
+        <v>0.6005412334425295</v>
       </c>
       <c r="AF4">
         <v>0.8983105013102669</v>
       </c>
+      <c r="AG4">
+        <v>89.91668701171875</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>43837</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5">
         <v>37.2463788487</v>
@@ -1144,286 +1162,295 @@
         <v>-80.4095616039</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L5">
-        <v>49.20835349137236</v>
+        <v>49.4470741455966</v>
       </c>
       <c r="M5">
-        <v>50.13255926463474</v>
+        <v>50.31477073696502</v>
       </c>
       <c r="N5">
-        <v>32.63876794065473</v>
+        <v>32.74877621592492</v>
       </c>
       <c r="O5" t="s">
         <v>107</v>
       </c>
       <c r="P5">
-        <v>0.5055160949070576</v>
+        <v>0.5091431162158078</v>
       </c>
       <c r="Q5">
-        <v>76.28256688232207</v>
+        <v>76.46225016612998</v>
       </c>
       <c r="R5">
-        <v>73.68735792970797</v>
+        <v>73.84598476716251</v>
       </c>
       <c r="S5">
-        <v>50.16611295681063</v>
+        <v>50.36993303685529</v>
       </c>
       <c r="T5" t="s">
         <v>106</v>
       </c>
       <c r="U5">
-        <v>0.4646617298876631</v>
+        <v>0.4613369603546421</v>
       </c>
       <c r="V5">
-        <v>115.8125</v>
+        <v>116.3030560271646</v>
       </c>
       <c r="W5">
-        <v>120.5733695652174</v>
+        <v>121.0967741935483</v>
       </c>
       <c r="X5">
-        <v>120.1521739130435</v>
+        <v>120.6714770797963</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z5">
-        <v>0.02982217520527933</v>
+        <v>0.02951992342955015</v>
       </c>
       <c r="AA5">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="AB5">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="AC5">
         <v>19528.5</v>
       </c>
       <c r="AD5">
-        <v>1.269911504424779</v>
+        <v>1.756578947368421</v>
       </c>
       <c r="AE5">
-        <v>0.4927208962002321</v>
+        <v>0.4811871673565937</v>
       </c>
       <c r="AF5">
         <v>0.741386837759344</v>
       </c>
+      <c r="AG5">
+        <v>83.74250793457031</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>38899</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6">
-        <v>125.8543609434997</v>
+        <v>125.4753499059954</v>
       </c>
       <c r="M6">
-        <v>136.8104772353264</v>
+        <v>136.4098600376018</v>
       </c>
       <c r="N6">
-        <v>163.0735052111904</v>
+        <v>162.5127428452058</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
       </c>
       <c r="P6">
-        <v>0.5533154716804274</v>
+        <v>0.5735933948336601</v>
       </c>
       <c r="Q6">
-        <v>113.6721050537207</v>
+        <v>113.0645161290323</v>
       </c>
       <c r="R6">
-        <v>123.7280143255074</v>
+        <v>123.1267407015688</v>
       </c>
       <c r="S6">
-        <v>139.7839235972941</v>
+        <v>138.7479287854751</v>
       </c>
       <c r="T6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U6">
-        <v>0.3728997586333492</v>
+        <v>0.3529030393451074</v>
       </c>
       <c r="V6">
-        <v>51.77464788732395</v>
+        <v>50.830255057168</v>
       </c>
       <c r="W6">
-        <v>69.91750503018108</v>
+        <v>69.12576956904134</v>
       </c>
       <c r="X6">
-        <v>34.11971830985917</v>
+        <v>33.01846965699209</v>
       </c>
       <c r="Y6" t="s">
         <v>107</v>
       </c>
       <c r="Z6">
-        <v>0.07378476968622336</v>
+        <v>0.07350356582123245</v>
       </c>
       <c r="AA6">
         <v>499</v>
       </c>
       <c r="AB6">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AC6">
-        <v>227544</v>
+        <v>126945.5</v>
       </c>
       <c r="AD6">
-        <v>1.094298245614035</v>
+        <v>1.089519650655022</v>
       </c>
       <c r="AE6">
-        <v>227544</v>
+        <v>0.5554580777275074</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.7743199680379641</v>
+      </c>
+      <c r="AG6">
+        <v>63.34011459350586</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>38490</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7">
-        <v>50.68816762530813</v>
+        <v>57.08795188117598</v>
       </c>
       <c r="M7">
-        <v>68.12914270062996</v>
+        <v>74.74792855827656</v>
       </c>
       <c r="N7">
-        <v>47.99685017803342</v>
+        <v>53.8696372675382</v>
       </c>
       <c r="O7" t="s">
         <v>107</v>
       </c>
       <c r="P7">
-        <v>0.5947082096933729</v>
+        <v>0.4804030662710188</v>
       </c>
       <c r="Q7">
-        <v>61.5697851096158</v>
+        <v>48.59151132337083</v>
       </c>
       <c r="R7">
-        <v>79.62774039505099</v>
+        <v>66.02665228778309</v>
       </c>
       <c r="S7">
-        <v>57.61406555242023</v>
+        <v>45.97257741488216</v>
       </c>
       <c r="T7" t="s">
         <v>107</v>
       </c>
       <c r="U7">
-        <v>0.3724653808110782</v>
+        <v>0.3885385756676558</v>
       </c>
       <c r="V7">
-        <v>81.58311345646437</v>
+        <v>71.14810715076379</v>
       </c>
       <c r="W7">
-        <v>98.67282321899735</v>
+        <v>89.55235775957495</v>
       </c>
       <c r="X7">
-        <v>84.21372031662268</v>
+        <v>67.6444542838167</v>
       </c>
       <c r="Y7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Z7">
-        <v>0.03282640949554896</v>
+        <v>0.1310583580613254</v>
       </c>
       <c r="AA7">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="AB7">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AC7">
         <v>15944.5</v>
       </c>
       <c r="AD7">
-        <v>0.9473684210526315</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="AE7">
-        <v>0.6242463393626184</v>
+        <v>0.5118290960451978</v>
       </c>
       <c r="AF7">
         <v>0.961902750965251</v>
       </c>
+      <c r="AG7">
+        <v>3.063427686691284</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>36602</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>37.2504015</v>
@@ -1432,96 +1459,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>62.31013879611073</v>
+        <v>63.04326856827891</v>
       </c>
       <c r="M8">
-        <v>98.83802790766717</v>
+        <v>99.53617197188922</v>
       </c>
       <c r="N8">
-        <v>21.18635418986119</v>
+        <v>21.67727711175417</v>
       </c>
       <c r="O8" t="s">
         <v>106</v>
       </c>
       <c r="P8">
-        <v>0.5181591384908546</v>
+        <v>0.48447352915366</v>
       </c>
       <c r="Q8">
-        <v>45.36885195633509</v>
+        <v>46.58006564173432</v>
       </c>
       <c r="R8">
-        <v>82.7310805838341</v>
+        <v>83.87320780791157</v>
       </c>
       <c r="S8">
-        <v>10.60723046731264</v>
+        <v>11.2686128865089</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U8">
-        <v>0.3491042661752354</v>
+        <v>0.3810096907242344</v>
       </c>
       <c r="V8">
-        <v>90.01899191218953</v>
+        <v>88.8539325842697</v>
       </c>
       <c r="W8">
-        <v>121.3991190063547</v>
+        <v>120.8020743301642</v>
       </c>
       <c r="X8">
-        <v>44.4110340843443</v>
+        <v>43.50777873811582</v>
       </c>
       <c r="Y8" t="s">
         <v>106</v>
       </c>
       <c r="Z8">
-        <v>0.13273659533391</v>
+        <v>0.1345167801221056</v>
       </c>
       <c r="AA8">
-        <v>520</v>
+        <v>362</v>
       </c>
       <c r="AB8">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="AC8">
         <v>80554.5</v>
       </c>
       <c r="AD8">
-        <v>1.001926782273603</v>
+        <v>0.7991169977924945</v>
       </c>
       <c r="AE8">
-        <v>0.5129716305282261</v>
+        <v>0.4912279096996085</v>
       </c>
       <c r="AF8">
         <v>0.7763765336314659</v>
       </c>
+      <c r="AG8">
+        <v>127.713134765625</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>36600</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>37.2496022353</v>
@@ -1530,96 +1560,99 @@
         <v>-80.66670543399999</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9">
-        <v>31.52426615913916</v>
+        <v>31.61299239806495</v>
       </c>
       <c r="M9">
-        <v>69.58612107459189</v>
+        <v>69.65643982104531</v>
       </c>
       <c r="N9">
-        <v>11.76456091550155</v>
+        <v>11.79774851780454</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P9">
-        <v>0.7973903852462004</v>
+        <v>0.7984655756824726</v>
       </c>
       <c r="Q9">
-        <v>69.99909850351581</v>
+        <v>70.05961556319063</v>
       </c>
       <c r="R9">
-        <v>102.5898791994711</v>
+        <v>102.6534497167796</v>
       </c>
       <c r="S9">
-        <v>38.54642706893443</v>
+        <v>38.72485838982262</v>
       </c>
       <c r="T9" t="s">
         <v>106</v>
       </c>
       <c r="U9">
-        <v>0.1745270984437074</v>
+        <v>0.1732696723402704</v>
       </c>
       <c r="V9">
-        <v>170.6975821003247</v>
+        <v>169.5997813012575</v>
       </c>
       <c r="W9">
-        <v>178.9364850234572</v>
+        <v>178.4455986878075</v>
       </c>
       <c r="X9">
-        <v>161.1187297004691</v>
+        <v>160.4784034991799</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z9">
-        <v>0.02808251631009221</v>
+        <v>0.02826475197725699</v>
       </c>
       <c r="AA9">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="AB9">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="AC9">
         <v>54472</v>
       </c>
       <c r="AD9">
-        <v>0.9977973568281938</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="AE9">
-        <v>0.3836461598056133</v>
+        <v>0.3776064773735581</v>
       </c>
       <c r="AF9">
         <v>0.6177539621785603</v>
       </c>
+      <c r="AG9">
+        <v>29.49881362915039</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <v>36600</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>37.2485728184</v>
@@ -1628,96 +1661,99 @@
         <v>-80.66748366829999</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>23.99038648911984</v>
+        <v>23.15268563119149</v>
       </c>
       <c r="M10">
-        <v>62.16914582656705</v>
+        <v>61.37662455693903</v>
       </c>
       <c r="N10">
-        <v>8.14296849626502</v>
+        <v>7.903889848223215</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P10">
-        <v>0.7120315581854043</v>
+        <v>0.6865032403493943</v>
       </c>
       <c r="Q10">
-        <v>55.53091508656223</v>
+        <v>51.07507730364873</v>
       </c>
       <c r="R10">
-        <v>90.2388705688376</v>
+        <v>86.33160173160174</v>
       </c>
       <c r="S10">
-        <v>18.80338004946414</v>
+        <v>16.50624613481756</v>
       </c>
       <c r="T10" t="s">
         <v>106</v>
       </c>
       <c r="U10">
-        <v>0.2311073541842773</v>
+        <v>0.2394477317554241</v>
       </c>
       <c r="V10">
-        <v>94.51789976133654</v>
+        <v>89.36197235711617</v>
       </c>
       <c r="W10">
-        <v>120.2871917263325</v>
+        <v>116.8823309675009</v>
       </c>
       <c r="X10">
-        <v>60.88225934765315</v>
+        <v>53.51101979828169</v>
       </c>
       <c r="Y10" t="s">
         <v>106</v>
       </c>
       <c r="Z10">
-        <v>0.0568610876303184</v>
+        <v>0.07404902789518174</v>
       </c>
       <c r="AA10">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB10">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC10">
-        <v>45085</v>
+        <v>17808</v>
       </c>
       <c r="AD10">
-        <v>0.3577464788732395</v>
+        <v>0.3569405099150141</v>
       </c>
       <c r="AE10">
-        <v>45085</v>
+        <v>0.4003777148253069</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.8890220158753931</v>
+      </c>
+      <c r="AG10">
+        <v>179.0602264404297</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <v>36600</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>37.2504015</v>
@@ -1726,96 +1762,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11">
-        <v>56.3639565328205</v>
+        <v>76.56441309555495</v>
       </c>
       <c r="M11">
-        <v>73.46435274218582</v>
+        <v>93.39756898234407</v>
       </c>
       <c r="N11">
-        <v>23.92465071016473</v>
+        <v>46.90058557359595</v>
       </c>
       <c r="O11" t="s">
         <v>106</v>
       </c>
       <c r="P11">
-        <v>0.4833675217290164</v>
+        <v>0.4761562374436949</v>
       </c>
       <c r="Q11">
-        <v>76.8193908393397</v>
+        <v>56.09172581079866</v>
       </c>
       <c r="R11">
-        <v>93.65728900255758</v>
+        <v>73.14553948432301</v>
       </c>
       <c r="S11">
-        <v>47.29451290397584</v>
+        <v>23.64239511274819</v>
       </c>
       <c r="T11" t="s">
         <v>106</v>
       </c>
       <c r="U11">
-        <v>0.4706367500581555</v>
+        <v>0.4761139425212003</v>
       </c>
       <c r="V11">
-        <v>124.7712401724576</v>
+        <v>123.6008695652174</v>
       </c>
       <c r="W11">
-        <v>132.7136697945728</v>
+        <v>132.0226086956522</v>
       </c>
       <c r="X11">
-        <v>110.0223180319554</v>
+        <v>108.2704347826087</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z11">
-        <v>0.04599572821282805</v>
+        <v>0.04772982003510479</v>
       </c>
       <c r="AA11">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="AB11">
-        <v>394</v>
+        <v>296</v>
       </c>
       <c r="AC11">
         <v>46800</v>
       </c>
       <c r="AD11">
-        <v>0.9923857868020305</v>
+        <v>1.087837837837838</v>
       </c>
       <c r="AE11">
-        <v>0.5007114810574855</v>
+        <v>0.4910189692798388</v>
       </c>
       <c r="AF11">
         <v>0.7538720511602058</v>
       </c>
+      <c r="AG11">
+        <v>87.69241333007812</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12">
         <v>36600</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12">
         <v>37.2504015</v>
@@ -1824,96 +1863,99 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L12">
-        <v>51.05374665477252</v>
+        <v>51.28143447461629</v>
       </c>
       <c r="M12">
-        <v>64.42796610169491</v>
+        <v>64.57069067296339</v>
       </c>
       <c r="N12">
-        <v>26.99628308058281</v>
+        <v>27.19583825265643</v>
       </c>
       <c r="O12" t="s">
         <v>107</v>
       </c>
       <c r="P12">
-        <v>0.535881753312946</v>
+        <v>0.53710499490316</v>
       </c>
       <c r="Q12">
-        <v>70.83025016773699</v>
+        <v>70.84965034965035</v>
       </c>
       <c r="R12">
-        <v>83.40697785871751</v>
+        <v>83.48659673659672</v>
       </c>
       <c r="S12">
-        <v>44.27547205981021</v>
+        <v>44.28418803418804</v>
       </c>
       <c r="T12" t="s">
         <v>106</v>
       </c>
       <c r="U12">
-        <v>0.4348623853211009</v>
+        <v>0.4330275229357798</v>
       </c>
       <c r="V12">
-        <v>115.1519536903039</v>
+        <v>114.1043956043956</v>
       </c>
       <c r="W12">
-        <v>123.1606367583213</v>
+        <v>122.1346153846154</v>
       </c>
       <c r="X12">
-        <v>105.0217076700434</v>
+        <v>104.0824175824176</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z12">
-        <v>0.02925586136595311</v>
+        <v>0.02986748216106014</v>
       </c>
       <c r="AA12">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AB12">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AC12">
         <v>9634</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="AE12">
-        <v>0.6326503808773313</v>
+        <v>0.3413648926369499</v>
       </c>
       <c r="AF12">
         <v>0.9440007838910391</v>
       </c>
+      <c r="AG12">
+        <v>179.1753540039062</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13">
         <v>36660</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>37.2504015</v>
@@ -1922,194 +1964,200 @@
         <v>-80.66645370000001</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13">
-        <v>34.5418673860449</v>
+        <v>32.74457574951552</v>
       </c>
       <c r="M13">
-        <v>61.82197529278265</v>
+        <v>60.06125318235362</v>
       </c>
       <c r="N13">
-        <v>15.48581583060355</v>
+        <v>14.51666223353725</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P13">
-        <v>0.6751185630531387</v>
+        <v>0.6012173718212032</v>
       </c>
       <c r="Q13">
-        <v>56.38783110411747</v>
+        <v>52.78969613890794</v>
       </c>
       <c r="R13">
-        <v>81.30731707317067</v>
+        <v>78.43528672606809</v>
       </c>
       <c r="S13">
-        <v>30.20660896931551</v>
+        <v>27.1318254512223</v>
       </c>
       <c r="T13" t="s">
         <v>106</v>
       </c>
       <c r="U13">
-        <v>0.2990402927667202</v>
+        <v>0.370924978527951</v>
       </c>
       <c r="V13">
-        <v>118.0573951434879</v>
+        <v>115.1421608448416</v>
       </c>
       <c r="W13">
-        <v>131.1892935982341</v>
+        <v>128.1510966693745</v>
       </c>
       <c r="X13">
-        <v>117.9983443708609</v>
+        <v>113.5239642567018</v>
       </c>
       <c r="Y13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z13">
-        <v>0.02584114418014116</v>
+        <v>0.02785764965084581</v>
       </c>
       <c r="AA13">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB13">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC13">
-        <v>47422</v>
+        <v>26603</v>
       </c>
       <c r="AD13">
-        <v>0.6908396946564885</v>
+        <v>0.685823754789272</v>
       </c>
       <c r="AE13">
-        <v>47422</v>
+        <v>0.5694257154476765</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>0.8941433492983782</v>
+      </c>
+      <c r="AG13">
+        <v>177.54052734375</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14">
         <v>37380</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14">
-        <v>26.92288511267085</v>
+        <v>28.92710570269625</v>
       </c>
       <c r="M14">
-        <v>60.07222016992981</v>
+        <v>61.76330231448342</v>
       </c>
       <c r="N14">
-        <v>7.679903952715183</v>
+        <v>8.618110236220472</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P14">
-        <v>0.5699124436189971</v>
+        <v>0.6742504643141417</v>
       </c>
       <c r="Q14">
-        <v>41.9477803868948</v>
+        <v>45.46111751152075</v>
       </c>
       <c r="R14">
-        <v>72.39751761153975</v>
+        <v>75.0910138248848</v>
       </c>
       <c r="S14">
-        <v>17.24477244772448</v>
+        <v>20.26209677419355</v>
       </c>
       <c r="T14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="U14">
-        <v>0.3951976651631732</v>
+        <v>0.2920535951180684</v>
       </c>
       <c r="V14">
-        <v>106.2425952045134</v>
+        <v>106.6912442396313</v>
       </c>
       <c r="W14">
-        <v>122.4668547249647</v>
+        <v>122.815668202765</v>
       </c>
       <c r="X14">
-        <v>95.2242595204513</v>
+        <v>95.74884792626726</v>
       </c>
       <c r="Y14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z14">
-        <v>0.03488989121782966</v>
+        <v>0.03369594056778986</v>
       </c>
       <c r="AA14">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="AB14">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AC14">
         <v>15060.5</v>
       </c>
       <c r="AD14">
-        <v>0.9826086956521739</v>
+        <v>0.7511520737327189</v>
       </c>
       <c r="AE14">
-        <v>0.4398510514018691</v>
+        <v>0.4257866613892737</v>
       </c>
       <c r="AF14">
         <v>0.7597871052366058</v>
       </c>
+      <c r="AG14">
+        <v>1.601779818534851</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15">
         <v>37920</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I15">
         <v>37.2295733</v>
@@ -2118,70 +2166,73 @@
         <v>-80.4139393</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15">
-        <v>38.06539541413196</v>
+        <v>38.11695080899119</v>
       </c>
       <c r="M15">
-        <v>69.60575573233506</v>
+        <v>69.67683787599088</v>
       </c>
       <c r="N15">
-        <v>12.35084230229293</v>
+        <v>12.35801932891736</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P15">
-        <v>0.6357014695830485</v>
+        <v>0.6364277170198223</v>
       </c>
       <c r="Q15">
-        <v>67.07770270270271</v>
+        <v>67.06500593119809</v>
       </c>
       <c r="R15">
-        <v>97.98856548856551</v>
+        <v>98.03321470937129</v>
       </c>
       <c r="S15">
-        <v>26.01559251559252</v>
+        <v>26.06287069988138</v>
       </c>
       <c r="T15" t="s">
         <v>106</v>
       </c>
       <c r="U15">
-        <v>0.2976973684210527</v>
+        <v>0.3016917293233083</v>
       </c>
       <c r="V15">
-        <v>100.1735807860262</v>
+        <v>101.4276315789473</v>
       </c>
       <c r="W15">
-        <v>125.2161572052402</v>
+        <v>125.3497807017543</v>
       </c>
       <c r="X15">
-        <v>62.08078602620086</v>
+        <v>65.10197368421052</v>
       </c>
       <c r="Y15" t="s">
         <v>106</v>
       </c>
       <c r="Z15">
-        <v>0.06660116199589884</v>
+        <v>0.06188055365686945</v>
       </c>
       <c r="AA15">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="AB15">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AC15">
         <v>47232.5</v>
       </c>
       <c r="AD15">
-        <v>0.6373626373626373</v>
+        <v>0.5152838427947598</v>
       </c>
       <c r="AE15">
-        <v>0.4894458145945162</v>
+        <v>0.436981903634076</v>
       </c>
       <c r="AF15">
         <v>0.7729284796714041</v>
+      </c>
+      <c r="AG15">
+        <v>166.9147491455078</v>
       </c>
     </row>
   </sheetData>
